--- a/NYC_Labels.xlsx
+++ b/NYC_Labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1205">
   <si>
     <t>Labels</t>
   </si>
@@ -22,6 +22,12 @@
     <t>URL</t>
   </si>
   <si>
+    <t>Smile Sleeve Font Happy Job Poster Wrinkle Event Brand Collar</t>
+  </si>
+  <si>
+    <t>Skyscraper Atmosphere Daytime Building Cloud Water Sky Tower block World Cityscape</t>
+  </si>
+  <si>
     <t>Water Sky Building Cloud Font Tower block Real estate Facade Lake City</t>
   </si>
   <si>
@@ -223,205 +229,3406 @@
     <t>Building Daytime Window Infrastructure Umbrella Architecture Urban design Mode of transport Travel Pink</t>
   </si>
   <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/244223938_368298534986661_4759966652246260627_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=109&amp;_nc_ohc=Ts0XbtxZrUQAX9Ug30w&amp;tn=nK4f2kXZZNiPj7mO&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=0e5b786abcb19b2c15576832e4332898&amp;oe=615E5707&amp;_nc_sid=498da5</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/244045848_4266480940136322_4163863257462959557_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=106&amp;_nc_ohc=MGKSgv02m1UAX-iffYI&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f413a86dd8f9cba13a55bc308817bab6&amp;oe=616315C5&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3NTkwNDA5MDQ2NDg5NTEzNQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/243869242_292036456110670_6304236531036891384_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=NFguIYlT2tEAX-xLY-z&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3f5c64471d50d943764cde85648eb327&amp;oe=61628945&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3NTg4MDc2NDI1MjY4OTIyOA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/244053255_604035107293684_8594457174376737582_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=104&amp;_nc_ohc=GA7XrbWeYxIAX9ey4a2&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4ffae60301a70bbb6c38824e430c4e89&amp;oe=61634E5A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3NTE4NjUwOTM4Mjk0MjE4NA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/243552540_281851916906145_211088871643784566_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=109&amp;_nc_ohc=tCm7a1T1N_8AX8X2_rx&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=98d55992d7d8ed594150d30bd3db7cf1&amp;oe=61625622&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3Mzg5OTU2MTY3MTY4NTUwNA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/242630902_605444214162807_3343613535826855399_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=5Lq5pXetN_wAX8Q8zZn&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=163895a212284e1c6e8bba43afacccb2&amp;oe=61621699&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3MDAzNjkzNzUyMDYxMTQ1MQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/p1080x1080/242638835_263833975744252_2657688751862898270_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=104&amp;_nc_ohc=zhWX2oz172MAX-jOK78&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=4541ad28056f519ef062625a9b1491f0&amp;oe=61625DF3&amp;_nc_sid=498da5</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/p1080x1080/242873822_126446596395032_6335414169534532420_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=qpQcopFrGEAAX9APkQk&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=076c9a5f85aeab2065e14ceaee3218ce&amp;oe=6163A1B5&amp;_nc_sid=498da5</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/242108132_1053708085398259_4182574983661100222_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=107&amp;_nc_ohc=teC9QepVg5MAX-9HGeT&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=482a58df4773e7d5be509511e9ff3e08&amp;oe=6161F10B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY2NTkyODQyMzAxNjQ1ODcwMg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/242188325_246039140757810_5897642387854579217_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=106&amp;_nc_ohc=U1dynR26PkMAX-aprof&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=dbf90db13dd24eb995caa13bf7750d91&amp;oe=61621B7D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY2NDI5MDA4NjI1MjYxMjU0Ng%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/241779801_216136333827833_7222190117152379822_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=105&amp;_nc_ohc=Tq_6UB_PTAMAX_8QVWc&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=c20699bfeda1ac73aa572e40c74bb478&amp;oe=6162EAF8&amp;_nc_sid=498da5</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/241798263_583490842657200_4659138343808053297_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=100&amp;_nc_ohc=YQ4gnT71lMAAX_VFZRf&amp;tn=nK4f2kXZZNiPj7mO&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=b0a367a46b20fa55ffc8f81d74203042&amp;oe=6162C54D&amp;_nc_sid=498da5</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/241674049_344388424052802_486893643163288786_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=106&amp;_nc_ohc=wMm3XmJXGNAAX_B6CYK&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=276f2ba08c008e1677bd958f1dfcd875&amp;oe=61624BD3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY2MDc3NTY0ODc2NTYwMzQ2NA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/p1080x1080/241730300_441196337196465_6571039621260761209_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=109&amp;_nc_ohc=t4k9h-9higkAX8nQVMg&amp;tn=nK4f2kXZZNiPj7mO&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=68c77bfebda30a73aee542de4aaf8644&amp;oe=61620392&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/241314052_240995384470847_1244246613939545933_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=9nYqFsAkYQEAX8vWTho&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3fa232e483de508f28c7e518ea52bbdb&amp;oe=616254A6&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY1Nzc5NjE2MzM5NzEyMDE3NQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/241379037_377323863934910_877291454087951571_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=102&amp;_nc_ohc=fRunJN4k2RkAX8HUPev&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5071cb7a04675d289959ff88363ce27b&amp;oe=61637D43&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY1NzA0Mzg2ODA2NTQ2NTA0Mw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/241313973_1222479744831601_7137378186814046396_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=V-RJt0UZA-4AX-B0qfN&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4db78d14b57678a02b8a8b7390a56d11&amp;oe=6162B520&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY1NTU2MjcxMDc2OTQ1NzY0Mw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/240635356_427560721967333_7719844020952703725_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=105&amp;_nc_ohc=Dgc1k-rKd-AAX_Dfkuz&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f2dcfac762fea6ee928568ce333b1a49&amp;oe=61626D83&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NzYyOTE0MjA2MzgxNjAxNg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/240440174_531110678105459_8789390914637620613_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=ZFKFxjmLZNAAX9TcA6v&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c979e34cc19d4455acdfbbd7b32bc582&amp;oe=6162A1F4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NjkyMjE4NDc1OTI0NzU4Mw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/240385321_133976795595871_2943754908126560655_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=107&amp;_nc_ohc=4yQ8BqZBdcQAX9zTDxt&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9c9476895df99c82d83605a8a7a89f67&amp;oe=61636496&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NTQzNzY2NjE5ODE3ODg5MQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/239662493_374778480924674_5307763796037706020_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=102&amp;_nc_ohc=nPHHtoBJUoYAX8ADLWI&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=868cb5fdaa41e7c629f4ed8bc261723b&amp;oe=6162C022&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NDcyNjc0OTA1OTg2NzQ1OQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/240281879_4406277436132296_2725609730329965153_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=100&amp;_nc_ohc=lrQvtcZaUnYAX-W8Ak6&amp;tn=nK4f2kXZZNiPj7mO&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3cafab22fec49b507663f0ded6e0b607&amp;oe=61633A22&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/239414048_334391438378397_4465411634073241130_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=109&amp;_nc_ohc=6WsLW7DPdXwAX_DET7B&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=373c5b8db3f384593df6b61100c8d8ff&amp;oe=6161F1CD&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/235835267_240437571279863_8691371872780851736_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=8cKguYlIOtwAX-pgr-W&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=18b4c5eb776e1a423c7f5b08b614ac22&amp;oe=616306F1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzOTU2NzQwNjU1MTExMDU5OA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/236624141_4946222388739405_1895373663666784135_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=SlaakEbV-BQAX-hxKRR&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=99893b892b48a633bedb8d4478d88e96&amp;oe=61631F3B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzODE2MzY4MDY5MzU5NDUyMg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/234796967_881686379095633_1733323972484542563_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=3pZXkardBBQAX9FpMp9&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=657502644025933126390bbd74355453&amp;oe=615E1343&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/234057187_3038927909767093_1473674202059958530_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=x04JJPFEtIoAX9nUaRM&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9ade1cc7a07226f359b568a43b5ec7ee&amp;oe=6162E453&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzNjUzOTU1MjYxMTY0ODAwOQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/233935792_557325268955691_5065934801476322496_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=ds8Z2-ukmr4AX8Hd2GN&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1f5f9c884a340bc7cc0e4bcdcb5c6be9&amp;oe=6162D3A1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzNTg0MTcyMjcxNjc4MTk2OQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/233344435_1770921563115982_1654500604956034583_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=Ko5HfV3Et5IAX8BTWO2&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0b9d7f4cb888804470230f3c742f9c16&amp;oe=6163BA8D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzMzk4NjQ5NDQzODMxODU0OQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/233650134_598814391523347_3646922840360679866_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=XbRK4_1mSB8AX9ZA-ZE&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c45def802597ed25ce68ada76b3b5a6f&amp;oe=616203A3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzMzE1MDA2MzE1NTQwNTY4NA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/228197390_808410886529685_2540714815975230931_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=109&amp;_nc_ohc=i3qGhVC5GkEAX_xLZ2X&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e54d8f52f43f2ab9513c3c33d4e0ee56&amp;oe=61630324&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzMDc3NDg1MjQxNDIxOTAzNg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/227350496_1400213457028520_2198668423609035167_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=bKXkfM2VDS4AX8GzONx&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=33451b2a7b7a239b773108c29fe8cbce&amp;oe=6163A14F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyOTQ4MzQ4MDcwNTA5NTI4Mw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/223941596_898037730922657_7453629532880963454_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=v0zMnpNsXwsAX_XJ9vZ&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=89c4abf13ba6f24242a1b5bb6324211b&amp;oe=615E1A98&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/223097454_130827175801714_3137040274256453228_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=BMvN4GC8aDQAX9DRRPh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2393af2ff788af550ef96f4f4ee738f1&amp;oe=616305D1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyNDQzMjY0OTczMTQ0Mzk4Nw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/221294106_379899116897689_1081389606060507753_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=hsbV2BK6LioAX-kSQkP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=55624cf9045ba3a89db0fc4bd5469731&amp;oe=6162518B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyMjQwODAxNTcwMjQ3NjEyNQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/220763494_323076102879909_4504348647608006432_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=109&amp;_nc_ohc=A2FaKFM0qmYAX8Erq8T&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=75b82f6e3234631940b40757450e5eec&amp;oe=6162A42D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyMjA3NzM5MzY2NjcyMTQ5MQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/212711075_236100491688555_8201770125160355012_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=Q43PmbUs3poAX-lac16&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=185a5857e526c5534201d66de0bfecc6&amp;oe=615E590C&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/210850775_1671298716593954_870713762378299389_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=102&amp;_nc_ohc=-cv7razHb1oAX9O5kOa&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6d6074f334247059f669246a580f2759&amp;oe=6162FAE4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYxMjczMzk2NzcxMzcxOTQ3Nw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/211182893_1527329567604560_2913375741570868831_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=KG_vEQ9j3m0AX_IqlMY&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=a8b698fc7bf2275b6c20cea17c3cfa60&amp;oe=6162CECC&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/211338421_138649165041664_6481700892282090741_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=104&amp;_nc_ohc=Z_reOzJCJRoAX9NmXep&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=78face767baa95e4ae5be44c228b143a&amp;oe=61638CAD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYxMjcxMTIwMDY4NzczNTQ5Mg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/210078111_513329693313291_7289135658490324911_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=fSV5UelpOX4AX-4TtrU&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=08a62232c39abc206b175997d882cbb3&amp;oe=6163A35B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYxMDc5OTA3NjQ4OTc2OTI5NA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/209772152_230019608987903_3473970748837900681_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=pK-lMq0z-CsAX94hTKa&amp;tn=nK4f2kXZZNiPj7mO&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=cd6e70da79fce647a11779e3b927611d&amp;oe=615E78C6&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/210390171_3009681569255568_7743164941893647604_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=100&amp;_nc_ohc=4p6XYGYP8S8AX-PBgX7&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7a3196b9dd9b54e850d83eb614c5dd7a&amp;oe=61627CCB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwOTI0MjMyMjQ2MDY3NzAwNg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/209475471_2900755950200178_381599774576869660_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=106&amp;_nc_ohc=VwI9DfjWHcIAX8A2H8D&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=095ce3ffc275cd2bfc5c1da736f668d1&amp;oe=6162C388&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNjMxMjEwODY0NjY0MTYzNQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/209250154_3035456360009929_9118424050709357858_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=02FDXZXQG_EAX_gnMZg&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2ef3d54f44055d59065ca406a56aab08&amp;oe=61627D92&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNjE0MzM3NjIwMDY1NDgwNw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/209250151_915219035722534_9006157847699942877_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=p0Ib135XIcYAX8djIHR&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=988c6a47ec911d077291bd00ed43824b&amp;oe=61638A4A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNTU4MDE2ODI4OTEwOTc2MQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/209039380_4456030497782012_6134985638914635188_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=H2ZViCBNz6gAX9H7d-P&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4bd4d23eef06786f51eb3d50c7c29cc3&amp;oe=6162EBB1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNTU1NzE1NDY4ODI4ODMxOA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/208052699_212108520763625_9061482095300046004_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=105&amp;_nc_ohc=02ERu3vGWTQAX8dNnBV&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7cea68e5eee01df6743a990d2210720e&amp;oe=61620344&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNDY3ODYyMjE3MzA1NDc5Mw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/207454411_183438873732781_8830995917798153613_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=-utb5IzsFGcAX8wNRjG&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=388d636a6ace7303975c7ffb63bedf66&amp;oe=6163CCA9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNDE2NTAxMjk2MzQ0MTAyNA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/205015304_1064147134119114_9118412033084527374_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=106&amp;_nc_ohc=8ANQeibb1KIAX_W71a6&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6276026ef32c78f21c431229b160eb42&amp;oe=616321ED&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMjc0MzA3MjM3NjEwOTE5Ng%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/204691979_756479215030092_2179195165188216288_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=100&amp;_nc_ohc=H3ypakTCkhQAX-A0Aaf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3569e9e794534b9f4400f984db32f6fc&amp;oe=61624940&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMTcwODQ0MjI0MzkyMzg4MA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/204501165_233575988325416_5421561597533636454_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=0bsUvt-jPRwAX_rB0r8&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=80572b6d9eadd944fed2037a15a8de1d&amp;oe=61626B64&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMTM0NjYyNTA2MzcxOTg0Ng%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/204222823_633750064254646_1348431351052592663_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=_Jr6MoAptk0AX8kTW6G&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f44d77c3ea6e7a61af3882cd482208b1&amp;oe=6162C97E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMDI3NDYyNzQ4MzA1NjIxNw%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/203251697_172766351483575_2058090092735854420_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=107&amp;_nc_ohc=mA_aqbsO67EAX8ZvjE2&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9d83b86c4b38915b04c367e386d53bfb&amp;oe=61639077&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5OTY4NTg0OTI0ODgzOTk3Ng%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/202239175_1852293691617361_3458987646743534166_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=mYXNeab1dEYAX_yldSu&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=711e930b9a9553a7d69ef126159000a7&amp;oe=615DE6DE&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/202658175_399603657949652_572387913990177200_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=MWQLYJtJL54AX9Tf2gy&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=65c9c10e2115f8fb4d02bf616d703255&amp;oe=6163860C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5ODIzMjUzNDg3NDk4ODU5MQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/201183617_4699950096686740_4355269313049450687_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=104&amp;_nc_ohc=9RkFQmTYzmUAX8PKvtq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a84a111f1c2e84ed9648e1ce86be6c33&amp;oe=6162E9F9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5NzQyMTIxMTM2Njk1OTYzMg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/131405933_816328642589013_3265185616363272351_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=109&amp;_nc_ohc=9sfCvgU3Jw8AX-DeSXV&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1c18d5aee04563e60d9d2f05210ed85b&amp;oe=6163251A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5NjAxNDUxNTgzMzM3MDgyMQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/198113363_4095454873841386_5999523417949226225_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=vcbFfoOTr0oAX_jKhUw&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7c3cc2f6a3c497028b2d92c01c25f527&amp;oe=61625481&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5MjQzMDQzMTM1MDk2Njg2Ng%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/195894601_3993138920734752_1430111843331286424_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=100&amp;_nc_ohc=9-_DRR4nBzQAX-hS18X&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=b8211254aec2174e0abbad86bf4f64ba&amp;oe=61636A57&amp;_nc_sid=86f79a</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/196379273_2590960011204970_3922602638049003175_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=v-RVbukHXbQAX80FDRA&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e08788c092f4e217fdfea3b3f800b0c9&amp;oe=6162DA34&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU4NzU3NzUyMTE5NDQ2NTMwMQ%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/194827200_858718314719462_7642705898682570361_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=102&amp;_nc_ohc=NjzfTPkEPuIAX-uwO6F&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b725c59f302a22fa36c184f0c4e7a6e5&amp;oe=6161D700&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU4NjgyNjM2ODQ2NzAyOTE3NA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/191092607_266601221886569_3590942585836030001_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=105&amp;_nc_ohc=yOYfFwQIqbYAX9UWKSd&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=dde02a54af9dfab16c2ed40fddeb0d4d&amp;oe=61637B6A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU4MjQyMzc0MjU2NDM1NzYzNA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/188225601_936386537216551_7984357034006535858_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=107&amp;_nc_ohc=dqZeey3qOlMAX950H1X&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b8e51362b39150af41cafbb23aa457c6&amp;oe=6162DB24&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3NzMyMTkwOTUxNjkxNDg2Ng%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/187772297_282893266909260_9097829881151830758_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=100&amp;_nc_ohc=IeDKLt1oBZYAX9eR0rE&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7a0cea48a5183c2d5f23c6c56411a2d0&amp;oe=6163B57E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3NjYwNTEyODMwNTM3MjE3NA%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/187624674_744233922926988_4927788345124347853_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=100&amp;_nc_ohc=_ztk_8ysphoAX94YF9t&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d962496f1f74560e3cc1af3ef77d8876&amp;oe=6162D0F7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3NTc0MjM1MTQ0MTMxMTIwNg%3D%3D.2-ccb7-4</t>
-  </si>
-  <si>
-    <t>https://scontent-hou1-1.cdninstagram.com/v/t51.2885-15/e35/184761235_757964191574890_4540503475761071267_n.jpg?_nc_ht=scontent-hou1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=gqayfvnoyyIAX_TKciR&amp;tn=nK4f2kXZZNiPj7mO&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f074ce2679e5adddf4dbb2aea161ec92&amp;oe=61636099&amp;_nc_sid=86f79a</t>
+    <t>World Azure Line Font Illustration City Graphics Electric blue Poster Brand</t>
+  </si>
+  <si>
+    <t>Building Sky Daytime Skyscraper Plant Nature Dusk Lighting Tower block Sunlight</t>
+  </si>
+  <si>
+    <t>Outerwear Microphone Coat Sleeve Gesture Suit Blazer Formal wear Event Electric blue</t>
+  </si>
+  <si>
+    <t>Skyscraper Sky Building Atmosphere Daytime World Tower Dusk Afterglow Urban design</t>
+  </si>
+  <si>
+    <t>Table Yellow Tableware Interaction Adaptation Leisure Recreation Toy Desk Engineering</t>
+  </si>
+  <si>
+    <t>Water Cloud Sky Skyscraper Building Water resources Daytime World Natural landscape Tower block</t>
+  </si>
+  <si>
+    <t>Water Sky Building Cloud Skyscraper Bird Daytime Tower Tower block Lake</t>
+  </si>
+  <si>
+    <t>Hair Cheek Chin Facial expression Happy Gesture Art Font Rectangle Pink</t>
+  </si>
+  <si>
+    <t>Sky Plant Building Cloud Tower Tree Skyscraper Grass Urban design Tower block</t>
+  </si>
+  <si>
+    <t>Sky Moon Blue Building Dusk Electricity Astronomical object Full moon Electric blue Event</t>
+  </si>
+  <si>
+    <t>Cloud Sky Plant Building Daytime Nature Branch Tree Lighting Road surface</t>
+  </si>
+  <si>
+    <t>Smile Happy Gesture Entertainment Community Leisure Performing arts Fun Summer T-shirt</t>
+  </si>
+  <si>
+    <t>Cartoon Gesture Font Happy Electric blue Drawing Art Animated cartoon Animation Illustration</t>
+  </si>
+  <si>
+    <t>Podium Shirt Flag Military person Flag of the united states Coat Gesture Chair Curtain Military officer</t>
+  </si>
+  <si>
+    <t>Flower Plant Photograph Green Botany Branch Purple Twig Pink Tree</t>
+  </si>
+  <si>
+    <t>Font Red Material property Magenta Screenshot Advertising Graphic design Event Publication Carmine</t>
+  </si>
+  <si>
+    <t>Facial expression Vertebrate White Green Blue Product Azure Cartoon Happy Organism</t>
+  </si>
+  <si>
+    <t>Clothing Outerwear Photograph Product Organ Smile Coat Yellow Beard Microphone</t>
+  </si>
+  <si>
+    <t>Liquid Car Vehicle Automotive lighting Line Paint Water Motor vehicle Tints and shades Glass</t>
+  </si>
+  <si>
+    <t>Water Watercraft Body of water Boat Lake Leisure Midnight Fence City Tree</t>
+  </si>
+  <si>
+    <t>Clothing Coat Gesture Tie Hat Automotive design Suit Fashion design Blazer Formal wear</t>
+  </si>
+  <si>
+    <t>Flower Plant Daytime White Green Light Building Leaf Petal Sky</t>
+  </si>
+  <si>
+    <t>Daytime Sky World Hat Leisure Recreation People Fun Ferris wheel Event</t>
+  </si>
+  <si>
+    <t>Flower Plant Petal Terrestrial plant Annual plant Flowering plant Close-up Herbaceous plant Pollen Macro photography</t>
+  </si>
+  <si>
+    <t>Sky Building World Blue Street light Branch Cloud Window Tree Urban design</t>
+  </si>
+  <si>
+    <t>Water World Light Lighting City Building Crowd Ice rink Ice skating Leisure</t>
+  </si>
+  <si>
+    <t>Yellow Organism Font Line Grass Poster Plant Illustration Tree Recreation</t>
+  </si>
+  <si>
+    <t>Flower Sky Daytime Botany Azure Twig Branch Woody plant Plant Tree</t>
+  </si>
+  <si>
+    <t>Happy Font Pink Plant Violet Magenta Art Rectangle Illustration Poster</t>
+  </si>
+  <si>
+    <t>Clothing Hair Outerwear Hairstyle Organ Human Sleeve People Community Eyewear</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Daytime Window Tower block Architecture Dusk Afterglow Urban design</t>
+  </si>
+  <si>
+    <t>Font Gas Electric blue Tower Art Symbol Pole Finial Graphics Still life photography</t>
+  </si>
+  <si>
+    <t>Glasses Facial expression Vision care Organism Rectangle Font Eyewear Happy Art Poster</t>
+  </si>
+  <si>
+    <t>Shoe Furniture Fashion Automotive design Chair Sneakers Engineering Fashion design Flooring Event</t>
+  </si>
+  <si>
+    <t>Sky Building Skyscraper Water Tower World Tower block Condominium Urban design Facade</t>
+  </si>
+  <si>
+    <t>Font Aqua Magenta Electric blue Pattern Illustration Graphics Circle Number Art</t>
+  </si>
+  <si>
+    <t>Gesture Eyewear Luggage and bags Street fashion Hat Event Tie Suit Crowd Entertainment</t>
+  </si>
+  <si>
+    <t>Flower Cloud Sky Plant Petal Body of water Natural landscape Fence Grass Morning</t>
+  </si>
+  <si>
+    <t>Flower Petal Flag Candle Decoration Flower Arranging Rose Event Flag of the united states Magenta</t>
+  </si>
+  <si>
+    <t>Font Electric blue Terrestrial plant Circle Darkness Event Brand</t>
+  </si>
+  <si>
+    <t>Rectangle Fixture Font Signage Composite material Nameplate Room Sign Brand Paint</t>
+  </si>
+  <si>
+    <t>Atmosphere Sky Building Cloud Gesture Sunlight Dusk Sunset Natural landscape Sunrise</t>
+  </si>
+  <si>
+    <t>Water Building Skyscraper Sky Light Tower Electricity Tower block Cloud Cityscape</t>
+  </si>
+  <si>
+    <t>Clock Font Alarm clock Electric blue Circle Screenshot Logo Number Rectangle Brand</t>
+  </si>
+  <si>
+    <t>Blue Purple Font Rectangle Terrestrial plant Electric blue Crown Logo Magenta Symbol</t>
+  </si>
+  <si>
+    <t>Water Sky Body of water Lighting Orange Lake Travel Morning City Horizon</t>
+  </si>
+  <si>
+    <t>Blue Purple Font Rectangle Electric blue Crown Logo Magenta Symbol Graphics</t>
+  </si>
+  <si>
+    <t>Water Skyscraper Building Sky Tower Condominium Tower block Cityscape Commercial building Real estate</t>
+  </si>
+  <si>
+    <t>Brown Sky Building Skyscraper Daytime Property Window Cloud Fixture Infrastructure</t>
+  </si>
+  <si>
+    <t>Joint Human body Gesture Elbow Comfort Thumb Knee Wrist Human leg Cap</t>
+  </si>
+  <si>
+    <t>World Human body Organism Font Line Red Crowd Art Event Electric blue</t>
+  </si>
+  <si>
+    <t>Hair Facial expression Gesture Font Happy Poster Magenta Art Electric blue Illustration</t>
+  </si>
+  <si>
+    <t>Coat Sleeve Gesture Hearing Spokesperson Blazer Microphone White-collar worker Event Official</t>
+  </si>
+  <si>
+    <t>Triangle Art Font Emblem Star Symmetry Pattern Symbol Circle Graphics</t>
+  </si>
+  <si>
+    <t>World Building Blue Water Font Window Wall Facade People City</t>
+  </si>
+  <si>
+    <t>Cheek Facial expression Rectangle Happy Poster Font Art Illustration Lipstick Graphics</t>
+  </si>
+  <si>
+    <t>Building Sky Window Daytime Plant Snow Tree World Branch Architecture</t>
+  </si>
+  <si>
+    <t>Bird Sky Beak Snow Lari Feather Gull Freezing Seabird Foam</t>
+  </si>
+  <si>
+    <t>Sky Cloud Snow Street light Tree Slope Freezing Landscape Geological phenomenon Recreation</t>
+  </si>
+  <si>
+    <t>Sky Water Cloud Building Lighting Cityscape Urban design Tower block City Landscape</t>
+  </si>
+  <si>
+    <t>Font Brand Illustration Graphics Poster Science Advertising Engineering Armrest Logo</t>
+  </si>
+  <si>
+    <t>Skyscraper Gesture Tower Happy Font People in nature Art Petal Tree Travel</t>
+  </si>
+  <si>
+    <t>Rectangle Font Art Red Working animal Poster Terrestrial animal Illustration Magenta Logo</t>
+  </si>
+  <si>
+    <t>Water Cloud Sky Water resources Daytime Building Azure Urban design Skyscraper Cityscape</t>
+  </si>
+  <si>
+    <t>Snow Plant Nature Natural landscape Tree Twig Wood Freezing Thoroughfare Trunk</t>
+  </si>
+  <si>
+    <t>Clothing Snow White Winter sport Outdoor recreation Slope Ice cap Leisure Headgear Freezing</t>
+  </si>
+  <si>
+    <t>Forehead Nose Cheek Skin Lip Eyebrow Eyelash Organ Black Earrings</t>
+  </si>
+  <si>
+    <t>Dog Snow Dog supply Dog breed Carnivore Dog clothes Pet supply Companion dog Collar Toy dog</t>
+  </si>
+  <si>
+    <t>Footwear Shoe Leg Standing Sneakers Tire Flooring Engineering Customer Electric blue</t>
+  </si>
+  <si>
+    <t>Font Rectangle Screenshot Circle Parallel Number Document</t>
+  </si>
+  <si>
+    <t>World Azure Sky Font Astronomical object Material property Electric blue Asphalt Space Screenshot</t>
+  </si>
+  <si>
+    <t>Window Building Sky Light Road surface Street light Lighting Automotive lighting Thoroughfare Neighbourhood</t>
+  </si>
+  <si>
+    <t>Water Sky World Natural landscape Biome Sunrise Font Dusk Tower Sunset</t>
+  </si>
+  <si>
+    <t>Clothing Daytime Photograph Handwriting Eyewear Luggage and bags Community Crowd People Handbag</t>
+  </si>
+  <si>
+    <t>Product Azure Sky Font Electric blue Calm Logo Astronomical object Graphics Brand</t>
+  </si>
+  <si>
+    <t>Furniture Chair Building Window Door Neighbourhood Tree City Leisure Facade</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Blue Window Building Dusk Sunlight Urban design Landscape</t>
+  </si>
+  <si>
+    <t>Happy Sleeve Gesture Poster Font Pink Finger Magenta Thumb Electric blue</t>
+  </si>
+  <si>
+    <t>Water Sky Building Girder bridge Waterway Cityscape Horizon Skyscraper City Dusk</t>
+  </si>
+  <si>
+    <t>Sky Statue Sculpture Font Monument Landscape Art Plant Event Advertising</t>
+  </si>
+  <si>
+    <t>Sky Water Cloud Bird Atmosphere Light Afterglow Dusk Sunset Body of water</t>
+  </si>
+  <si>
+    <t>Font Electric blue Graphics Logo Brand Circle Publication Metal Graphic design Advertising</t>
+  </si>
+  <si>
+    <t>Forehead Nose Chin Eyebrow Eye Facial expression Jaw Gesture Poster Happy</t>
+  </si>
+  <si>
+    <t>Water Sky Skyscraper Building Cloud Daytime Infrastructure Tower block Girder bridge Cityscape</t>
+  </si>
+  <si>
+    <t>Font Circle Screenshot Parallel Rectangle Number Electric blue</t>
+  </si>
+  <si>
+    <t>Street light Black Blue Brick Stairs Brickwork Wood Building Rectangle Black-and-white</t>
+  </si>
+  <si>
+    <t>Font Electric blue Magenta Brand Graphic design</t>
+  </si>
+  <si>
+    <t>Poster Publication Gesture Book Font Happy Movie Art Illustration Advertising</t>
+  </si>
+  <si>
+    <t>Sky Skyscraper Bird Building Tower Aircraft Tower block Beak Airplane Tree</t>
+  </si>
+  <si>
+    <t>Building Window Car Wheel Tire Vehicle Neighbourhood Public space Urban design City</t>
+  </si>
+  <si>
+    <t>Safety glove Blue Glove Sleeve Fluid Plastic bottle Finger Medical Gesture Liquid</t>
+  </si>
+  <si>
+    <t>Automotive design Motor vehicle Font Automotive exterior Audio equipment Engineering Automotive lighting Event Carmine Metal</t>
+  </si>
+  <si>
+    <t>Liquid Cosmetics Font Glass bottle Drink Bottle Tints and shades Alcoholic beverage Electric blue Darkness</t>
+  </si>
+  <si>
+    <t>Font Terrestrial plant Art Illustration Logo Poster Graphics Circle Symmetry Rectangle</t>
+  </si>
+  <si>
+    <t>Font Gas Computer keyboard Automotive design Technology Output device Machine Office equipment Engineering Advertising</t>
+  </si>
+  <si>
+    <t>Christmas tree Musician Christmas decoration Landmark Christmas ornament Event City Crowd Tradition Performing arts</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Building Street light Automotive lighting Vehicle Light Car Infrastructure</t>
+  </si>
+  <si>
+    <t>Rectangle Branch Triangle Holiday ornament Evergreen Christmas ornament Christmas decoration Font Tree Art</t>
+  </si>
+  <si>
+    <t>Outerwear Daytime Human Book Standing Street fashion Publication Eyewear Bookcase Blond</t>
+  </si>
+  <si>
+    <t>Gesture Font Finger Thumb Electric blue Illustration Graphics Logo Brand Diagram</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Building Afterglow Nature Dusk Amber Sunset Tower block</t>
+  </si>
+  <si>
+    <t>Blue Font Rectangle Brand Circle Electric blue Screenshot Parallel</t>
+  </si>
+  <si>
+    <t>Brown Sky Building Skyscraper Window World Cloud Tower Urban design Condominium</t>
+  </si>
+  <si>
+    <t>Blue Cap Gesture Baseball cap Electric blue Personal protective equipment Job Recreation Shooting Elbow</t>
+  </si>
+  <si>
+    <t>Light Lighting Automotive lighting Sky Architecture Interior design Line Building Wall Street light</t>
+  </si>
+  <si>
+    <t>Snow Slope Tree Winter sport Ice cap Freezing Sports equipment Recreation Leisure Fun</t>
+  </si>
+  <si>
+    <t>Blue Light Green Product Human Azure Sleeve Gesture Font Finger</t>
+  </si>
+  <si>
+    <t>Photograph Flash photography Snow Eyewear Cool Street fashion Cap Winter Event Personal protective equipment</t>
+  </si>
+  <si>
+    <t>Azure Sky World Font Line Material property Electric blue Screenshot Space Logo</t>
+  </si>
+  <si>
+    <t>Suit trousers Footwear Joint Trousers Shoe Dress shirt Coat Standing Gesture Tie</t>
+  </si>
+  <si>
+    <t>Cloud Sky Jeans Car Window Wheel Vehicle Building Vehicle registration plate Tire</t>
+  </si>
+  <si>
+    <t>Font Circle Brand Graphics Logo Signage Symbol Trademark</t>
+  </si>
+  <si>
+    <t>Cloud Sky Land vehicle Car Atmosphere Daytime Automotive lighting Vehicle Afterglow Tree</t>
+  </si>
+  <si>
+    <t>Organ Eyelash Gesture Finger Electric blue Thumb Job Font Cosmetics Glove</t>
+  </si>
+  <si>
+    <t>Product Font Poster Parallel Magenta Graphic design Brand Logo Advertising Graphics</t>
+  </si>
+  <si>
+    <t>Output device Personal computer Automotive design Computer Audio equipment Engineering Technology Machine Electronic device Home appliance</t>
+  </si>
+  <si>
+    <t>Menorah Hanukkah Candle holder Gesture Yellow Font Symmetry Symbol Event Thumb</t>
+  </si>
+  <si>
+    <t>Sky Water Building Fog Skyscraper Infrastructure Atmospheric phenomenon Cloud Tower block Fence</t>
+  </si>
+  <si>
+    <t>Flash photography Font Tints and shades Symmetry Stairs Art Darkness Poster Advertising Shadow</t>
+  </si>
+  <si>
+    <t>Smile Facial expression Sharing Happy Gesture Font T-shirt Greeting Adaptation Morning</t>
+  </si>
+  <si>
+    <t>Christmas tree Plant Purple Street light Building Window Electricity Tree Christmas decoration Facade</t>
+  </si>
+  <si>
+    <t>Water Sky Skyscraper Building Cloud Bird Daytime Tower Body of water Tower block</t>
+  </si>
+  <si>
+    <t>Azure Sleeve Purple Comfort Elbow Medical Glove Petal Tints and shades Electric blue</t>
+  </si>
+  <si>
+    <t>Textile Font Event Recipe Pattern Cable Wire Metal Fashion accessory Cuisine</t>
+  </si>
+  <si>
+    <t>Clothing Footwear Shoe Outerwear Textile Street fashion Sleeve Jacket Sneakers Road</t>
+  </si>
+  <si>
+    <t>Forehead Nose Cheek Skin Head Lip Hand Hairstyle Eye Eyebrow</t>
+  </si>
+  <si>
+    <t>Publication Book Font Poster Rectangle Advertising Signage Magenta Tints and shades Event</t>
+  </si>
+  <si>
+    <t>Bicycle Building Wheel Photograph Window Tire Sky Infrastructure Bicycles--Equipment and supplies Road surface</t>
+  </si>
+  <si>
+    <t>Christmas tree Rectangle Plant Branch Tree Organism Natural landscape Biome Font Evergreen</t>
+  </si>
+  <si>
+    <t>Water Sky Bird Cloud Body of water Watercraft Dusk Boat Bridge Cityscape</t>
+  </si>
+  <si>
+    <t>Font Output device Gas Engineering Machine Technology Advertising Design Computer keyboard Pipe</t>
+  </si>
+  <si>
+    <t>Product Sleeve Font Electric blue Advertising Toddler Child Photo caption Brand Happy</t>
+  </si>
+  <si>
+    <t>Cloud Skyscraper Building Sky Daytime Property Window Tower Urban design Architecture</t>
+  </si>
+  <si>
+    <t>Gesture Font Book Happy Poster Electric blue Book cover Logo Publication Illustration</t>
+  </si>
+  <si>
+    <t>Christmas tree Building Christmas ornament Blue Light Skyscraper Purple World Architecture Electricity</t>
+  </si>
+  <si>
+    <t>Font Electric blue Slope Poster Brand Advertising Event Parallel Graphic design</t>
+  </si>
+  <si>
+    <t>Car Automotive parking light Land vehicle Vehicle Sky Tire Wheel Daytime Photograph Cloud</t>
+  </si>
+  <si>
+    <t>Building Daytime Blue Infrastructure Sky Road surface Mode of transport Thoroughfare Architecture Neighbourhood</t>
+  </si>
+  <si>
+    <t>Forehead Smile Chin Tie Coat Dress shirt Gesture Suit Material property Blazer</t>
+  </si>
+  <si>
+    <t>Water Sky Bird Skyscraper Building Cloud Daytime Tower Tower block Dusk</t>
+  </si>
+  <si>
+    <t>Product Font Adaptation Sleeve T-shirt Photo caption Advertising Brand Poster Publication</t>
+  </si>
+  <si>
+    <t>Gesture Happy Font Symbol Art Electric blue Event Logo Illustration Graphics</t>
+  </si>
+  <si>
+    <t>Blue Azure Sleeve Workwear Gesture Entertainment Electric blue Event Uniform Performing arts</t>
+  </si>
+  <si>
+    <t>Picture frame Art Painting Artist Illustration Curtain Visual arts Room Event Poster</t>
+  </si>
+  <si>
+    <t>Sky Cloud Building Electricity Plant Cable-stayed bridge Overhead power line Girder bridge Suspension bridge Bridge</t>
+  </si>
+  <si>
+    <t>Face Forehead Photograph Smile Eye White Organ Black Human Tie</t>
+  </si>
+  <si>
+    <t>Font Magenta Electric blue Motor vehicle Rectangle Poster Parallel Graphic design Graphics Brand</t>
+  </si>
+  <si>
+    <t>Blue Fixture Symmetry Dome Circle Ceiling Pattern Roof Art Holy places</t>
+  </si>
+  <si>
+    <t>Font Poster Magenta Logo Brand Graphics Graphic design Electric blue Rectangle Advertising</t>
+  </si>
+  <si>
+    <t>Font Rectangle Circle Parallel Electric blue Screenshot</t>
+  </si>
+  <si>
+    <t>Water Sky Boat Building Watercraft Vehicle Body of water Naval architecture Lake Cityscape</t>
+  </si>
+  <si>
+    <t>Happy Street fashion Community Entertainment Audio equipment Eyewear Leisure Fun Event Formal wear</t>
+  </si>
+  <si>
+    <t>Tire Motor vehicle Wheel Font Vehicle Van Parallel Advertising Car Electric blue</t>
+  </si>
+  <si>
+    <t>Sky Cloud Building Window Natural landscape Tree Yellow Twig House Biome</t>
+  </si>
+  <si>
+    <t>Font Electric blue Rectangle Logo Brand Graphics Slope Signage</t>
+  </si>
+  <si>
+    <t>Sky Plant People in nature Natural landscape Tree Botany Branch Twig Trunk Sunlight</t>
+  </si>
+  <si>
+    <t>Footwear Shoe Photograph Product Human Street fashion Fashion Sleeve Hat Eyewear</t>
+  </si>
+  <si>
+    <t>Water Sky Plant Coastal and oceanic landforms Beach Terrain Wind wave Waterway Landscape Horizon</t>
+  </si>
+  <si>
+    <t>Trousers Outerwear Tire High-visibility clothing Motor vehicle Green Workwear Road surface Wheel Asphalt</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Statue Sculpture Dusk Watercraft Horizon Sunset Morning</t>
+  </si>
+  <si>
+    <t>Font Poster Hat Event Photo caption Illustration Electric blue Official Advertising Brand</t>
+  </si>
+  <si>
+    <t>Sky Building Leaf Blue Nature Branch Twig Vegetation Plant Biome</t>
+  </si>
+  <si>
+    <t>Font Electric blue Symbol Brand Circle Signage Sign Logo Parallel Graphics</t>
+  </si>
+  <si>
+    <t>Water Sky Lake Travel Landmark Tower Wood Cap Leisure Hat</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Skyscraper Afterglow Red sky at morning Dusk Sunrise Sunset Cityscape</t>
+  </si>
+  <si>
+    <t>Vehicle Motor vehicle Plant Gesture Travel Sky Asphalt Grass Rectangle Leisure</t>
+  </si>
+  <si>
+    <t>Bicycle People in nature Nature Green Road surface Leaf Infrastructure Wheel Branch Plant</t>
+  </si>
+  <si>
+    <t>Smile Property Facial expression Product Sharing Happy Gesture Interaction Font Social group</t>
+  </si>
+  <si>
+    <t>Sports equipment Sports Flooring Parallel Ball game Field house Team sport Electric blue Recreation Font</t>
+  </si>
+  <si>
+    <t>Font Red Line Rectangle Electric blue Signage Carmine Number Logo Sign</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Statue Afterglow Sculpture Red sky at morning Horizon Sunset Dusk</t>
+  </si>
+  <si>
+    <t>Dog Carnivore Road surface Asphalt Dog breed Yellow Gesture Public space Tree Street fashion</t>
+  </si>
+  <si>
+    <t>Azure Font Electric blue Symbol Rectangle Circle Logo Sign Brand Signage</t>
+  </si>
+  <si>
+    <t>Font Electric blue Magenta Parallel Rectangle Brand Circle Engineering Graphics Pattern</t>
+  </si>
+  <si>
+    <t>Footwear Shoe Outerwear Street fashion Standing Eyewear Gesture Sneakers Road Luggage and bags</t>
+  </si>
+  <si>
+    <t>Yellow Motor vehicle Font Luggage and bags Building Bag Event City Road Sidewalk</t>
+  </si>
+  <si>
+    <t>Sky Building Daytime Window Light World Branch Twig Tree Yellow</t>
+  </si>
+  <si>
+    <t>Happy Font Poster Electric blue Logo Advertising Illustration Circle Brand Graphics</t>
+  </si>
+  <si>
+    <t>Font Wood Wall Art Luggage and bags Bag Advertising Poster Signage Sportswear</t>
+  </si>
+  <si>
+    <t>Facial expression Product Happy Font Gesture Illustration Graphics Poster Fictional character Pleased</t>
+  </si>
+  <si>
+    <t>Cloud Sky Blue Statue Sculpture World Art Monument Classical sculpture City</t>
+  </si>
+  <si>
+    <t>Hair Product Pink Crowd Eyewear T-shirt Event Street fashion Tree Happy</t>
+  </si>
+  <si>
+    <t>Sky Building Window Cloud Tree Sunlight House Biome Twig Deciduous</t>
+  </si>
+  <si>
+    <t>Organism Font Cartoon Poster Art Fictional character Graphics Logo Happy Graphic design</t>
+  </si>
+  <si>
+    <t>Wheel Bicycle Tire Plant Bicycles--Equipment and supplies Bicycle frame Bicycle tire Bicycle wheel Bicycle handlebar Nature</t>
+  </si>
+  <si>
+    <t>Font Electric blue Rectangle Brand Signage Slope</t>
+  </si>
+  <si>
+    <t>Plant Tree Green Natural environment Natural landscape People in nature Shade Branch Wood Vegetation</t>
+  </si>
+  <si>
+    <t>Font Electric blue Rectangle Brand</t>
+  </si>
+  <si>
+    <t>Water Sky Building Cloud Skyscraper Tower block Tower Tree Cityscape Bridge</t>
+  </si>
+  <si>
+    <t>Rectangle Font Electric blue Engineering Parallel Pattern Circle Brand Graphics Number</t>
+  </si>
+  <si>
+    <t>Water Plant Daytime Street light Green People in nature Natural landscape Leaf Natural environment Branch</t>
+  </si>
+  <si>
+    <t>Cloud Sky Skyscraper Building World Urban design Water Tower block Condominium Tower</t>
+  </si>
+  <si>
+    <t>Font Electric blue Brand Graphic design Event</t>
+  </si>
+  <si>
+    <t>Plant Building Daytime People in nature Branch Tree Road surface Architecture Sunlight Grass</t>
+  </si>
+  <si>
+    <t>World Font Advertising Poster Screenshot Graphics Brand Logo Electric blue Graphic design</t>
+  </si>
+  <si>
+    <t>Water Sky Building Skyscraper Daytime Cloud Blue Tower block Body of water Tower</t>
+  </si>
+  <si>
+    <t>Sky Skyscraper Building Atmosphere World Tower Dusk Afterglow Urban design Condominium</t>
+  </si>
+  <si>
+    <t>Font Electric blue Rectangle Parallel Signage Brand Number Advertising Logo Screenshot</t>
+  </si>
+  <si>
+    <t>Cap Sleeve Dress Eyewear Personal protective equipment Art Electric blue Bridal accessory Sky Automotive design</t>
+  </si>
+  <si>
+    <t>Rectangle Font Sleeve Magenta Electric blue Slope Parallel Triangle Graphics Brand</t>
+  </si>
+  <si>
+    <t>Water Skyscraper Sky Building Tower Cloud Dusk Tower block Body of water Lake</t>
+  </si>
+  <si>
+    <t>Hairstyle Shoulder Azure Glove Sleeve Gesture Eyelash Headgear Service Room</t>
+  </si>
+  <si>
+    <t>Rectangle Font Electric blue Symbol Circle Logo Brand Graphics Sign Signage</t>
+  </si>
+  <si>
+    <t>Hand Gesture Finger Musical instrument Thumb Wood Musical instrument accessory Nail Wrist Fashion accessory</t>
+  </si>
+  <si>
+    <t>Hair Hairstyle Photograph Human Sleeve Mammal Headgear Adaptation Street fashion Eyewear</t>
+  </si>
+  <si>
+    <t>Building Plant Daytime Property Sky Window Tree Lighting Sunlight Facade</t>
+  </si>
+  <si>
+    <t>Font Electric blue Logo Brand Graphics Signage Graphic design Advertising Trademark</t>
+  </si>
+  <si>
+    <t>Skyscraper Building Sky Tower World Window Condominium Tower block Electricity Cityscape</t>
+  </si>
+  <si>
+    <t>Footwear Shoe Hairstyle Leg Infrastructure Eyewear Street fashion Standing Luggage and bags Gesture</t>
+  </si>
+  <si>
+    <t>Product Organism World Font Electric blue Poster Brand Book cover Art Graphic design</t>
+  </si>
+  <si>
+    <t>Azure Font Aqua Electric blue Electronic device Pattern Multimedia Brand Screenshot Advertising</t>
+  </si>
+  <si>
+    <t>Font Electric blue Logo Brand Graphics Rectangle Event Metal Advertising Triangle</t>
+  </si>
+  <si>
+    <t>Plant People in nature Natural landscape Tree Trunk Shade Biome Grass Wood Twig</t>
+  </si>
+  <si>
+    <t>Font Material property Technology Screenshot Rectangle Electric blue Parallel Number</t>
+  </si>
+  <si>
+    <t>Building Human Street fashion Fashion Standing Yellow Zebra crossing Public space Pedestrian crossing Road</t>
+  </si>
+  <si>
+    <t>Water Sky Building Skyscraper Daytime Tower block Tower Urban design Cloud Landscape</t>
+  </si>
+  <si>
+    <t>Sleeve Workwear Font Medical Service Gas Engineering Science Eyewear Personal protective equipment</t>
+  </si>
+  <si>
+    <t>Cloud Sky Water Building Wood Tire Sunglasses Automotive tire Leisure Dock</t>
+  </si>
+  <si>
+    <t>Footwear Shoe Standing Font Luggage and bags Poster Bag Backpack Advertising Electric blue</t>
+  </si>
+  <si>
+    <t>Tent Tarpaulin Tree Shade Gas Tints and shades Gazebo Event Canopy Motor vehicle</t>
+  </si>
+  <si>
+    <t>Product Rectangle Hat Font Illustration Brand Electric blue Logo Tie Graphics</t>
+  </si>
+  <si>
+    <t>Table Chair Desk Youth Event Leisure Suit Service Job T-shirt</t>
+  </si>
+  <si>
+    <t>Shorts Leg Thigh Publication Happy Font Flash photography Leisure Event Entertainment</t>
+  </si>
+  <si>
+    <t>Rectangle Azure Font Material property Parallel Pattern Electric blue Circle Design Number</t>
+  </si>
+  <si>
+    <t>Outerwear Product Sleeve Font Baseball cap Hat Electric blue Service Event Comfort</t>
+  </si>
+  <si>
+    <t>Cloud Sky Skyscraper Building Atmosphere Daytime Tower Dusk Afterglow Tower block</t>
+  </si>
+  <si>
+    <t>Font Electric blue Brand Science Art Screenshot Publication Graphics Logo Graphic design</t>
+  </si>
+  <si>
+    <t>Plant Shirt Musician Human Vision care Eyewear T-shirt Musical instrument Leisure Tree</t>
+  </si>
+  <si>
+    <t>Water Cloud Sky White Lake Gesture Body of water Travel Leisure Watercraft</t>
+  </si>
+  <si>
+    <t>Sky Water Outdoor furniture Grass Leisure Travel Horizon Morning Urban design City</t>
+  </si>
+  <si>
+    <t>Shoe Shoulder Photograph Leg White Eyewear Infrastructure Black Luggage and bags Street fashion</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Bird Water resources Ecoregion Plant Natural landscape Nature Azure</t>
+  </si>
+  <si>
+    <t>Building Flooring Floor Font Composite material Rectangle Facade Engineering Concrete Shade</t>
+  </si>
+  <si>
+    <t>Outerwear Facial expression Tie Sleeve Gesture Interaction Street fashion Jacket Event Suit</t>
+  </si>
+  <si>
+    <t>Flower Sky Plant Building Cloud Leaf World Botany Yellow Vegetation</t>
+  </si>
+  <si>
+    <t>Purple Street fashion Azure Fashion Sleeve Eyewear Luggage and bags Pink Waist Magenta</t>
+  </si>
+  <si>
+    <t>Water Skyscraper Sky Building Tower Cloud Tower block Dusk Condominium Horizon</t>
+  </si>
+  <si>
+    <t>Joint Hairstyle Neck Sleeve Happy Eyewear T-shirt Event Leisure Chest</t>
+  </si>
+  <si>
+    <t>Font Rectangle Electric blue Graphics Logo Brand Symbol Sign Circle Signage</t>
+  </si>
+  <si>
+    <t>Azure Font Gesture Poster Electric blue Fruit Logo Plant Brand Apple</t>
+  </si>
+  <si>
+    <t>Joint Skin Hairstyle Shoulder Muscle Human body Flash photography Neck Jaw Comfort</t>
+  </si>
+  <si>
+    <t>Hand Sleeve Gesture Eyewear Font Engineering White-collar worker Event Job Motor vehicle</t>
+  </si>
+  <si>
+    <t>Gesture Font Happy Thumb Electric blue Illustration Symbol Graphics Brand Logo</t>
+  </si>
+  <si>
+    <t>Rectangle Font Electric blue Graphics Brand Logo Signage Sign Symbol Trademark</t>
+  </si>
+  <si>
+    <t>Human body Gesture Sharing Font Poster Happy Leisure Electric blue Advertising Brand</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Water resources Daytime Plant Tree Building Lake Landscape</t>
+  </si>
+  <si>
+    <t>Water Sky Boat Skyscraper Daytime Building Vehicle Watercraft Cloud Naval architecture</t>
+  </si>
+  <si>
+    <t>Water Building Skyscraper Sky Tower Tower block Condominium Cloud Horizon City</t>
+  </si>
+  <si>
+    <t>Flower Hand Plant Human body People in nature Happy Petal Organism Gesture Finger</t>
+  </si>
+  <si>
+    <t>Sky Building Skyscraper Cloud World Tower Tower block Flag Condominium Commercial building</t>
+  </si>
+  <si>
+    <t>Hand Health care provider Safety glove Medical equipment Organ Glove Blue Health care Surgeon Medical glove</t>
+  </si>
+  <si>
+    <t>Font Poster Terrestrial plant Brand Advertising Illustration Science Houseplant Graphics Landscape</t>
+  </si>
+  <si>
+    <t>Shoe Outerwear Leg Sleeve Street fashion Headgear Sneakers Denim Travel Waist</t>
+  </si>
+  <si>
+    <t>Car Building Road surface Leaf Plant Infrastructure Tree Vehicle Asphalt Architecture</t>
+  </si>
+  <si>
+    <t>Shoulder Fashion Neck Sleeve Beard Cornrows Yellow Eyewear Luggage and bags Bag</t>
+  </si>
+  <si>
+    <t>Smile Plant Hat Temple Happy Entertainment Pink Performing arts Eyewear Fun</t>
+  </si>
+  <si>
+    <t>Glove Comfort Eyewear Jacket Engineering Recreation Leisure Personal protective equipment Event Service</t>
+  </si>
+  <si>
+    <t>Water Sky Cloud Daytime Lighthouse Blue Body of water Lake Line Girder bridge</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Building Afterglow Window Dusk Red sky at morning Sunset Cumulus</t>
+  </si>
+  <si>
+    <t>Font Electric blue Rectangle Logo Graphics Brand Signage Sign Symbol Circle</t>
+  </si>
+  <si>
+    <t>Water Sky Plant Beach Landscape Horizon Sand Shore Event Cloud</t>
+  </si>
+  <si>
+    <t>Gesture Font Parallel Slope Diagram Circle Paper Elbow Electric blue Illustration</t>
+  </si>
+  <si>
+    <t>Cloud Sky Water Atmosphere Daytime Bird Ecoregion Nature Azure Body of water</t>
+  </si>
+  <si>
+    <t>Forehead Nose Hair Head Lip Chin Smile Hairstyle Eyebrow Facial expression</t>
+  </si>
+  <si>
+    <t>Plant Building Tower Wheel Street light Architecture Tire Sky Grass Wall</t>
+  </si>
+  <si>
+    <t>Car Vehicle Motor vehicle Hood Automotive lighting Infrastructure Road surface Asphalt Automotive design Automotive exterior</t>
+  </si>
+  <si>
+    <t>Sleeve Baseball cap Cap T-shirt Hat Eyewear Recreation Event Electric blue Job</t>
+  </si>
+  <si>
+    <t>Font Automotive design Building Gas Engineering Rolling stock Motor vehicle Machine Electric blue Window</t>
+  </si>
+  <si>
+    <t>Water Sky Coastal and oceanic landforms Wood Beach Horizon Wind wave People in nature Shore Calm</t>
+  </si>
+  <si>
+    <t>Train Vehicle Light Rolling stock Infrastructure Transport hub Track Mode of transport Railway Electricity</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Building Skyscraper World Dusk Afterglow Architecture Tower block</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Blue Natural landscape Water Plant Horizon Cumulus Grass</t>
+  </si>
+  <si>
+    <t>Water Sky Cloud Boat Watercraft Vehicle Lake Tree Powerboating Bank</t>
+  </si>
+  <si>
+    <t>Vertebrate Green Sleeve Font Art Cool T-shirt Poster Publication Illustration</t>
+  </si>
+  <si>
+    <t>Tire Wheel Vehicle Motor vehicle Automotive tire Car Automotive design Tree Mode of transport Automotive exterior</t>
+  </si>
+  <si>
+    <t>Azure Font Aqua Rectangle Material property Electric blue Gas Triangle Brand Logo</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Skyscraper Atmosphere Daytime Water World Tower Tower block</t>
+  </si>
+  <si>
+    <t>Building Font Signage Engineering Advertising Metal Sign Graphics City Brand</t>
+  </si>
+  <si>
+    <t>Cloud Bird Sky Building Atmosphere Daytime Window Skyscraper Light Nature</t>
+  </si>
+  <si>
+    <t>Joint Hairstyle Shoulder Neck Sleeve Gesture Happy Eyewear T-shirt Event</t>
+  </si>
+  <si>
+    <t>Sky Arm Cap Blue Fence Hat Mesh Baseball cap Gesture Tree</t>
+  </si>
+  <si>
+    <t>Footwear Joint Shoe Active shorts Shorts Sleeve Standing Gesture Asphalt Sports uniform</t>
+  </si>
+  <si>
+    <t>Sky Building Window Purple Pink Violet Facade Magenta City Midnight</t>
+  </si>
+  <si>
+    <t>Cloud Sky Tower block Bridge Cityscape Girder bridge City Metropolis Metal Overpass</t>
+  </si>
+  <si>
+    <t>Glasses Smile Hand Hard hat High-visibility clothing Workwear Goggles Helmet Sunglasses Building</t>
+  </si>
+  <si>
+    <t>Statue Botany Sculpture Temple Tree Plant Art Wood Leisure Trunk</t>
+  </si>
+  <si>
+    <t>Azure Plant Petal Sleeve Tints and shades Electric blue Linens Service Magenta Glove</t>
+  </si>
+  <si>
+    <t>Cloud Skyscraper Sky Water Building Daytime Tower Architecture Condominium Tower block</t>
+  </si>
+  <si>
+    <t>Orange Font Slope Wood Triangle Brand Parallel Rectangle Graphics Soil</t>
+  </si>
+  <si>
+    <t>Hand Gesture Thumb Finger Font Poster Wrist Advertising Electric blue Nail</t>
+  </si>
+  <si>
+    <t>Sleeve Gesture Poster Font Publication Jacket Hat Goggles Advertising Engineering</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Building Afterglow Skyscraper Cityscape Tower block Dusk Red sky at morning</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Plant Atmosphere Daytime Skyscraper Tower Tree Natural landscape</t>
+  </si>
+  <si>
+    <t>Outerwear Shoe Vertebrate Green Black Sleeve Font Mammal T-shirt Asphalt</t>
+  </si>
+  <si>
+    <t>Sky Shorts T-shirt Leisure Electric blue Recreation Plant Shade Fun Travel</t>
+  </si>
+  <si>
+    <t>Rectangle Font Parallel Circle Electric blue Screenshot Number</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Daytime Sunlight Afterglow Dusk Bridge Horizon City</t>
+  </si>
+  <si>
+    <t>Glasses Tire Wheel Eye Facial expression Product Car Window Fashion Vehicle</t>
+  </si>
+  <si>
+    <t>Hand Gesture Thumb Finger Font Wrist Poster Advertising Electric blue Nail</t>
+  </si>
+  <si>
+    <t>Font Parallel Event Paper product Letter Paper Circle Document</t>
+  </si>
+  <si>
+    <t>Building Shorts Skyscraper Sky Car Architecture Tower block Urban design Road surface Travel</t>
+  </si>
+  <si>
+    <t>Daytime Photograph Building Shade Table Outdoor furniture Awning Urban design Wood Leisure</t>
+  </si>
+  <si>
+    <t>Blue White World Community T-shirt Recreation Youth Competition event Job Fun</t>
+  </si>
+  <si>
+    <t>Green Road surface Motor vehicle Asphalt Sky Font Gas Fixture Signage Car</t>
+  </si>
+  <si>
+    <t>Organism Gesture Font Poster Aqua Water Illustration Book Art Book cover</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Skyscraper Nature World Tower Tree Window Tower block</t>
+  </si>
+  <si>
+    <t>Vertebrate Green Black Sleeve Font Mammal Asphalt T-shirt Road surface Grey</t>
+  </si>
+  <si>
+    <t>Car Skyscraper Building Sky Wheel Daytime Photograph Vehicle Infrastructure Tire</t>
+  </si>
+  <si>
+    <t>Water Sky Vertebrate People on beach Surfboard Beach Mammal Coastal and oceanic landforms Horizon Wind wave</t>
+  </si>
+  <si>
+    <t>Font Brand Graphics Rectangle Electric blue</t>
+  </si>
+  <si>
+    <t>Font Poster Electric blue Illustration Photo caption Music Graphic design Advertising Audio equipment Art</t>
+  </si>
+  <si>
+    <t>Cloud Building Sky Skyscraper Nature Natural environment World Tower Window Tower block</t>
+  </si>
+  <si>
+    <t>Footwear Shoe Leg Shorts Human Gesture Sunglasses Street fashion Luggage and bags Travel</t>
+  </si>
+  <si>
+    <t>Clothing Shoe Shorts Leg Eyewear Luggage and bags Thigh Waist Street fashion Tree</t>
+  </si>
+  <si>
+    <t>Sky Umbrella Ecoregion Blue Azure Shade Travel Body of water People in nature Tree</t>
+  </si>
+  <si>
+    <t>Train Sky Building Rolling stock Vehicle Window Track Transport hub Electricity Mode of transport</t>
+  </si>
+  <si>
+    <t>Blue Workwear Glove Health care provider Helmet Safety glove Medical Medical equipment Service Health care</t>
+  </si>
+  <si>
+    <t>Tree Flag T-shirt Tints and shades Hat Shorts Pole Fun Event Public event</t>
+  </si>
+  <si>
+    <t>Plant Sky Hammock Cloud Wood People in nature Tree Natural landscape Shade Sunlight</t>
+  </si>
+  <si>
+    <t>Building Window Road surface Asphalt Urban design Flooring Sidewalk City Landmark Road</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Skyscraper Atmosphere Afterglow Tower Tower block Architecture World</t>
+  </si>
+  <si>
+    <t>Coat Tie News Spokesperson Flag of the united states Flag Suit Official Event Font</t>
+  </si>
+  <si>
+    <t>Building Sky Window Infrastructure Road surface Architecture Shorts Neighbourhood Travel Cloud</t>
+  </si>
+  <si>
+    <t>Azure Rectangle Font Material property Poster Electric blue Logo Brand Graphics Number</t>
+  </si>
+  <si>
+    <t>Gesture World Poster Sharing Font Electric blue Illustration Job Conversation Graphics</t>
+  </si>
+  <si>
+    <t>Smile Property Product Nature People in nature Human Natural environment Happy Sharing Interaction</t>
+  </si>
+  <si>
+    <t>Blue Azure Tire Motor vehicle Font Truck Vehicle Line Rectangle Gas</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Daytime Watercraft Boat Infrastructure Building Body of water Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle Wheel Tire Bicycles--Equipment and supplies Land vehicle Bicycle wheel Building Bicycle frame Bicycle handlebar Photograph</t>
+  </si>
+  <si>
+    <t>Hair Forehead Nose Head Chin Hairstyle Eyebrow Cartoon Jaw Happy</t>
+  </si>
+  <si>
+    <t>Motor vehicle Font Poster Luggage and bags Bag Publication Backpack Shorts Travel Advertising</t>
+  </si>
+  <si>
+    <t>Trousers Tire Hairstyle Wheel Street fashion Asphalt Hat Gesture Automotive tire Cool</t>
+  </si>
+  <si>
+    <t>Sky Blue Human Sleeve Gesture Eyewear Community T-shirt Fun Event</t>
+  </si>
+  <si>
+    <t>Hair Head Eyebrow Eye Facial expression Eyelash Jaw Font Black hair Poster</t>
+  </si>
+  <si>
+    <t>Outerwear Window Tree Medical assistant Medical Service Event Health care Electric blue T-shirt</t>
+  </si>
+  <si>
+    <t>Forehead Eyebrow Flag Spokesperson Flag of the united states News Lace wig Long hair Event Eyelash</t>
+  </si>
+  <si>
+    <t>Arm Human body Sleeve Gesture Poster Elbow Font T-shirt Electric blue Door</t>
+  </si>
+  <si>
+    <t>Smile Head Shirt Facial expression Product People in nature Happy Plant Gesture Interaction</t>
+  </si>
+  <si>
+    <t>Sky Dog Building Cloud Boat Watercraft Carnivore Naval architecture Vehicle Mast</t>
+  </si>
+  <si>
+    <t>Water Photograph Blue Vertebrate Green Azure Swimming pool People in nature Happy Mammal</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Automotive lighting Hood Blue Motor vehicle Plant Lake Goggles</t>
+  </si>
+  <si>
+    <t>Font Parallel Electric blue Rectangle Brand Event Slope Graphics Logo Signage</t>
+  </si>
+  <si>
+    <t>Vehicle Automotive tail &amp; brake light Hood Motor vehicle Automotive lighting Tree Automotive design Automotive exterior Car Bumper</t>
+  </si>
+  <si>
+    <t>Shorts Water Plant Leg Flash photography Street fashion Sunlight People in nature Thigh Fence</t>
+  </si>
+  <si>
+    <t>Font Electric blue Circle Brand Darkness Graphics Screenshot Computer</t>
+  </si>
+  <si>
+    <t>Footwear Shorts Shoe Leg Street fashion Sneakers Thigh Font Recreation Competition event</t>
+  </si>
+  <si>
+    <t>Amber Orange Font Material property Circle Signage Brand Poster Logo Graphics</t>
+  </si>
+  <si>
+    <t>Joint Hairstyle Shoulder Muscle Sleeve Street fashion Cool Jersey Font Motor vehicle</t>
+  </si>
+  <si>
+    <t>Publication Font Book Electric blue Book cover Brand Advertising Event Signage Stationery</t>
+  </si>
+  <si>
+    <t>Water Cloud Sky Building Skyscraper Water resources Daytime Natural environment World Tower block</t>
+  </si>
+  <si>
+    <t>Health care provider Chair Medical equipment Health care Medical assistant Medical procedure Knee Event Service Electric blue</t>
+  </si>
+  <si>
+    <t>Jacket Wall T-shirt People Crowd Hat Event Luggage and bags Backpack Rebellion</t>
+  </si>
+  <si>
+    <t>Sky Cloud Wheel Car Tire Tree Zebra crossing Plant Infrastructure Road surface</t>
+  </si>
+  <si>
+    <t>Natural environment Organism Terrestrial plant Adaptation Font Grass Job Soil Advertising Photo caption</t>
+  </si>
+  <si>
+    <t>Sky Water Cloud Infrastructure Skyscraper Hat People in nature Street fashion Travel Tree</t>
+  </si>
+  <si>
+    <t>Sleeve Street fashion Tree T-shirt Hat Black hair Luggage and bags Leisure Crowd Event</t>
+  </si>
+  <si>
+    <t>Rainbow Sky Cloud Building Atmosphere Daytime Water Nature Plant Sunlight</t>
+  </si>
+  <si>
+    <t>Light Building Yellow Line Audio equipment Urban design Font Engineering Gas Asphalt</t>
+  </si>
+  <si>
+    <t>Font Electric blue Rectangle Midnight Tints and shades Darkness Brand Graphics Event Pattern</t>
+  </si>
+  <si>
+    <t>Building Skyscraper Urban design Line Condominium Commercial building Tower block Facade Metropolis City</t>
+  </si>
+  <si>
+    <t>Font Rectangle Circle Parallel Number Electric blue Screenshot</t>
+  </si>
+  <si>
+    <t>Building Flag Fan Leisure Entertainment Event Stage equipment Crowd City Facade</t>
+  </si>
+  <si>
+    <t>Shorts Building Cloud Sky Road surface Asphalt Tree Street fashion Public space Sidewalk</t>
+  </si>
+  <si>
+    <t>Azure Font Electric blue Brand</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Atmosphere Daytime Skyscraper Water World Afterglow Tower block</t>
+  </si>
+  <si>
+    <t>Building Skyscraper Daytime Infrastructure Urban design Rectangle Line Condominium Morning Composite material</t>
+  </si>
+  <si>
+    <t>Sky Fireworks World Nature Font Landmark Technology Space Midnight Electric blue</t>
+  </si>
+  <si>
+    <t>Water Sky Dusk Building Lake Girder bridge Cityscape Horizon Tied-arch bridge Tower block</t>
+  </si>
+  <si>
+    <t>Lip Hairstyle Eyebrow Facial expression Human Flash photography Sleeve Eyelash Jacket Material property</t>
+  </si>
+  <si>
+    <t>Hairstyle Facial expression White Sunglasses Eyewear Vision care Gesture Happy Hat Crowd</t>
+  </si>
+  <si>
+    <t>Sky Daytime Azure Flag Gesture Travel Shade Red Morning Wind</t>
+  </si>
+  <si>
+    <t>Azure Font Material property Rectangle Electric blue Symbol Logo Graphics Gesture Heart</t>
+  </si>
+  <si>
+    <t>Smile Gesture Happy Font Art Logo Electric blue Graphics Brand Emoticon</t>
+  </si>
+  <si>
+    <t>Water Sky Plant Body of water Tree Beach Landscape Horizon Sand Event</t>
+  </si>
+  <si>
+    <t>Font Electric blue Magenta Logo Graphics Poster Brand Event Graphic design Circle</t>
+  </si>
+  <si>
+    <t>Daytime Infrastructure Human Orange Street fashion Eyewear Leisure Road City Morning</t>
+  </si>
+  <si>
+    <t>Poster Gesture Font Electric blue Greeting Illustration Art Advertising Sharing Event</t>
+  </si>
+  <si>
+    <t>Product Sleeve Gesture Finger Font Publication Thumb Comfort Electric blue Wrist</t>
+  </si>
+  <si>
+    <t>Infrastructure Street fashion Fence Waist Wall Bridge Cap Hat Thigh Travel</t>
+  </si>
+  <si>
+    <t>Window Sky Building Electricity Clock City Facade Landmark Midnight Metropolis</t>
+  </si>
+  <si>
+    <t>Shoe Photograph Leg Yellow Gesture Road surface Thigh Waist Leisure Happy</t>
+  </si>
+  <si>
+    <t>Green Rectangle Font Aqua Terrestrial plant Grass Brand Electric blue Pattern Slope</t>
+  </si>
+  <si>
+    <t>Arm Green Liberty spikes Sleeve Gesture Art Font Sculpture Fictional character Illustration</t>
+  </si>
+  <si>
+    <t>Font Material property Rectangle Screenshot Circle Parallel Number Electric blue</t>
+  </si>
+  <si>
+    <t>Sky Cloud Window Building Flag Facade City Government House Official residence</t>
+  </si>
+  <si>
+    <t>Vertebrate Liquid Gesture Font Art Electric blue Symbol Pole Event Illustration</t>
+  </si>
+  <si>
+    <t>Land vehicle Dog Tire Wheel Car Infrastructure Vehicle Road surface Asphalt Tree</t>
+  </si>
+  <si>
+    <t>Product Communication Device Mobile device Gesture Gadget Portable communications device Font Mobile phone Electric blue Multimedia</t>
+  </si>
+  <si>
+    <t>Blue Font Rectangle Circle Parallel Electric blue Document Screenshot Number</t>
+  </si>
+  <si>
+    <t>Hand Liquid Gesture Finger Font Water Drinkware Plastic bottle Thumb Electric blue</t>
+  </si>
+  <si>
+    <t>Font Electric blue Circle Terrestrial plant Darkness Screenshot History</t>
+  </si>
+  <si>
+    <t>Azure Font Electric blue Brand Logo Graphics</t>
+  </si>
+  <si>
+    <t>Cloud Sky Water Skyscraper Building Tower Tower block Body of water World Tree</t>
+  </si>
+  <si>
+    <t>Nose Eyebrow Eyelash Ear Sleeve Eyewear Gadget Audio equipment Personal protective equipment Facial hair</t>
+  </si>
+  <si>
+    <t>Handwriting Textile Fixture Rectangle Paint Font Art Creative arts Glass Tints and shades</t>
+  </si>
+  <si>
+    <t>Font Electric blue Brand Graphics Logo Graphic design</t>
+  </si>
+  <si>
+    <t>Chin Eyebrow Window Publication Happy Cool Street fashion Building Poster Font</t>
+  </si>
+  <si>
+    <t>Hood Azure Font Sun hat Red Rectangle Electric blue Automotive design Pattern Automotive wheel system</t>
+  </si>
+  <si>
+    <t>Organism Sleeve Headgear Adaptation Font Event Happy Landscape Electric blue Abaya</t>
+  </si>
+  <si>
+    <t>Sky Skyscraper Building Daytime Light World Lighting Tower Condominium Tower block</t>
+  </si>
+  <si>
+    <t>Hand Azure Sleeve Gesture Finger Font Book Collar Electric blue Nail</t>
+  </si>
+  <si>
+    <t>Asphalt Font Tree Road Publication Signage Natural landscape Advertising Book cover Photo caption</t>
+  </si>
+  <si>
+    <t>Road surface Asphalt Car Font Vehicle Line Public space Motor vehicle Road Gas</t>
+  </si>
+  <si>
+    <t>Font Motor vehicle Automotive exterior Air travel Electric blue Automotive design Event Auto part Vehicle door Gadget</t>
+  </si>
+  <si>
+    <t>Joint Shorts Playing sports Active shorts Sports equipment Knee Sleeve Ball Happy Leisure</t>
+  </si>
+  <si>
+    <t>Blue Poster Gesture Sleeve Font Electric blue Hat Event Peaked cap Illustration</t>
+  </si>
+  <si>
+    <t>Handwriting Black Human body Purple Pink Font Material property Art Tints and shades Magenta</t>
+  </si>
+  <si>
+    <t>Gesture Workwear Headgear Violin family Hat Personal protective equipment Guitar Eyewear Uniform Event</t>
+  </si>
+  <si>
+    <t>Gesture Font Finger Poster Knee Thigh Happy Thumb Illustration Electric blue</t>
+  </si>
+  <si>
+    <t>Water Sky Cloud Statue Sculpture Pedestal Art Monument City Lake</t>
+  </si>
+  <si>
+    <t>Forehead Nose Head Eyebrow Eyelash Mouth Beard Jaw Neck Facial hair</t>
+  </si>
+  <si>
+    <t>Bird Sky Building Skyscraper Daytime Tower Beak Tower block Wing City</t>
+  </si>
+  <si>
+    <t>Clothing Forehead Hair Nose Cheek Lip Chin Outerwear Eyebrow Eyelash</t>
+  </si>
+  <si>
+    <t>Natural environment Headgear Hat People Crowd Jacket Event Eyewear T-shirt Rebellion</t>
+  </si>
+  <si>
+    <t>Organism Font Electric blue Circle Event Transport Brand Darkness</t>
+  </si>
+  <si>
+    <t>Building Light Blue Purple Infrastructure Human Road surface Standing Umbrella Sky</t>
+  </si>
+  <si>
+    <t>Product Organism Font Screenshot Technology Number Multimedia Parallel Electric blue Software</t>
+  </si>
+  <si>
+    <t>Sleeve Automotive design Engineering Elbow Workwear Job Science Recreation Machine Glove</t>
+  </si>
+  <si>
+    <t>Forehead Skin Smile Head Chin Eyebrow Eyelash Neck Happy Iris</t>
+  </si>
+  <si>
+    <t>Shoulder Leg Active pants Sleeve Happy Waist Gesture Knee Thigh People in nature</t>
+  </si>
+  <si>
+    <t>Forehead Nose Glasses Skin Lip Chin Smile Eyebrow Vision care Shoulder</t>
+  </si>
+  <si>
+    <t>Sky Plant Cloud Flower Building Daytime Botany Street light Petal Tree</t>
+  </si>
+  <si>
+    <t>Glasses Hand Adaptation Font Publication Book Poster Reading Sitting Art</t>
+  </si>
+  <si>
+    <t>Forehead Nose Glasses Cheek Smile Skin Lip Chin Vision care Eyebrow</t>
+  </si>
+  <si>
+    <t>Handwriting Rectangle Leaf Textile Orange Creative arts Pink Font Material property Paint</t>
+  </si>
+  <si>
+    <t>Face Hair Street fashion Jacket Necklace Recreation Scarf Fashion design Electric blue Fun</t>
+  </si>
+  <si>
+    <t>Azure Font Material property Electric blue Logo Graphics Brand Event Circle Graphic design</t>
+  </si>
+  <si>
+    <t>Rectangle Font Slope Parallel Brand</t>
+  </si>
+  <si>
+    <t>Forehead Hair Chin Outerwear Eyebrow Jaw Sleeve Tower Skyscraper Building</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Building Tower block Girder bridge Suspension bridge Tree Bridge Cable-stayed bridge</t>
+  </si>
+  <si>
+    <t>Forehead Nose Cheek Skin Lip Chin Eyelash Mouth Jaw Neck</t>
+  </si>
+  <si>
+    <t>Orange Font Poster Brand Graphics Advertising Logo Graphic design Peach Book</t>
+  </si>
+  <si>
+    <t>Font Publication Retail City Signage Urban design Metal Market Room Advertising</t>
+  </si>
+  <si>
+    <t>Forehead Chin Eyebrow Sleeve Cool Musical instrument Plucked string instruments T-shirt Electric blue Happy</t>
+  </si>
+  <si>
+    <t>Rainbow Wheel Automotive design Truck Tire Font Art Paint Vehicle Motor vehicle</t>
+  </si>
+  <si>
+    <t>Hair Forehead Nose Cheek Skin Lip Chin Hairstyle Eyebrow Mouth</t>
+  </si>
+  <si>
+    <t>Green Sleeve Font Gadget Adaptation Desk Illustration T-shirt Machine Wrist</t>
+  </si>
+  <si>
+    <t>Water Skyscraper Building Sky Daytime Nature Tower Tower block Condominium Cityscape</t>
+  </si>
+  <si>
+    <t>Outerwear Window Human Building Facade Font Brickwork Brick Event City</t>
+  </si>
+  <si>
+    <t>Font Poster Publication Advertising Hat Event Photo caption Graphics Bag Fictional character</t>
+  </si>
+  <si>
+    <t>Human Publication Smile Sharing Font Leisure Poster Technology Illustration Child</t>
+  </si>
+  <si>
+    <t>Hair Glasses Head Chin Hairstyle Vision care Hat Eyebrow Cap Fedora</t>
+  </si>
+  <si>
+    <t>Font Rectangle Circle Screenshot Number Parallel Electric blue</t>
+  </si>
+  <si>
+    <t>Joint Outerwear Shoulder Sleeve Gesture Fashion design Automotive design Elbow Formal wear Suit</t>
+  </si>
+  <si>
+    <t>Blue Font Rectangle Electric blue Circle Parallel Brand</t>
+  </si>
+  <si>
+    <t>World Gesture Poster Sharing Font Electric blue Illustration Conversation Graphics Job</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Sculpture World Statue Water Afterglow Body of water Sunset</t>
+  </si>
+  <si>
+    <t>Musical instrument Font Poster Musical instrument accessory Office equipment Electronic instrument Electronic musical instrument Music Electric blue Gadget</t>
+  </si>
+  <si>
+    <t>Font Rectangle Circle Screenshot Parallel Number Electric blue</t>
+  </si>
+  <si>
+    <t>Cloud Skyscraper Sky Building Water Boat Watercraft Tower Blue Tower block</t>
+  </si>
+  <si>
+    <t>Plant Natural environment Natural landscape Organism People in nature Font Sky Grass Adaptation Groundcover</t>
+  </si>
+  <si>
+    <t>Flower Plant Sky Petal Grass Herbaceous plant Natural landscape Flowering plant Magenta Window</t>
+  </si>
+  <si>
+    <t>Photograph World Nature Globe Natural environment Art People in nature Astronomical object Space Electric blue</t>
+  </si>
+  <si>
+    <t>Font Rectangle Screenshot Circle Parallel</t>
+  </si>
+  <si>
+    <t>Flash photography Gesture Output device Font Happy Travel Gadget Display device Electronic device Multimedia</t>
+  </si>
+  <si>
+    <t>Bicycle Wheel Tire Bicycles--Equipment and supplies Outerwear Bicycle wheel Building Bicycle tire Vehicle Sky</t>
+  </si>
+  <si>
+    <t>Glasses Vision care Hairstyle Goggles Eyebrow Sunglasses Eyewear Sleeve Comfort Cool</t>
+  </si>
+  <si>
+    <t>Font Rectangle Screenshot Parallel Circle Number</t>
+  </si>
+  <si>
+    <t>Outerwear Jacket Event Recreation Hat Crowd T-shirt Public event Flooring Sitting</t>
+  </si>
+  <si>
+    <t>Train Sky Cloud Building Tower Dusk Window Vehicle Rolling Tower block</t>
+  </si>
+  <si>
+    <t>Cat Carnivore Felidae Poster Small to medium-sized cats Publication Whiskers Happy Illustration Art</t>
+  </si>
+  <si>
+    <t>Atmosphere Cloud Automotive lighting Plant Asphalt Atmospheric phenomenon Font Sky Morning Street light</t>
+  </si>
+  <si>
+    <t>Forehead Nose Lip Chin Eyebrow Eye Eyelash Mouth Jaw Ear</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Skyscraper Tower Tower block Dusk Cityscape Afterglow Condominium</t>
+  </si>
+  <si>
+    <t>Forehead Nose Cheek Skin Lip Chin Lipstick Eyebrow Eye liner Eyelash</t>
+  </si>
+  <si>
+    <t>Skyscraper Building Car Daytime Wheel Sky Photograph Tire Infrastructure Vehicle</t>
+  </si>
+  <si>
+    <t>Sky Building Skyscraper Atmosphere Daytime Blue Light World Azure Tower</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Blue Sunlight Dock Dusk Horizon Boat Lake</t>
+  </si>
+  <si>
+    <t>Forehead Nose Cheek Chin Hairstyle Eyebrow Mouth Smile Jaw T-shirt</t>
+  </si>
+  <si>
+    <t>Font Electric blue Circle Terrestrial plant Event History</t>
+  </si>
+  <si>
+    <t>Forehead Nose Cheek Lip Chin Eyebrow Mouth Eyelash Organ Smile</t>
+  </si>
+  <si>
+    <t>Gesture Happy Font Poster Travel Art Publication Illustration Advertising Thumb</t>
+  </si>
+  <si>
+    <t>Trousers Outerwear Gesture Interaction Entertainment Street fashion Tie Crowd Event City</t>
+  </si>
+  <si>
+    <t>Hair Forehead Nose Cheek Skin Head Lip Chin Smile Outerwear</t>
+  </si>
+  <si>
+    <t>Building Window Sky Blue Electricity Clock City Facade Landmark Electric blue</t>
+  </si>
+  <si>
+    <t>Smile Picture frame Shelf Product Cabinetry T-shirt Beard Shelving Room Bookcase</t>
+  </si>
+  <si>
+    <t>Face Head Smile Facial expression Human Coat Publication Font Poster People</t>
+  </si>
+  <si>
+    <t>Shoulder Neck Sleeve Vest Active tank Sportswear T-shirt Font Sleeveless shirt Gas</t>
+  </si>
+  <si>
+    <t>Shopping cart World Natural foods Adaptation Poster Cart People in nature Illustration Publication Whole food</t>
+  </si>
+  <si>
+    <t>Forehead Nose Hair Glasses Lip Smile Vision care Eyebrow Sunglasses Goggles</t>
+  </si>
+  <si>
+    <t>Skin Hand Arm Shoe Leg Comfort Human body Finger Gesture Cloud</t>
+  </si>
+  <si>
+    <t>Hairstyle Jheri curl Ringlet Poster Publication Afro Font Wig Adaptation Art</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Daytime Skyscraper Building Light Nature World Tower</t>
+  </si>
+  <si>
+    <t>Clothing Face Smile Furniture Sleeve Thigh Comfort Window Knee Long hair</t>
+  </si>
+  <si>
+    <t>Plant Human Poster Terrestrial plant Book People in nature Font Publication Illustration Tree</t>
+  </si>
+  <si>
+    <t>Flower Sky Building Cloud Skyscraper Plant Petal Pink Tower City</t>
+  </si>
+  <si>
+    <t>Forehead Nose Head Chin Eyebrow Human Dress shirt Tie Jaw Collar</t>
+  </si>
+  <si>
+    <t>Flower Plant Sky Grass Vegetation Petal Landscape Natural landscape Fence Groundcover</t>
+  </si>
+  <si>
+    <t>Forehead Nose Cheek Skin Lip Lipstick Eyebrow Eye liner Eyelash Fashion</t>
+  </si>
+  <si>
+    <t>Forehead Nose Glasses Chin Eyebrow Vision care Mouth Cap Eyewear Beard</t>
+  </si>
+  <si>
+    <t>Forehead Glasses Nose Cheek Lip Vision care Eyebrow Eyelash Smile Eyewear</t>
+  </si>
+  <si>
+    <t>Light Sky Nature World Line Font Building Urban design Natural landscape Morning</t>
+  </si>
+  <si>
+    <t>Forehead Chin Eyebrow Muscle Neck Jaw Sleeve Beard Cool Eyelash</t>
+  </si>
+  <si>
+    <t>Tower Gas Font Electric blue Finial Pole Art Symbol Metal Electricity</t>
+  </si>
+  <si>
+    <t>Building Skyscraper Water Atmosphere Water resources Daytime World Cloud Sky Tower block</t>
+  </si>
+  <si>
+    <t>Flower Plant Sky Water Branch Petal Twig Tree Gesture Wood</t>
+  </si>
+  <si>
+    <t>Car Vehicle Tire Photograph Wheel White Infrastructure Branch Road surface Motor vehicle</t>
+  </si>
+  <si>
+    <t>Font Event Photo caption Advertising Brand Job Banner Flooring</t>
+  </si>
+  <si>
+    <t>Asphalt Workwear Wall Road surface Brick Gas Art Automotive tire Brickwork Blue-collar worker</t>
+  </si>
+  <si>
+    <t>Blue Font Circle Document History Paper Electric blue Paper product Logo Event</t>
+  </si>
+  <si>
+    <t>Dog Sky Shorts Leg Building Blue Skyscraper Carnivore Travel Dog breed</t>
+  </si>
+  <si>
+    <t>Font Paper Circle Event Paper product Document History Letter Book Parallel</t>
+  </si>
+  <si>
+    <t>Font Document Circle Paper History Event Book Publication Paper product</t>
+  </si>
+  <si>
+    <t>White Organism Font Terrestrial plant Parasite Art Marine invertebrates Pattern Drawing</t>
+  </si>
+  <si>
+    <t>Sky Building Tower Grey Tower block Window Public space Facade Skyscraper City</t>
+  </si>
+  <si>
+    <t>Umbrella Tire Black Street fashion Wheel Grey Red Car Tints and shades Human leg</t>
+  </si>
+  <si>
+    <t>Cloud Sky Atmosphere Daytime Building Afterglow Nature Skyscraper Dusk Orange</t>
+  </si>
+  <si>
+    <t>Shoe Dog Sneakers Dog breed Collar Pet supply Carnivore Fawn Companion dog Sidewalk</t>
+  </si>
+  <si>
+    <t>Font Circle Paper Document Event Paper product Typesetting Symmetry Number</t>
+  </si>
+  <si>
+    <t>Water Sky Cloud Light Afterglow Orange Lake Body of water Dusk Red sky at morning</t>
+  </si>
+  <si>
+    <t>Sky Building Train Skyscraper Infrastructure Vehicle Tower block Cityscape Electricity Dusk</t>
+  </si>
+  <si>
+    <t>Water Sky Cloud Building Skyscraper Daytime Tower block Lake Body of water Tree</t>
+  </si>
+  <si>
+    <t>Sky Water Dog Daytime Skyscraper Building Infrastructure Carnivore Sunlight Body of water</t>
+  </si>
+  <si>
+    <t>Cloud Water Sky Building Skyscraper Daytime Tower World Tower block Condominium</t>
+  </si>
+  <si>
+    <t>Gesture Font Art Electric blue Illustration Graphics Poster Advertising Signage Logo</t>
+  </si>
+  <si>
+    <t>Sky Cloud Daytime Smile Infrastructure Mammal Tie Motor vehicle Line Suit</t>
+  </si>
+  <si>
+    <t>Building Sky Tower block Bridge Facade City Symmetry Cityscape Girder bridge Metropolis</t>
+  </si>
+  <si>
+    <t>Confetti Human Entertainment Purple Decoration Interaction Crowd Public space Party supply Fun</t>
+  </si>
+  <si>
+    <t>Water Sky Cloud Building Atmosphere Skyscraper Afterglow Light Nature Dusk</t>
+  </si>
+  <si>
+    <t>Building Car Daytime Skyscraper Wheel Sky Infrastructure Vehicle Tower block Lighting</t>
+  </si>
+  <si>
+    <t>Sky Blue Standing Gesture People in nature Happy Electric blue Event Backlighting Horizon</t>
+  </si>
+  <si>
+    <t>Christmas tree Building Skyscraper Sky Plant Light World Tower Electricity Tower block</t>
+  </si>
+  <si>
+    <t>Water Sky Cloud Light Bird Body of water Girder bridge Horizon Line Suspension bridge</t>
+  </si>
+  <si>
+    <t>Footwear Window Snow Street light Umbrella Road surface Lighting Architecture Street fashion Freezing</t>
+  </si>
+  <si>
+    <t>Water Sky Moon Nature Azure Blue Morning Horizon Dusk Cloud</t>
+  </si>
+  <si>
+    <t>Skyscraper Water Sky Building Daytime Dusk Tower Tower block Condominium Cityscape</t>
+  </si>
+  <si>
+    <t>Cloud Sky Building Skyscraper Atmosphere Daytime Window Tower block Tree Tower</t>
+  </si>
+  <si>
+    <t>Footwear Water Human Asphalt Standing Window Road surface Building Entertainment Crowd</t>
+  </si>
+  <si>
+    <t>Cloud Sky Daytime Window Building Blue Branch Tree House Twig</t>
+  </si>
+  <si>
+    <t>Jeans Smile Flash photography Sleeve Street fashion Gesture Happy Grey Denim Cool</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/244739962_167607568802274_663972722037688259_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=FUnsYcZV5SIAX80kRs1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c47bac13f7b36aa3fce6a94f6e6aef05&amp;oe=61668A56&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3OTQxNzY3MTc3NzA2Nzg4Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/244438973_191397649781019_8761221350089563168_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=IuTU-UE65poAX9Hhk-k&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d8b7727179f4da7ce050734f469bf0e4&amp;oe=61669A76&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3ODc3ODQ3MDk2MjQ1OTg2Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/244223938_368298534986661_4759966652246260627_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=FIRpZUXuiJwAX9PvU1v&amp;tn=yqd88YnCcPL5hd0N&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=16ed68ced3b6c3d9ac6ffbe3ebd2245b&amp;oe=6161A2C7&amp;_nc_sid=498da5</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/244045848_4266480940136322_4163863257462959557_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=357AVkfYj1wAX-YiXJj&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1e64299d2b9b3c725d9ae8fac240f73a&amp;oe=61670A45&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3NTkwNDA5MDQ2NDg5NTEzNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/243869242_292036456110670_6304236531036891384_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=nHalvceSAD8AX8JAdjB&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=aec1b2058f2018212df25014208cb005&amp;oe=61667DC5&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3NTg4MDc2NDI1MjY4OTIyOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/244053255_604035107293684_8594457174376737582_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=BrWsIyNjGEsAX9w516g&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f1568b0fab48e4dd6f7ee6d255faad1f&amp;oe=616742DA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3NTE4NjUwOTM4Mjk0MjE4NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/243552540_281851916906145_211088871643784566_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=tCm7a1T1N_8AX9saiV9&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8ee97a267c49e67d148aff37a1f3be8c&amp;oe=61664AA2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3Mzg5OTU2MTY3MTY4NTUwNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/242630902_605444214162807_3343613535826855399_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=Cdr5q_EN2u8AX-9IgrM&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=67491f2fb744c12e3f57dd630af224ab&amp;oe=61660B19&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY3MDAzNjkzNzUyMDYxMTQ1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/242638835_263833975744252_2657688751862898270_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=M26-EFCSg88AX-qm1KE&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=06c61a57aef43b59c1f61f0ede8f6f18&amp;oe=61665273&amp;_nc_sid=498da5</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/242873822_126446596395032_6335414169534532420_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=8qNHPsmhBVwAX86DNKX&amp;edm=AAuNW_gBAAAA&amp;ccb=7-4&amp;oh=bc34dced9d8542ba3d75fab2c94420ec&amp;oe=61659BF5&amp;_nc_sid=498da5</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/242108132_1053708085398259_4182574983661100222_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=Tao9zbpEAWoAX8DRSKP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7172b44506f6c97589a84ea07e1d24a7&amp;oe=6165E58B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY2NTkyODQyMzAxNjQ1ODcwMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/242188325_246039140757810_5897642387854579217_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=hfQSOcwnLjcAX-6cNIs&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9bc4951f129f9ebc1a3e83fc32e745db&amp;oe=61660FFD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY2NDI5MDA4NjI1MjYxMjU0Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/241779801_216136333827833_7222190117152379822_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=xw_YIVuECQEAX-LSu53&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=884af51dab06e8826e53fb05df4a91fe&amp;oe=6166DF78&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/241798263_583490842657200_4659138343808053297_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=ovQlNq4kE9QAX_TfBMV&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=b3d060f974e7e9b77ad95ed3299e9b7f&amp;oe=6166B9CD&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/241674049_344388424052802_486893643163288786_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=rR5L8QoKuIAAX9_8UgH&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=90c5932d5c8e2790bc3499467eb621f0&amp;oe=61664053&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY2MDc3NTY0ODc2NTYwMzQ2NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/241730300_441196337196465_6571039621260761209_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=85CRzn0kFTEAX-p4zfy&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=707b5c32a783345611508b47e874f182&amp;oe=6165F812&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/241314052_240995384470847_1244246613939545933_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=XaQGbwBArMUAX_3n82_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a6b365f1a850ddef477d54fb9e3f3060&amp;oe=61664926&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY1Nzc5NjE2MzM5NzEyMDE3NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/241379037_377323863934910_877291454087951571_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=fRunJN4k2RkAX_ZpK-B&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=15b118835530fbfd7a7b504757c8962d&amp;oe=61657783&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY1NzA0Mzg2ODA2NTQ2NTA0Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/241313973_1222479744831601_7137378186814046396_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=icWZMdW7v30AX-E8C8n&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=99cfffcf355ce9255f96e32eff13cbf5&amp;oe=6166A9A0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY1NTU2MjcxMDc2OTQ1NzY0Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/240635356_427560721967333_7719844020952703725_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=Y5cEE-OQSf8AX-fcDhI&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9f725b7457aa956aceec3b27a09d17e1&amp;oe=61666203&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NzYyOTE0MjA2MzgxNjAxNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/240440174_531110678105459_8789390914637620613_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=m5zkc3Cg3wsAX90Hjgo&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a84d4ccfdb74127f6b675ea24acfdf93&amp;oe=61669674&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NjkyMjE4NDc1OTI0NzU4Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/240385321_133976795595871_2943754908126560655_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=GyNYkuIB-H8AX-0h6Sv&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e0984b5b0330bafd0175df1b1b40aada&amp;oe=61675916&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NTQzNzY2NjE5ODE3ODg5MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/239662493_374778480924674_5307763796037706020_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=BG88PzDuNZ8AX_jxhFG&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=47ea0a51a47fd58f28df7020b4ebdd00&amp;oe=6166B4A2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjY0NDcyNjc0OTA1OTg2NzQ1OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/240281879_4406277436132296_2725609730329965153_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=pVcn9TVQnHUAX8I161n&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=22900f233b499b16a7668a4cb88b93e0&amp;oe=61672EA2&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/239414048_334391438378397_4465411634073241130_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=1569P0AGcBYAX-0Iro1&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e6b514b3ac84a49fd10519ec1b76c992&amp;oe=6165E64D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/235835267_240437571279863_8691371872780851736_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=8cKguYlIOtwAX9Ao2k9&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=34a6a3157713045f07f39742cc61e970&amp;oe=6166FB71&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzOTU2NzQwNjU1MTExMDU5OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/236624141_4946222388739405_1895373663666784135_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=SlaakEbV-BQAX88N3Eo&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=942b334eff062a865f51ebf34be01a79&amp;oe=616713BB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzODE2MzY4MDY5MzU5NDUyMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/234796967_881686379095633_1733323972484542563_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=GmYpGYTGnacAX_h568k&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e5951748e0c6ea8df6d263ab1d001c80&amp;oe=616207C3&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/234057187_3038927909767093_1473674202059958530_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=mcvEi997fOkAX-WRPv1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c4e56beb530429b6e654e6b3cfdadf43&amp;oe=6166D8D3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzNjUzOTU1MjYxMTY0ODAwOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/233935792_557325268955691_5065934801476322496_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=DSwSsYGUXlkAX-KSWRr&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5c2a7b4fec99ba8054c495428a8aa1c3&amp;oe=6166C821&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzNTg0MTcyMjcxNjc4MTk2OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/233344435_1770921563115982_1654500604956034583_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=PskZGew-bQQAX-apSmL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=83f9c4eee10b53dc56932c670258349e&amp;oe=6165B4CD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzMzk4NjQ5NDQzODMxODU0OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/233650134_598814391523347_3646922840360679866_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=4tIVxueaaLQAX8GQnXs&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9d03904c1433463bfe7d16fba423155c&amp;oe=6165F823&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzMzE1MDA2MzE1NTQwNTY4NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/228197390_808410886529685_2540714815975230931_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=Wsmru_SsLWEAX9HEhX2&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2d6d0ed52c91d25de3c4328677425b05&amp;oe=6166F7A4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYzMDc3NDg1MjQxNDIxOTAzNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/227350496_1400213457028520_2198668423609035167_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=BRCJKl10ogwAX8SoVJv&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=dca63172b44e8c541d3437f78330635c&amp;oe=61659B8F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyOTQ4MzQ4MDcwNTA5NTI4Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/223941596_898037730922657_7453629532880963454_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=v0zMnpNsXwsAX95XEzF&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=781e59d7e81e596ca89c99b6ec6d87e0&amp;oe=61620F18&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/223097454_130827175801714_3137040274256453228_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=SwYWloCyqAEAX9hNFEv&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1ebd890115a55b79f92c9144f37684fb&amp;oe=6166FA51&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyNDQzMjY0OTczMTQ0Mzk4Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/221294106_379899116897689_1081389606060507753_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=1GPAc2u_-UsAX9CB4m-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b7c54c75042a25b0826688b1565020ed&amp;oe=6166460B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyMjQwODAxNTcwMjQ3NjEyNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/220763494_323076102879909_4504348647608006432_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=A1ZdAJmanDUAX_-jymi&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6a37b6146fc070d94382e1795b98d1a3&amp;oe=616698AD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYyMjA3NzM5MzY2NjcyMTQ5MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/212711075_236100491688555_8201770125160355012_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=jPrDX5MUUKcAX_iRpZu&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6c2de99dba0abef715c756852a6f79c9&amp;oe=6161A4CC&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/210850775_1671298716593954_870713762378299389_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=rmzGU-zqXEAAX88tcBU&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3252f12e224aa9aaf25eee1e53515814&amp;oe=6166EF64&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYxMjczMzk2NzcxMzcxOTQ3Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/211182893_1527329567604560_2913375741570868831_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=KG_vEQ9j3m0AX_1MEyJ&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=fc2904ae55cd765e53d33ba28214cbcf&amp;oe=6166C34C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/211338421_138649165041664_6481700892282090741_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=M64wv0EblpMAX93QpX2&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=600ec6a5b9909535a1b6ff0c9e34b841&amp;oe=616586ED&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYxMjcxMTIwMDY4NzczNTQ5Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/210078111_513329693313291_7289135658490324911_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=_7njm2hc4VEAX91k7Yf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2afe268e7e1eb0c27f3d90d67d82df6d&amp;oe=61659D9B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYxMDc5OTA3NjQ4OTc2OTI5NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/209772152_230019608987903_3473970748837900681_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=hvgbRZ4_mXsAX_mXbOm&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=8da1233502dd97196188fb44b7f37d91&amp;oe=6161C486&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/210390171_3009681569255568_7743164941893647604_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=hwk5L4NTYDIAX9J_Vhh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=48a4f52d2ec07bfbe02d298ddb77992f&amp;oe=6166714B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwOTI0MjMyMjQ2MDY3NzAwNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/209475471_2900755950200178_381599774576869660_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=hcAsj2jC7D4AX84Ely1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6ab552bd377ddf5f72e1dfccfafd8e7f&amp;oe=6166B808&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNjMxMjEwODY0NjY0MTYzNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/209250154_3035456360009929_9118424050709357858_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=EtxhdX4BARsAX9egdMf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5555012f0c47d17ad52ea5e98868577d&amp;oe=61667212&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNjE0MzM3NjIwMDY1NDgwNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/209250151_915219035722534_9006157847699942877_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=Kc7znut1DvAAX8R5cpM&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e499bdccda882454b151aa2d644fd228&amp;oe=6165848A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNTU4MDE2ODI4OTEwOTc2MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/209039380_4456030497782012_6134985638914635188_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=p0AijcujtGoAX8iOSah&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=740f4effd7ada34efcc46e2cdd4e228c&amp;oe=6166E031&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNTU1NzE1NDY4ODI4ODMxOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/208052699_212108520763625_9061482095300046004_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=v0bi_PIJaQ4AX9E7WL3&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6883148148ff2e1dbce7dba49dfbfb82&amp;oe=6165F7C4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNDY3ODYyMjE3MzA1NDc5Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/207454411_183438873732781_8830995917798153613_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=4RHOw9mLa8cAX95Pjmj&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=54212dabd453c54ed67a474de106bc4c&amp;oe=6165C6E9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwNDE2NTAxMjk2MzQ0MTAyNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/205015304_1064147134119114_9118412033084527374_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=8ANQeibb1KIAX9PzZej&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ea36b42f8830d9eba15ef8c7f09a2684&amp;oe=6167166D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMjc0MzA3MjM3NjEwOTE5Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/204691979_756479215030092_2179195165188216288_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=ZjNxN2BL6T0AX8_KxrP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8097ab3f512d36f635f87d92700ca53b&amp;oe=61663DC0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMTcwODQ0MjI0MzkyMzg4MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/204501165_233575988325416_5421561597533636454_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=dozPVcZpmGoAX_fbeGL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=843097f1fcefab115c3c3a0f20f67276&amp;oe=61665FE4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMTM0NjYyNTA2MzcxOTg0Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/204222823_633750064254646_1348431351052592663_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=9ddNprSLJNIAX-wd9t1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=eb6ac767b0131695f0b0dd02efa0519d&amp;oe=6166BDFE&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjYwMDI3NDYyNzQ4MzA1NjIxNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/203251697_172766351483575_2058090092735854420_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=MHgA54STMbEAX8cqeoc&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d8b1eff57cc29fff6e8ced67742a01d6&amp;oe=61658AB7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5OTY4NTg0OTI0ODgzOTk3Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/202239175_1852293691617361_3458987646743534166_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=j08HdyKcfYsAX_E-MHj&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=065f70c75e7889f976409183d33b0296&amp;oe=6161DB5E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/202658175_399603657949652_572387913990177200_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=2_LFVuwvxLkAX86Dl2P&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f26f5322a27e3e9a956b267078d6ed83&amp;oe=6165804C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5ODIzMjUzNDg3NDk4ODU5MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/201183617_4699950096686740_4355269313049450687_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=wXsEXPOqPVQAX9Gw-WP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b65d70378278464758cefdc7344d3dcd&amp;oe=6166DE79&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5NzQyMTIxMTM2Njk1OTYzMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131405933_816328642589013_3265185616363272351_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=RfPGLZ1C_swAX_EvY5i&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=59db3abd98adb586d60c09ab6247db1b&amp;oe=6167199A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5NjAxNDUxNTgzMzM3MDgyMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/198113363_4095454873841386_5999523417949226225_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=73zMHTcIeewAX8I-Khp&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2ae32e911dabc1fcdd5c2d2fc74d2292&amp;oe=61664901&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU5MjQzMDQzMTM1MDk2Njg2Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/195894601_3993138920734752_1430111843331286424_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=ZErHmUhn0LsAX_ELdcT&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9cf7cd652b859431fedb2dff6b1e1b26&amp;oe=61656497&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/196379273_2590960011204970_3922602638049003175_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=kpUNTu8UpdQAX8-RXtF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ea1c534b5ad118e85c623dfc7c17e27c&amp;oe=6166CEB4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU4NzU3NzUyMTE5NDQ2NTMwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/194827200_858718314719462_7642705898682570361_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=Uzujf0fegkwAX88q7lz&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=226672be383ffe48040484f3921c1058&amp;oe=6165CB80&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU4NjgyNjM2ODQ2NzAyOTE3NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/191092607_266601221886569_3590942585836030001_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=gLGU7MKnRJ4AX-flssg&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=68bab758ecd109315a74d1eeb8566594&amp;oe=616575AA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU4MjQyMzc0MjU2NDM1NzYzNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/188225601_936386537216551_7984357034006535858_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=SmBESOiyBhEAX9phkWB&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c2cdaf5ce4c6ab1b615daffcf779d4f6&amp;oe=6166CFA4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3NzMyMTkwOTUxNjkxNDg2Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/187772297_282893266909260_9097829881151830758_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=l70s46FsAD4AX-A1yc9&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2f6e6bb273a3b79a0601a6c0556761a7&amp;oe=6165AFBE&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3NjYwNTEyODMwNTM3MjE3NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/187624674_744233922926988_4927788345124347853_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=TqfVqilDC90AX9epi7c&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e54e2371729d4f0541c763e04f034854&amp;oe=6166C577&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3NTc0MjM1MTQ0MTMxMTIwNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/184761235_757964191574890_4540503475761071267_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=OY4KuTlbf-sAX-DqT2Y&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=49bf4620b3adc7e300487aadf3f48503&amp;oe=61675519&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/185034642_151220336968250_4857559806057375001_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=D2s8Oaw9__IAX9hAq7H&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=87c874f02b4b1327c790fd70de47c246&amp;oe=6167192E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3MjkzODA4NzAzOTk1MDgyNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/184308288_4178200398915788_8688864692944611680_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=-SUNPKc0UOUAX9TjYye&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f600c8eb7e16ffbe603fa139c40d0ee2&amp;oe=61661165&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU3MTQwMzc1MjAwODc4MzI1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/182576757_759241891430084_3697711869703404349_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=1GTznzArW9YAX9sKFY5&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=57125db57fa6f1026d3dba01fdbed087&amp;oe=6165E16C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/182916631_189626029671758_5798969709485020673_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=F1Kv_wZMKkUAX9H6BOZ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e3ddd30266e7700b6e37be77977cda88&amp;oe=6167546F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU2Nzc1ODgyMjgyODc4ODM0OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/181139779_214640513460763_1327669013048878750_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=7xHjIFItPmsAX8Iy8SD&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d242eab5a860cbc33b6a167ed6635288&amp;oe=61674D42&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/180296599_311007303740416_3849303687377333132_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=-lm2eIFTUZAAX8s3hoL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a81da0f85d414595608afd07a4f0ebf9&amp;oe=6166C985&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU2NTAyMjYwNzYzNzU0NTM0Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/181547878_323299045876642_972842572927647036_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=Iw1wHvT8NIAAX9-jPTw&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=48e0c9bca474da272b077180c2931a26&amp;oe=6166F32C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU2NDMxOTIxNTI0ODQ2NzkyNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/179890347_470743430651374_8381653275224791242_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=PPBhdzEAnn0AX98X9wg&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a43f775d9525f6ba458bab440a5d6b16&amp;oe=6165FA83&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU2NDE2NzA2MDUxMjI3MjI2NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/180348515_760813354420528_8006094694210997457_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=eZ9xClsbA3AAX_So4o1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=03ae4822ad81ad2ff9bc16fe8743d097&amp;oe=61656FC1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU2Mjg0NDU2NzcxMzA5NzIwMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/178396640_301294044924857_6398699184024324001_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=xjYCnqfgz-8AX-ad_QS&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8e8ec5099388c59d3cdd72f9aa425cbc&amp;oe=61667393&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU2MDczMjE0ODk1ODQxMTY2MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/174242858_106673061476682_7530615384698597514_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=1DDdUa0iNbYAX9zE-42&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=462e62c5adad7f15807a9176e232c85f&amp;oe=61668934&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1OTg2NTExMTU1Mzg0NzYxNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/176546158_309847184079219_8763442945518925069_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=4XKeI7j5DicAX86p8RF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=42e2f5f021d49fd9597a9824dcd1f0e3&amp;oe=6165C844&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1OTc3NDE1NDk2Nzg0MTA3MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/177360715_212956946902835_6957096216172602320_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=hx5kPcrgvWwAX-uJeE_&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=63e2089afb8b94360f4d2741c038362b&amp;oe=6161A11E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/176233513_288473642853329_57764635207741768_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=UBQ1EL-9gkEAX_zka06&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2a732fe2fd381bcedbacbcf47fb3d79c&amp;oe=6167425F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1NzU4NTM4MTY0MzQ4MzI5Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/175624382_1526027024272452_3833518808257888252_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=b6lFYnynSrgAX9Bbw4v&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e83ef424cddf56130d8dbf5ef33fd3bb&amp;oe=61662C92&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1NjIxMTI3MTExMzg0OTg5Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/175801940_840542983338096_3157262447551416482_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=WkToKI1zvO0AX9LAmtS&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5a6255a8165c1a0be466e4139e895e9e&amp;oe=6166B435&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1NTQyMzIwODE0MTc1MTgzNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/173638508_1622276794633909_4086783877282722200_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=m9pJdWM3Ci0AX_3UcRK&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ecdd65e2d4beb564480d852427901144&amp;oe=6166795A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1MzM5NzUzNjA0MDk3MzYwMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/174469124_1674989156044526_6058169973797199341_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=uijIrguwHbwAX8OtEVd&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=bcfbab83c280e3a3b812b0ab5e3e3455&amp;oe=61617222&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/173538309_466739817897306_4994659595780868541_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=2svoj7YjCL0AX8GbGe4&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1a297062af4e00281c119704b3e783cf&amp;oe=6166F9FB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1MjUxODIxMzMxMDU5MTMzOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/173444090_222906229607578_585866883631917681_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=qDgOSEpHM3cAX-lzRJx&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f0ef94dc538cbf355b8c86bbba51495c&amp;oe=6166C29D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU1MjAwOTYwMjI3NjYxNjQ4OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/172964137_766513880734831_5855501615112853046_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=1EXmwvr8sUMAX_3uPfd&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=1a1e3fc7a524b2e16596e8fea19d01bf&amp;oe=616746A9&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/171445022_162998175598506_2664714245656040390_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=jplpgv5ynCEAX_CHgm4&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=006898a0e7e8fcbbdd71deabafd05ce9&amp;oe=616650FF&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0ODM4NTc1ODcxODUwMzEwOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/170441209_121754106649707_1200538554845923112_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=LsAl8j0w4N0AX8rUZUZ&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=99266c87bb19bb18e004e75cba851d80&amp;oe=61668BCC&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/169580601_495471315147015_1933838183364537070_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=4h9QuNvWbKIAX_D3PvG&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=999f63519ccc199af91a82e907e6a8f0&amp;oe=6166306E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0NzY2MzIwNjQxMzAwNDAyOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/170572692_181758953774670_1230530328672063337_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=MHl7XWMIuzQAX_fIb7Y&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2a35dce0a4949bacd50c14ead7fe53b1&amp;oe=6166D381&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0Njg2NTQyNjA4NjAyMzc4Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/169944876_368267591014867_4152948789780781081_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=_zWlqBun8UwAX9X7kVn&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=dc65fd17695f2862035e626e77056506&amp;oe=61617116&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/169281281_240702577842708_8276571623808936428_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=sPZ6W7nBFXUAX8q-3JH&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a53fb27338d9b24855f84b21776c809b&amp;oe=6166046D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0NjEyNTU2NzUyMDMyNzQ5MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/168922277_923165664907061_575370592399217563_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=CXUKUbiT3-MAX9SvD9E&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9c98b93d598bafc32e9e1e471d251669&amp;oe=61671474&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0NTQ1MDUwNjg1NzUxMDQ1Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/168657139_350822103034336_5224458126475984551_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=30SpGk4-yP0AX9ZM1nd&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=551d382c8c581af6a79b4279c54a4012&amp;oe=6165FA73&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0NDQ5ODU0MTczNDU5NTEyNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/167565173_270687714666435_1479907660376183247_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=SZwXUpc9MMgAX_caxaI&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=ae8a4d919c8ff9d6e7529653d25b5b1d&amp;oe=6161B46E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/167565177_306216550929488_7284565833360205224_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=luqdbMLQLIUAX8yUQlT&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6ba65302df2b76209dae94afd0801b36&amp;oe=6166D126&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0MzI0MTQ0MTE1NDgyMTU5Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/166948734_114629210611231_4553699353752413610_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=epWATKlLVPoAX_rK_E4&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=17cc83491da26e923fb9fc1a79040321&amp;oe=61662060&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0MTY0MzY5OTc2NDgzNTY5Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/167213374_150515100307009_3368720709419903863_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=0bdvhYhxbPoAX8zxUse&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=fe89be76c978a9e23be2d9d1b1857830&amp;oe=61673D64&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjU0MDkzNzM1OTQwODgxMTU3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/165675301_155264196466074_5595063391590534948_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=taGMuFR4-h8AX8qh-P_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0f791b7d478cb6c2b25842e59b305091&amp;oe=61673E51&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzODg0Mjk0NDkzMDU0ODM5NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/164769049_771362237141186_1238440432857074178_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=Bsik0K92UvEAX-NKcwR&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f67c0e358472a33d331f259e18b964f9&amp;oe=6166DEA9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzODcwNzQwODkxNjAzNTg3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/164858193_1585458464986187_7172875931625124282_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=achIW87aY9EAX_Y-iPY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4409bc823ad9de7a363e4d463dba6dbf&amp;oe=616751D2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzODA4ODk2MTkxMTY4MTg2MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/163284117_265777208363076_8626437361722707484_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=xBnz00bt0oAAX9CQsUR&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=5a7a1f7978f3fc443d604f0e5fccb1d9&amp;oe=6165E551&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/161782700_112224807507562_6775541760080329355_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=72-WKIchLs8AX-vtVpt&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c7c8373839a116180c1548cced5ca85a&amp;oe=61662D39&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzMzY3NjIwNDY5Mjk1NTgyNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/161728025_442483060363696_3951589452828338409_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=dAHAqivHAj0AX8H2k_n&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ff6942a926c90325e0d8cb5f878fcdde&amp;oe=61665B06&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzMjQ2MjA0OTMzMTk3NDM0MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/161655090_773561346603657_7819204996805924283_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=NQtxzT-1mtYAX-z6ECm&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2d65519003b5a754a2fcee87e28e92c7&amp;oe=6166DA7D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzMTU2Njk1NTExMjMzNTI5MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/160287136_1613062372232411_871828519936067136_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=tn8SQcH-ALsAX9xudY2&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=50d9abadde29db0a7dc878f3e78a8378&amp;oe=6165F50D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzMDkzMTk5MTI5OTYwNzc2Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/161283484_4252589798126435_1686779850967632648_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=bI4rPcJRWv4AX8Bfl7v&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2668d507416a0b9e452538944535d743&amp;oe=616711D3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUzMDIzNTk5MDA4NzU5NjE4MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/159912568_111465454348813_3387745648566762569_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=-pGxXz82SOYAX-LS8IR&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=b44dca4d0da9d7768d9fe431db49e58f&amp;oe=6161C90E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/160256161_466903744451055_5404423801070166308_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=khfLGEmxJcoAX8o0_Tz&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=dde5962461042d0cb92236458dc813af&amp;oe=6166AFE5&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/160258383_112995364151091_7884820257668014235_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=h2v0SKZ7YhkAX-gQxfg&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=024d59939c26c4973d46224721c773f5&amp;oe=6161D617&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/159975534_2859477607632038_8805522301201308349_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=paOWUyYePGIAX_7b-Lt&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=db229f865a5b1cda6f1dce196977ad8c&amp;oe=6161B1D0&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/158728630_464862451530554_5148468250784181927_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=LSdCrIgmlVwAX8F4Yqz&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c130ff3123c61ca3d805c02b9bd1f266&amp;oe=6165B452&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUyNTE3ODA0NzQxMTYyODM5Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/158476423_1430983893913399_6553323721824400556_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=HfPzkiU1Qu8AX__ALYS&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=595fe151a218ce22ca301778144ba106&amp;oe=61660729&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUyNTAzNDgzMDUwOTQwMjMzOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/158587740_1265356880524780_2677217870514646411_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=ihTZm0-TSZoAX98Ki2r&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a70c4c1b48909921931d4219501f356b&amp;oe=61656D1F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUyNDQwODAwOTI2ODM4MzAxOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/157289543_426023035137243_1801589181455569658_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=Dyx18DRjPvkAX_xuSGX&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9cb79ab95140169fd6dbc654263fb6d9&amp;oe=6165E079&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUyMzY4NzQwNTQzNDk2MjcwNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/158370289_927459694690311_649317373662780824_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=lEKEdm9jk8AAX-Jk7Xa&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=2a90cce9d44da2ac29d73e0a1e739d0b&amp;oe=6165DF5A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/154795623_1780310032147607_8568519134766813069_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=DqBPBM2YpDgAX8eV9vX&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4c865f69b59abecf7451fd80c4f1bfd2&amp;oe=616749A6&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxOTk1MjQ3MDExNTE5MzQwNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/154897830_899136250907315_7632565948806042914_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=PjQ_vMe0c54AX-0HVIy&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e8d9d045387e3d19065d86034061c673&amp;oe=61656E53&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxODQ4MTk1MjczNjM3NDc3Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/154805826_437012844303557_663072649121770245_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=ho_DAV--44oAX_BpcFd&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=beed9b39c47e7a66c166799fdbbda5e2&amp;oe=6165E751&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/154348788_2883936158518845_6919559456257220618_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=4TJIFXYFrtUAX9Qo4rP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=23f42e5b8c77daa46e944af523fc5b86&amp;oe=61668F06&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxNzI4NzAzMzE4MzI2OTQxNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/154352547_277221090423047_6777395658151602075_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=7srC2y8sXHcAX_vQ3q4&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=29bc39109d35722d1462567868a7d470&amp;oe=6166B71D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/152900711_728311278054064_3445067858412334825_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=rKDsJmblUVkAX_lQaQP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f0f0483f517d6ff776ed54565dc362eb&amp;oe=61658AFB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxNTY4MTc4NDcwMjAxMjA0MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/152342660_3192176997715855_4404865339743385877_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=PhXKOIUUksAAX8-Y8w0&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0d99702701f83de80207992476521c6d&amp;oe=61666619&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxNTAyNTgwMTY4MDA5NzQyMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/150890288_942819946458447_5226858726805817846_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=uIieq1oC8MwAX_iNnFw&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8fde33bbdb5d3dc149574206b491b66d&amp;oe=61656342&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxNDA5NTkzMjUzNjM0NjY0NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/152805012_1394442090892323_9065895360494912429_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=poUA4l4vg_UAX-vtn_M&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4b77be50f0ba4f140dac500e78ab1dc7&amp;oe=61656CE8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxMjEzOTM4NTA5ODc5NjIxMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/151130132_178106044117926_285761558242593293_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=STqAQVycHncAX-pf0On&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=b0890a155c6fdf0d94c9620b22e39ed4&amp;oe=6161E686&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/150702878_228908088588722_4944685700307957155_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=H7GRpp9quLUAX_xu39l&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=deea3f643537b96a324d31f4e79c4b10&amp;oe=61657F77&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUxMDU1NTIxNDY3Mjg3NDM2NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/150523402_458632531997251_8479354748341965389_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=eR52nTHnjqAAX-UDlya&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9398fb64e63cdf7305f356065b6205ce&amp;oe=6161AC2C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/s1080x1080/148444417_406875963945074_2040832387422474267_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=_Y93zZXLypYAX_xJBm1&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9d239b190d3abdedc530bf0a585bc04c&amp;oe=61665EE4&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/148778818_244588297227809_3062061498308526341_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=OJE0Ryu1docAX_q2eEK&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=26bad96de28b920b12108b8b5c4a41cd&amp;oe=61666EAB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUwNzAyODM2MjcwMDMxMjc0Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/145557786_892983124852865_3182846619619494880_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=U2aDFqht_98AX_WCn42&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1f311b852a93fbc26d25c6de0f472eef&amp;oe=6166AF6F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUwNDE0NDM0NjEyNTAzNDEwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/146537501_435328314192025_5625224444518580015_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=n1noHhOPwxsAX_f0XoZ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0d5a671b734793d8f5703ea665af3e57&amp;oe=6166773F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUwMzE4MjQ3OTczNDg4NjQwMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/146000252_316624659877495_2854319856549349608_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=zKwGpsh_ujoAX_zJacO&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f0dbd24e1eae02a74f91937494bdf264&amp;oe=616732A2&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/145514945_116474523697626_3761173747884329690_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=5ZEy4jOqJdYAX_S3J4R&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ace4738f61ca55950c31a6ca6ee12c42&amp;oe=6166FF02&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjUwMDU3NzU5NjQ5MDA5MTY3OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/144718419_142571184347515_3710116064016810661_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=RDY8TSv81_0AX_K_Hjo&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9dfbb92c84a9f1d345dfe7b09754dcb8&amp;oe=6165EB3A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/145472701_267887538089398_5215779243722801707_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=WU3QNYT_fR0AX-uRtZA&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=be8e586dffb4884d0368805efe75feb1&amp;oe=6165FF87&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/144334455_706027433423786_7992016685167038124_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=XBSZn1FLqsQAX8wyRP8&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=02fde9c80a084d32bd66d6a0ead463ff&amp;oe=6161EB68&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/144074487_417118779506852_4237560685298395683_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=YRCfQxpGERoAX9Gcu6e&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4b8ee16fc364b2dc8878627efa3d54d3&amp;oe=6166A5CA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5OTA5NDY3NDY5MTkxMTE1Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/142321324_123075403012907_599051603592775508_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=lbkJ5kGo3m4AX8wtF_N&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5f325e325298cfcdea6cc538e0e82805&amp;oe=616719FA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5NjgwNDM3MDMwMzUyOTU4Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/142746612_170514424466763_8056728133149955346_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=oh4hYdUpEuoAX9m4ZzT&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e56ad6d938f00ede839f0738eafb09b2&amp;oe=6166FE9C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5NTQ0NjMyNTUxODU2Mzk2Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/141741776_145928510578656_751930929699750032_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=Yaq75VmAt_oAX823l2L&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a8e79f78fd4051d56c687fe684e07dfa&amp;oe=6166F0AA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5NTI3OTQ0NjMzNDE4MTMwOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/142062130_127437332493252_3656586843502224157_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=ymxtGVlo4dkAX_aCZFX&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5ad298b72bdf79c85a51cd0ff3b28aa6&amp;oe=6165F65A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5NDU5Mjk1MTQ3MDM1MDEyNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/142181947_871443560090827_4233111513800049246_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=xyxuHgzrqC8AX_DR7ae&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2f249a654e18c021ff54278546699ba2&amp;oe=6166B179&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5NDQ4MTgzMTU5ODMzODM3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/140449604_1511705409022438_7037545894485153994_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=LNs_05F3JkgAX-PUO3e&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5b742662d41488db66473bc1e6769df5&amp;oe=61670589&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5Mzc2NTI4Mjc4NDY3Njk1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/141547274_107333067916772_6423620454480720212_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=K9YOt-U2AU4AX-QWwyG&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b49521c6e842496f64e54668acc2bd83&amp;oe=61663664&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5MjU2NTk5MTY1MTAzNjkyMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/140324101_246767190291581_3944195689714338558_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=-vGrC04iwrAAX8Xhd6E&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=08f035c12bc200e884451aa846575e90&amp;oe=6161D65D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/139956256_436019417588318_153712917703163365_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=RNvNlRcc52IAX-iBMo1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=56b6ec3fb7234a44d5602cc585812ebb&amp;oe=61657914&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5MDM2NDE5NzkzMTkxNzE2Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/139930868_739524590032516_5653150012528192317_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=SzAP1ZcmeCwAX834oM3&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e4234f377223e6b150b282baa7d9e29e&amp;oe=61663291&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ5MDI1NzU3MTEzMjYyMDY1OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/139783119_782481095688743_5407120424617714597_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=zfjHBgd7x_8AX8WpGaN&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b75b34c4818704b0e8f1b839b793c649&amp;oe=61667704&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ4OTQyMzk1NjAwNTk0MTQyOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/139536182_321055129205517_2288095859967726485_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=NbsfXAblR2wAX9oYpaR&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=90e291336c06a953c1ca58ba57b19d44&amp;oe=6165E0DD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ4ODcxODQwMTI2MDAzMTg5Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/138614863_403522550953273_5437541872841874867_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=VhTeYeCzf4EAX-OadAX&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=aa3c05fbd4c05f54d1d2388c2163a1e3&amp;oe=6166BC9C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/136758756_900553844082808_5023360896614716529_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=zGSQaLEiqN8AX_ekq8n&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=116ba2f5751ec7785ee6983b0364a617&amp;oe=616733C6&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ4MzY2ODEyMzE5NjQ1NTg4OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/136095206_399148177966929_7714581190160292962_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=lmCIW6eK_4EAX8XzoaC&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=02562bfe2b85f7133838467139581689&amp;oe=61667D14&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ4MTU4ODI3NDg1NjI0ODU5Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/135340923_416318712755468_1096950654519131512_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=2w9IMNEfZoQAX9I2HyU&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d96ef2f0bee91dff553f70dd59cb4b01&amp;oe=6166145B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3OTUwMDkwNzAxODMyNzMyMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/135053310_729017691365800_2272875522506911430_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=QmYJwWJDL4gAX_1EkHh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2438e56fa8250fcba92fc886b6dadccc&amp;oe=616590E9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3NzA3Mzc4NTE0NjM3MDY2Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/133869561_876388809884384_8775199250228684097_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=G6JxUMewttUAX_TQP53&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=4ac58679bdaa68ee739359d90cb09132&amp;oe=6161FEE5&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/133930812_227601928888642_525163224157376899_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=cNVuQQ5QAIAAX_CPz68&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ba87b46bf939cc03fd1fc20058457ad0&amp;oe=61674CD9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3NTAwNzAzMTEwNDcwMDkyOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/133504382_1312494022442833_6301595612730862296_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=FB5LHMpmqw0AX_Y0Pa5&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=68e6670d3ea67a61e0fc2ab730eadc2a&amp;oe=6161A3AE&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/133366316_2851321328413064_8892107767986255103_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=xnBqxTE7IrIAX-XY8X4&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=fcea2fd7b61d8796d7050e0555fb4b40&amp;oe=6166AEEE&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/132496106_703367673882300_6068385255648007701_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=XMEFxCVY8gkAX-YwTOV&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=591273c4251b88cddcf76fd57d1b53dd&amp;oe=6166C505&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3MzAyNDgyMjQyODYyNTkzOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/133699252_493170841661497_2169055440309898379_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=veqJ-TM0ougAX-b_V29&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7669627cd1addcca872038f9bab3da52&amp;oe=6161C47D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/133070192_177707670704606_2175170413744739674_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=_OcWmVJeX7gAX-QRX3g&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=eae27923845d70dad3860e68bc7ef2bf&amp;oe=616652D7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3MjM1MjQzODYxMjcxOTA2OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/132589383_813119812863634_4478537679404851934_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=7BgtjVL9ZZQAX9RJEc9&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=83b15a520ea570842a4ef62115ccb436&amp;oe=6165E62B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3MjI3MjA1MDUwNjkzMDQ3MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/132198747_113421313962605_3527232670662052072_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=lkrekTQynL8AX8DaTuW&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=025b1c7aecbffa977df0a85afe218330&amp;oe=61659823&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3MjA2NDcwMjY4MTA1Mjg2Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/132208344_389124328836009_2273200059304308088_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=09A6QpHQ124AX9VeP4g&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=2cea389fe4ee79b7021196026d731c9b&amp;oe=61618102&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/132096859_157405445720562_5816389043741896888_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=jTbdwKYCpDgAX8np5Jq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d57370ece1f1ccafeb05af3a745f7145&amp;oe=616713CD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ3MDA1NDU1MDMyNzAxMDM5MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/132282648_381383576484123_7650699380849643404_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=kkS9cq7F8E8AX85nr6W&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d93e542bbd891b7a6fd0fe6584cb0465&amp;oe=6166C51A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2OTUzMDg1NzQyMzMyMDc4Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/132011085_434324927605862_8440003838118813727_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=Emw7Nq_ebYMAX9FzUsh&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7df01e789fc08df3686f4eb4cab688f0&amp;oe=616714A7&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131498526_828067287772339_9099572133065527064_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=E6q0FWB92PIAX_YN_6x&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3cffc7bca12ac13bf43718ef7fcd509c&amp;oe=616735A6&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NzE5MjE0NDcyNjkxNDk4OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131896370_714025856212153_8847702521091350373_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=pAiZouTlKyMAX9JQRK7&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8cd0d34705ca264719f08d2757e6f6c3&amp;oe=61674923&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NzAxMDkzNTA5OTA5NDA1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131226388_1098151423946523_1386692624891511038_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=56YbamkZRLYAX9B_UFy&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5e8846c91f261c1a5634daf837abb037&amp;oe=6165FE6C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NjU0OTU1Mzk0MTY1ODcyOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131889246_189130012877365_1722293048250226820_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=eF3l5ajG-mcAX_P5GFH&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=23b68bc504da57a11466352d494bc829&amp;oe=61670764&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NjQyMzUyNDAwNjY2OTU0Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131902684_144309754116820_7173592008652551441_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=gvquW5hWsCoAX_FrHZL&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9ebbcf673d61c43adde717ce0c3d7d7e&amp;oe=61620EBD&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131539150_793509511204817_8921779607804747918_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=eTbcEIJfH_4AX-dhbRa&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=dc546ad2821a05630898cc324a8ee5a2&amp;oe=61674AD5&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NjI0MDU5Mzk0MjUxMTg3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131239636_791099234811991_6929459288974044035_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=TaSq9-f-W2oAX9YoG9-&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=82ff3cbdeb38098241b7bcd950db1da4&amp;oe=6162082F&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/131546255_386497319086985_514609465485343015_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=vZ_uaKFQ4xwAX9iDxs9&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=53c9bc15fff99a2c61faa0eab6521d78&amp;oe=616599BF&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/130995728_3616208298445447_1200380600564394973_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=0GwNOVtzmggAX_tK38m&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d822b890068a7c9303ca80d03fff8b21&amp;oe=616590BA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NDgyODE2NDEyNTY0MDI0Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131336009_1723775357780774_3834578057630831293_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=kVXnYXnPXiIAX_o7L9J&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a5ca2f52906f348029403e258833490d&amp;oe=61661AF9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NDM4MTMyNDUzNjEzMDcwNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/130601779_2926734960947059_4775668324073586761_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=P_NThGz08BYAX9m9Eeb&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7653a5cdf6c5ec8427c3f08bfa4a3295&amp;oe=6165DFFB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2NDI0NDAyNTExODY5NTUxNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/131515957_452336156166706_4270594903419687507_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=rZGsXSDVRaEAX-buR05&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7b3cb8ee63bbbe74cd0d7711feaa1d30&amp;oe=6166B17B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/131363411_399859281069740_4973920369131177778_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=cJ_FtASbqk4AX9NQqDA&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e79c1217ec3eeb9e7ef968a11d859cb4&amp;oe=616642E5&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2MjYyOTQwNjEyNjI4MTMyMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/130305864_2776689765945751_7052042509330314540_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=yhWrqe5RaHUAX-akCrP&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f4f964cbe82dbc1fd59a0cc0da5c577d&amp;oe=61618D1B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/130248328_439072647097051_7763760602554540850_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=yz8SVpHMTTkAX9WvlpW&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1fee5b6cf1bc2f4600dac13b59224519&amp;oe=616716D6&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2MTMzMzAzODA3ODM0OTg5Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/130523002_712772979662833_7830188549030422592_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=kurHmmwnwtMAX99LtGq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=552836f1c60b442caf16e87db0cb9af3&amp;oe=616630DD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2MDYzNTYzMDI0Nzg2NjMyMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/130155318_730197184583412_803607084116826742_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=l4sw7so2ZwwAX8Gw1WH&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=667bfcbac6dc5afb8002838882243ffa&amp;oe=6161C57B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129761311_2757217481200833_3927747431492776259_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=Z3q5uWITvTIAX9fKiJe&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0dee50ba84fc58f89fe7ca070eb1279f&amp;oe=61662A17&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ2MDUzNTczMTg1ODYyMDI1Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129743650_808007806442214_7531366161772317156_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=77oXTqKkqBYAX81B3lQ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9948d2f3f6c64f7d25215f686decc2f7&amp;oe=6167488A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1OTk1OTg2MjY5Mzc1NDA3NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129658120_431041658062868_6335875664149655176_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=TrutMwQ1fRgAX8oyZHj&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d3823f6e4ff1734e5b1dcf9943dc1c0a&amp;oe=61669E30&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1OTg5OTAwOTgwMTkyODYwOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129756314_184097270024895_3280003719332502712_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=vPKzHceQ5kIAX91jchA&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c32183abdfd96d769ced9f249f816b5c&amp;oe=616585D4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1OTg3NzY1MDY0NDM3NzU5Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129758593_844105742828603_9156051642797208356_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=_q-dqulGJ6MAX8lWfj_&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=ff90716532be54c4a46b856d237dd957&amp;oe=6161EFA4&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129760562_789356971790508_7756852103052330322_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=cqHx57NeDQgAX8UH2FP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=fee752f5848976b3b7376dab24a59888&amp;oe=616724F2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1OTAwNjI4OTY1MDY4NDU2MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129682201_2833535396859084_1183062157642969205_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=dyaUTtZ2XrgAX-MP4Aj&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6e29ec6dcf05bd9ff65354feaf0acea3&amp;oe=61659D9C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1ODI2NTYwOTY4OTI0NTIyNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128470854_2619178654969414_8989284281809212453_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=IxcK1rxfXIMAX9RMPeD&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e858bc04ba14aec2f51b05565c52353e&amp;oe=6161F67E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129775035_1772904529537297_7919029365693353548_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=COx-TWpXzdMAX9RPO8M&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ad3406e338d8fe46acd5474d297d3f20&amp;oe=6165798C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1NzU5NDExMjY2NjUyNjk3Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128874787_732681144298291_918159781100005248_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=Oun-H-sTjXsAX-m1gub&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7e3d674928638ea3082758f34ba7ca53&amp;oe=6161D4D9&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129213145_864755507629569_4165254865709216383_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=gAemOCItlsQAX98IpkF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=bb828699ac0b50f03879129f52d391f1&amp;oe=6165E5CF&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1NzAyMTI5NjQ1MTk3NTY1MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128855281_1670998966394929_3254532625564642578_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=PGtCEqnX6HMAX89eKYJ&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=1bd0a23beaedaf75623e3407ad82d3d9&amp;oe=6162082E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129306451_3664466683613663_4448216415230833080_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=X_y0_tjLSBsAX-UUA4R&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5cab1d012e6ed96d73befd800855f1b5&amp;oe=6167077A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1Njg2NjQ1NDQxNjc4Nzc1Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129353449_792560698191161_3369756838052711821_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=IRR-epps3NAAX9kpT_N&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=edaf4ee3e46a0720d6e08d6764b368fa&amp;oe=61665294&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1NjMwMjQwNDk2MDA5MTY0Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129138720_817285735506489_6044067487581059879_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=ebqeri68lPgAX9xuVCY&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9043c835076afcabf35d1352810d8c09&amp;oe=61618539&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/129036769_2776367699273466_4608207063659394426_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=b75U3WaS7UAAX-1w5Rc&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=434806ba39e25ceb6d7ac39e36e13739&amp;oe=6166ED2A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1NTczMDQ3MTUyMDYwOTY0Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128724879_422619808880792_7675847912051677433_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=piWTjfRrbF4AX_IPoLd&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=19a041466a6394988250502818bd2e12&amp;oe=6165C40B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1NTQyOTE2NDIzMDM2NjM5MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128492647_2425931107712479_1000370872616045405_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=BeaiLyedlEgAX8Ub2ZO&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ba9b998aa551038af4a1f6d4fab05eb4&amp;oe=61672609&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1NDg1NzI4NjM0MDEzODQ2NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128507599_186562046439153_1144579943575243249_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=Jf0llfZ8lk4AX8fQgyh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b41907e37b0a68a431276db0903c8ae3&amp;oe=6165D2E4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1NDcxNTE2NTQyNzg4Njk3Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/127972898_419762505704678_3681172983705225060_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=7XSc19Ah7_wAX-iutUE&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=43626eded90d939a097b154a21f38f53&amp;oe=61618838&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128217917_950592355474246_1194559605164009577_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=aa6Sh2DeNiIAX-DaQ0T&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b29f3da5af02124f7c2588ece7e2e462&amp;oe=61672E56&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1MzUzODY5MzQyMTkxNzA3MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/128455822_1745058498984107_4003399793754535877_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=38SG8ozZWSkAX8NI1Wq&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=0fa363a55a5c2d219975e5ebc18da944&amp;oe=61672064&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/128147649_371168513989805_7805964796720269502_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=HQakaV357JQAX-okKfo&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=54080713b002c029b6bd54186e27a613&amp;oe=6161E5D5&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/127283783_670151147197072_2196713705771995635_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=kCREu6I13eAAX-JAjsE&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d180147fb4e551d901bfabda96714e4b&amp;oe=6161CB97&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/127663599_394578008355462_9123182320191364112_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=b6r5XrOS8MEAX_IIJd5&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=cdbed320db01b33928f6fa9f322a3079&amp;oe=616643A2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1MDk5OTY1MDIyMTgzNDYzOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/127299017_448256546339109_1992090869225700348_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=vCFD_JspFGEAX_W3f1W&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3139210722244db455434226a6e62f29&amp;oe=61661DE8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ1MDYxMDE1Mzg0ODA5NTA1Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/127207707_1091519681304552_9101674147468208514_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=UeVFuwykNswAX9IMYUy&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4e81d2f26427e7c7b9b49f814ce12bae&amp;oe=6166348D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0OTkyOTg4Njg3MTUwMTYwNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/127014023_2695317817351168_394145576882257332_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=JF6-k4W12fAAX-Ef-W7&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1c0df3e1688456eef1200d79efdcac64&amp;oe=61667425&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0ODgzNjk3OTEzMzQ1NTU5OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/127075885_210448783783009_7266743104605750988_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=lGO3sQVBia0AX_Q1A6P&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3adcb2d8232e53d1327458e7d29e8611&amp;oe=6165E3ED&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0ODgzNjY2MzY3MTQyNjk1NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/126460813_133586638562641_2178150407472039523_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=nPgA7IZ-MYIAX9KRqXa&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=ee4b3b8b29fcf6f07f170f5c29c3ccfb&amp;oe=616650B4&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/126447892_728643231192676_4642561139757991220_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=dU8q2A8LPBUAX9-BfIg&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=74954d47f53e6c7db93a968e19a22d11&amp;oe=6165DC7F&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/126364953_200906378160287_4256467888661289816_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=GfxqTpC9bFQAX97YZha&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6fdea4e54747e0b9d4f1ed97a8a37bb4&amp;oe=6166303E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0NzQ0MjU0NzA0MTU4OTMzNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/125823436_832039607555042_6114213770734490937_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=2MWI2niIvBoAX-x8f5k&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=916acfc6b226e3300710ae34b1e214d8&amp;oe=61616E7A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/125457669_2906048919666480_2799069688010394385_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=H65UtXqRm5AAX9LSBS5&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=76b0e7f267d9d49d6cefe87f311e981e&amp;oe=6166D288&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/125216679_850627369042756_7454200563787057317_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=dNnIWwyrl7IAX_Ytgvp&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=798fd41881f0c3157fcf51f06cf779c2&amp;oe=61675263&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0Mzg0Mjg0ODAyODA1MTQzNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/125871104_3410534992332952_6730152503351214767_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=YoG6jA_0BzYAX-Aa1KX&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=b08d9c2cb4c8a6f2dafe135521cdffe1&amp;oe=6161C1BE&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/125817484_856813118401579_6274967606265599524_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=wgAZ2DDyEvkAX8GMbwO&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=13d80f49a4718d1cb1dba1c2157b2ef9&amp;oe=6165C4E4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0MzA2MjkxNDM1NTM5MzI0Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/125021876_407318370277688_4100402940864903591_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=DjqOUQlj5egAX_lQZ4F&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e9bb9eabf585b63c1c637bce50c7e2c9&amp;oe=61617019&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/124843097_3633551206725166_2724191789115311425_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=mxSuw_7Bsk0AX-djAHm&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6e90f49a3ceb4c03169c476c84f02f29&amp;oe=6166CF61&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0MTY0MDcyNTQ0MTg1ODU4Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/125204067_286999445940293_5423160738392041703_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=KRPQIK7e254AX_CJIA7&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f642639add35b606df2a8ff416ccf579&amp;oe=6161E4B7&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/125109951_1008474459620638_3980762963259090967_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=TcV36ZStAJwAX9Hjtsq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8437179e517e61e22ea790d392aabb60&amp;oe=6166D621&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0MDM0Mjk5NDQ2MzA5MzI4Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/124911278_373753470349241_3010914239316209078_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=G4khIZygwgEAX94kfuo&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=61b93d3e49c91666520a3c4dfee61681&amp;oe=616655BB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQ0MDExNjk2ODE3Njc1NjIwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/124378033_715924522359024_1475280017145399596_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=RpxeEKOJD2wAX_lnM3l&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c6ce0aea7d3a2c4cd47e19ae7e229426&amp;oe=6165CE83&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzOTUwNjM5NDg3OTU5NzgzMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/124907012_416056106235297_1542087759485306085_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=omm1XKGUMt0AX8-btLN&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1dc38a798ab0addb80f4a285c6b7cca4&amp;oe=61665D81&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzODc4OTQ1MzU1NDQ2OTYwMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123839002_180050440376219_4224607807369492272_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=r1sVCwYn_L0AX-Hsw4G&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c1ff87e6c59aa4cd88366a929ba5a37c&amp;oe=616727F3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzNzMwMTY3NDM4MzQ0MzQxOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123653357_691997504768923_4858503429426484340_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=pcbR6INAPbIAX8jgDn9&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5a2133038bc3a85392b44aa77e10b43c&amp;oe=61662AB3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzNzI0MDI1NjQzNDk4NTk2NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/124112594_2726103577706468_1167327461965867601_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=nog4UHkRWUcAX-u8Qd7&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1c96f190c757a68f2c4d6ed0473754fc&amp;oe=6165E489&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzNjczNTI4OTExMDM2ODI5MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123651722_366526248002068_7934222867148143661_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=6Zb-qFESVksAX-fQHti&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d0639abd9b84ca727ef950389273cadf&amp;oe=6161AD3F&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123394455_184128406531214_2925803623750797148_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=m7Zfz4aUUb4AX9v42Nq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8ed60011e377c47142296d096ce3b314&amp;oe=6165B485&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzNTI0ODQwNTQxNDcwODc5MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123393577_408581360529493_567492881397501344_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=VdZV7VstAC8AX-H1n5s&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1730b61a9c9f9f2a63e20952f9d2ee38&amp;oe=61660CAB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzNTE2MzMzOTM1MTM4MTQwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123337797_208145024006682_2553796062416741457_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=RVaHBMKhHdoAX9uLs6C&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5329f033fd76c3515b21c2939824dcbd&amp;oe=61670608&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzNDYwMDI4MzE4OTc5NTY5Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123497217_343579976940837_4117721348361918954_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=NpwrYThQfWsAX9JdWW2&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=aaa018997e5e2483f06c2424357010a8&amp;oe=61674CB1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzNDM0NDg5OTkyMTI5MjE5MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123144554_654391525244165_9144724256676482601_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=M9XbakwupfoAX9_V6K-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4283f9fea728077be669647dcd7327ce&amp;oe=6166DA2A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMzg3NDkyNzA3NTc0NTk4NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123491227_682954102356296_4571257488470371973_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=1UtesHYYLcMAX-86ub_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=df89cea36b6aa39b4ed2e77d728cd73e&amp;oe=6166EA49&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMzc5MTgxMjUyOTc3MTM0Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123173972_463568014615423_4975644497307390941_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=0PQxEFP4ftYAX8w6t87&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=069f154f5a244441367a5eaa857bd05c&amp;oe=6165B4DF&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMzYxMjg1ODU3MzI5ODEyNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123142313_291733945266703_6883544628258333507_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=gsZuuw1RWUAAX-YgOE5&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=18e3c861070d1c3ba73bb98af0c452c9&amp;oe=616721B4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMzA3NzIyNzkyNTMxNjYzOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123141098_1100524757034601_530768564274894367_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=gK8-SBu5rB4AX9UG-UL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=be511f63dfeab7cefde606b4dd729766&amp;oe=6165EE87&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMjkwNjMwODE1ODI1NzcwNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123186477_1310974629295069_6116912152425861780_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=niinoqhVsUUAX-zYpq-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d389168d709cf8c0754447f1c2ee3a2c&amp;oe=61663D0D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMjE3MjY5OTM0MDQ2Nzg0MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123114826_365020818272096_7878588923522916947_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=41B1LceLmfoAX8kKbXK&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6187c859b0fceb00203ed326ea183524&amp;oe=6166BDA0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMjA5NzE1MzY4NDE4MTQxMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123125524_1092421377857883_2323730561259952597_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=suXcVfH9TCYAX_5DeC9&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c2919ef72eea1431b789a849f08cebf2&amp;oe=61660683&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMTY1NDk3ODM2MjA5MDgzNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123139228_461426088151423_771931914900926401_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=9Mr0q852o6kAX8bfKx5&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=29c8ca5d2590678badb006895f48b5d4&amp;oe=6161DBFC&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123107691_163343712089284_4145268230721102465_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=xembh_q-zNIAX-3Qry_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3fa9f5c513b4f7429dca5ec6f4134261&amp;oe=6165C393&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMDgyNDA2NzkwNzQxNTU5OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123136965_178442317168518_5900340112576476749_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=2ZmUs3BCpqkAX_wAZ0j&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e2f270a6f9d9b38d4a9381080fd75b0f&amp;oe=61668797&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQzMDMzMTUwNTU5NzUzMTI2Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/123111977_168308448361675_543756755610789754_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=6fsdCSG402UAX-AOFOH&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=56f6155d5daa5956cd85b702d7d0d2db&amp;oe=61616F04&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122827513_374496190408741_4326548766033230198_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=bydg_z0SWj0AX8dp7FR&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d6da45feb2135baca41fe0092f347830&amp;oe=616716EC&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyOTI4NjQzNTk2MDIyMTk4OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122735634_373862997151407_2656468034693023345_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=foDl_bb0ifsAX_0NhzM&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=af425eec2f0c118d635e184a84ce51e2&amp;oe=6166CE8E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyODA2MDkyMjU4MzQyOTQwNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122232750_122493682960297_1006188422216667437_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=8ZcEg6rlsDIAX9yZ-Z-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=90d10528acccd1fe2092c3f59ed1eb2c&amp;oe=61671B9C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNzkyNjczMTA1MjkwNjgzMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122255627_653868245240424_6677624894864331715_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=hsdNaqGkevgAX9ludep&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f0b1bb553530d5026ca6a17c9a89bfab&amp;oe=61667FFD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNzE2Njk5Njc5NjIwNDk3NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122428061_647994759247306_7976026412189375975_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=Rr9C3FNV-doAX9izWzi&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=53da65adbada5e00a8cdc2406bcab53d&amp;oe=6166F324&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNzA0NjkxMzY5NjQyMTQ4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122104379_691042035128265_3222278737160675015_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=WH0xOG1a0aEAX8pRfdY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c3e9c305d64b29e834809efa2e45bad5&amp;oe=616577E3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNjYyNDQwODg5Njc3NjczNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122245228_359855925430656_5329288275954551453_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=CgBJwKOLPIUAX9L0XU-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ad6be6e2ad12d9a5d82ffa1ec6089a7f&amp;oe=616625CA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNjU2MDM0Mzc2Mzc1NzU1NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122253788_271954734078021_3277335783384992729_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=-Cspn7ivqhAAX867ooP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=640c3159e60bdfeead0f0c80e47081be&amp;oe=6165FEFD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNTgxMzYxNTkzNDYxODc5Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122487248_2293567660788455_9048164217449987582_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=VkQuDGVxTDIAX-_runW&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0358f2657d2e85b9f9d6f98692763e45&amp;oe=6165D0A3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNTc0OTE4MDY0NTc1OTMwMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122083438_188543492734211_1424237197390532459_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=RJV3JMEzeVYAX-DPb2P&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=16182f7b0695fc6e87fed207e2158e0b&amp;oe=61663354&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNTY0MzI0NDQ0NjgzODE4OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121964481_382591556103228_4748049131529876897_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=RLah_ZmpRmYAX-_x9UV&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9357bb1ae58a50ea96c9b10eed1a73cd&amp;oe=616644A0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNDM5Mzk1NTk4NTAxMjY0Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/122011551_1070497060050705_6633981804654632820_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=4YS6cl-Eu0EAX9jX_jL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e1dfa8a71c8e7b3f8bb0294f16f6504e&amp;oe=6166E8BB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyNDMyNDYxMDg5NDMwODkxMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121825713_216619383140175_4631803936474512373_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=NfOZHS3wQ-IAX8a_MNz&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=94890042517bd66bf9e3f62f144b1bb4&amp;oe=616615A2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyMzY4OTk5NTU5NDYwMjYwNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121974708_1655416057959076_4351309882191179907_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=fHb6pvJJRdwAX8KEqPX&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=4aae7fa9b78abd384cabe09c0fec5b75&amp;oe=61621375&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121642071_374771967052612_7498014350251522678_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=SDKAl1ZQBxUAX8C_Bh1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4e211d108d49ac7e771357bd7c4aafad&amp;oe=6165956D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyMjczMzQ5MDkyNTkxMDUwNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121620367_100662625151540_5469264422185279624_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=A8TapF7BdToAX-1rsuU&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c1ebb0032ad9a933af5ad613ef4dc35a&amp;oe=6166EFD8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyMTk5MTgwNTI5NjIwMzg3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121592213_3395228927228554_2478702820503921099_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=8c8SzVF1_FgAX-9ALPq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c8c4811248f2c084ccc42463a1094cad&amp;oe=6165E95F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyMTk1MDYwMDIyNzEzNzMxMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121813360_344971846757366_3466287721195065109_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=dzdkEuLumEcAX9S2Euk&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=22624c563df01437dc2495e92f499588&amp;oe=6166CEB2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyMTM1Mjg4NzIxMTE4NjE5Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121321188_183526446591929_7739688400782336087_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=BE4fpcfeUMIAX96nSp1&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=61b17a1d7152851d45e7800a8b92dd9d&amp;oe=61617B45&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121457673_381389379654804_5664411020689382456_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=VsfQXwIVdrUAX9NR4OV&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=5bc310c70dd5ac124a8f0bff84fe9387&amp;oe=6161C74A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121265219_273896607116060_9003771625474143209_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=nT4CFeLVl8gAX8pE0pp&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a844662589739966f2ce2d7fe2807f69&amp;oe=61674161&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQyMDExNDM1NzUzMzIxNjE1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121369474_176702510663639_38423897875594796_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=BQX0s3UxGd0AX8dmXVX&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d56777e2121c45aa7e170eb1d24d4791&amp;oe=61620436&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121342557_127934569064154_5960095761602496778_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=nCPTRKoef6kAX-oXqbE&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ef5cf1dc4ff81383bd005d0ba85d93c3&amp;oe=6165D505&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxOTk5NjQyMzQ4NTczMjQ5Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121262049_1564348270438758_3467831786213228516_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=PKU4mMwxOK8AX-gU5Xd&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=ae0c5b4095f88af1f451888759f6ab81&amp;oe=616191DD&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121238134_348545853037251_2073854942376421839_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=wbdmFgdN3vQAX_c3LTm&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d10a9e757d25bfd4be7c5fe6a646eec5&amp;oe=6166E672&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxOTEyMDYzMjYxMDg5MDQ4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121122755_1149955895401962_7773813077979491784_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=yIWtzrMNGg4AX_uOuMA&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=fe5d29775d4e501ef9c0d57749114a98&amp;oe=61657A46&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxNzg3NzM4NjUzODY1OTkzMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121191948_3343712442411832_6337212258598499704_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=t-7LSi3jy-0AX_0oB8t&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=01f8ae6cc833cb8f77c791c437392e7f&amp;oe=61619053&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121079149_184565886454938_2993717104852294479_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=KlSwhWMLVnIAX8C4skI&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2e4eb4930ddfacfac8a80ce6268e5c23&amp;oe=61665857&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxNzE3NzQyNDI5MzEyNzIyOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121009257_761547544406991_4051086926625928538_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=HmbpxZeMUW4AX_If5nH&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=adb56d63d57f3a4a03ed17b2d23d7034&amp;oe=61674868&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxNjg5NjM2MTgwMTA1MzA4MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120836366_717725075495112_5986780266533497317_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=GM_1Hu2_tq0AX8Jc5xw&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1d98a8225c5ae1d073d4f5035f3a198b&amp;oe=6165CC3C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxNjIyMzM4MDY0MDc1MTY4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/121022800_637207046868032_7829439277988868734_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=CXSCFYZpC0kAX8GxaZM&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7e5228fdfaccf091006584a51d5ab409&amp;oe=6161E304&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120847386_151426259997087_2377419852356699295_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=W1TybEJezwMAX_e2vcr&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=fe8185faf1a904fecf011db348c345f8&amp;oe=61665C32&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxNTQ4MTgxMzM5MDk0NDExOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120850689_258418545512614_1857584425519239232_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=YoM1Pa7yih0AX-iyg4f&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=70d47de71d5df65b9aba7f1b75a4cd76&amp;oe=61671BA0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxNDk0MjQzOTE1ODkwMTYyNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/120768567_813237412771754_4959715572195344022_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=ugNFjsST_goAX9iossH&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=c9bce7ded995c523aba8b094949f1dca&amp;oe=61663ADC&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120594665_767196310520400_2842418423763913244_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=Nm33cYUYUU4AX9SS56y&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=cd697c3a6ab05817ecc753e81dd1e8ff&amp;oe=61665B5A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxMjU1MDIxNjQ2MzMxMzA2NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120578262_175930357347986_2315186108295235994_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=7TIRmNzari0AX_2Q13-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=89babd335b27aec70df90c6a3f63459c&amp;oe=61662FE5&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxMTg5OTQ4OTg0Mzc3NzExMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120458133_788370881737580_8194135396720889950_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=sKD34a4FaIwAX_iMjZn&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=427460f3185bcc934f26326851571ecb&amp;oe=61619B16&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120341258_324159422215345_3466721439350241759_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=bM8zqSFkvcgAX_fs6UW&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=707ab6f926c9638442c353cc5424066f&amp;oe=61661E27&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxMDY0ODgwOTAzMjM0NjM1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120600217_333963354362609_9077328513142782194_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=KHUa-FwICnsAX8T0Ay1&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=4c006d58cbecf3441b4358577b17ce17&amp;oe=61617F5E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120539993_3603792306299226_1991528275202430135_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=9ZwWMjrQHswAX_QYFfT&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3e25b3578b43b8eb0dffb13d42a20456&amp;oe=61618CDD&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120538135_623969408292235_4034238063584490711_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=BmLS8GWSiSUAX9f2CXR&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6b887566d3ce803c2e552e40fceff454&amp;oe=6166A0C2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQxMDQ1MzgxODc1MDIyMTk5OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/120316097_656371951962371_665265771385074956_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=8AMKLyD-ob0AX9xaVKS&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=fec9a3c568bd3555702e6fdd1cff35d0&amp;oe=6165F8C6&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120485995_350756876127787_5008367258133108017_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=ge9M3vbvj28AX8lJQDQ&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=256a9044aafbefd5baa58200d66c33ef&amp;oe=6161D85B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120505663_246929013422566_6207933552507293783_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=wnmioLw9AOIAX-gCKtE&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3ba1361702cecbc010d021f717753cb3&amp;oe=616189EF&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120198935_332331671524831_268336974428765347_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=OaV0eJykk08AX_hppim&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7d9304572666fb44b7da1ed9ade6cd56&amp;oe=61620704&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120412572_129905195496491_3050191927128255099_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=MCCcN_nztb0AX8zZG_d&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=bb16b820f77b95be2c0652f1b0f2fa6d&amp;oe=6166A8A3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwOTE5Nzc0NDIzMTQ4NjkxMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120434391_639658656695040_4738156089145403788_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=r_rT2IH2aWQAX9qBf5p&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=899204802a81599e8e515b36e5f207bc&amp;oe=6165C424&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwOTA3MzA5MDY0ODg5Njc3Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/120221439_134396361707957_4479371802052453395_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=HLiLWMSWyWgAX8A6Xl3&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=1bdf6d20c45c8501601e70b57b0e9ea3&amp;oe=6165E4A2&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120454141_117569296609123_2227652292502793786_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=cDTaarlAQuYAX_3BiPz&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=47928f4e0614edef4372851db41ed1df&amp;oe=61658B85&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwODI3OTY1MDYyOTcwNDU4OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120259832_765405287574874_3136185340136200390_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=2p9_cFmmNYgAX9f4II1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1b23d3b66d413a6ebee3dab524219d39&amp;oe=6166779B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwNzY5MjMwNzk2MzA5ODg4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120159506_334749397843481_8720366735870195823_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=1wgn4v6cbmAAX9YU4kE&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2ec6369792f108c48801b20e0b8e5edf&amp;oe=61664A51&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwNjc3NzI3Mzk2MzYxMzU2Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120143220_111584394034564_4613420803263302233_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=FWskf73Fvm4AX_coKOP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b51e48a1f0b32701f32a47e84ff7c7f5&amp;oe=6165E952&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwNjI1OTA2MTI1MzUwMzM2Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120113689_369936131059191_44926483489138889_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=CYmudEKxaLwAX_NOJzw&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f679d5aa31a577a80e8d04d19af2c514&amp;oe=616587B3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwNTUwOTA2MDE2NDQyOTc2MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120069748_268200784232990_5008406043794920995_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=c-zMFO42AIwAX9oUUeH&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d42ff12cd737031d78bf47b593b9b7df&amp;oe=6161837D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119871567_340996703982630_8350794173991075899_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=LrZf-mnZq6cAX_xno4j&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a7a8ead0c721ed580b81c50ef3194beb&amp;oe=61673DD0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwMzQyNjI3ODAwMDkzODQyNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/119951019_834610484010909_3447034516308988410_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=eyuxu5M1oEcAX9LDU54&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f48015a08dda521a6c8b1c799ef263a1&amp;oe=61665525&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/120002311_205977350944533_782187722126194451_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=8_eD5-IsumUAX9aHIvy&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a45b6eca6cbec70a7ee7a1d78e81e724&amp;oe=6167469B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwMjcxMTQxMzUwMjMwNDU5Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119803643_122254006282262_3940860555646418698_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=HvrgUU_EgpoAX_wH_2y&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=182225462444a67754940b6a78e7b929&amp;oe=6161D91E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119895763_357587165299131_2377536535751749457_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=7mR-7e17ycAAX9Biag1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8dae653110f68b0e6878cc0f3ec7f9d3&amp;oe=6165F33E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwMjQ5ODkzNjY0Njg5MDQyMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119565232_329997228254055_7236990108505908553_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=yxAvl0Ak88cAX9TuQwB&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e07bccaefc7fa26b75b19b6f4f5e8baf&amp;oe=61668269&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjQwMTE3NzM4MDQ0NDIxMTQ4Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119439823_260994858334287_4114574317046444152_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=ifzamBu6d_sAX9iB-CE&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=96b2c7997aaca2846d34b63e64d630a4&amp;oe=6161E8E4&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119305070_678872299419873_5728618905078898491_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=VMvNPgmByp8AX8Y67xn&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=602dbf9be9946b53fa632c9584c6013f&amp;oe=61620A43&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119494473_167789844919805_1009694173779606809_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=kKObIOgtNiYAX9aT8b_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=401cc4e133731bb23e0add987477a794&amp;oe=61657FD9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5ODg2MjIyNzY0ODMzMTcxOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119465743_638338817068876_4355755669087638466_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=8ZE-slU_9dIAX9ObAnt&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4fdd7d1effb9ece3cc34b443d76e809c&amp;oe=61657A44&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5ODgyOTgzOTI0MTI3MDUxMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119211408_605884180105443_8958795333262565866_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=3VJsyITEBxsAX9qgb5R&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=86c4ea967f78f71e88a5229abb891e7f&amp;oe=6166BD8E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5ODMwMjUxOTUwNjE3OTEwNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119135680_777837679710574_6790542295359267071_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=HKIaH0rYYWgAX_UQdtq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=8c7b6b3dd6c025f60fe5e3414d1ca29a&amp;oe=616730C0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5NzM1OTU5MTM4MDE0MjU0Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119109542_3197381470360230_5477192988364368703_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=YosLG_y4qQgAX9SMvv_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4d06d3e5e282f5765747f57ca93628bd&amp;oe=6167138B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5NjY0NjUxNzkyNDg5NDI3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119115718_1047665019009219_1848347324776178406_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=U_zmIBRwPwEAX8qssjT&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ad04a94165310e701e4f5eb758125f96&amp;oe=616743D4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5NjIzNjUzMDIyMDEyMzIwMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/119063914_309517617007413_4026678808156800184_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=6VCWIRouXJoAX8-41UA&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=260c7aaab1113a488f0ab98de5abfd7b&amp;oe=616682A3&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119048106_175983987312542_5351421581920271526_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=8hV-35AOV8AAX9cYp5-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=14770a0efedfb39995a479d0c56aa2f6&amp;oe=6166588F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5NTg0Mjk5MjczNTI0OTA5NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119128667_327355181908588_1156659960323098975_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=fTEH14ycx5EAX92gHFO&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=cd019fa1d54ae8dab17384c697599fd7&amp;oe=6161A12B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119126531_656016558676591_6392553064560244648_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=aLS5PBJY-c8AX8cCRXY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f10c03b968c33697545f0db29b71b9d7&amp;oe=6166F4AB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5NTIzNzQ2NzA1NjIzNTExMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/119046564_629520924600006_6447173434723059815_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=iiUbalQ7P2kAX85H8ax&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=4b89bb64ad32fe798e4e586b0382a512&amp;oe=6161CEA6&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118958529_323961775522639_5351511368720631504_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=c7iej-rrP70AX9chE8U&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a1c6ff25c60519bed4548f855876be32&amp;oe=6167146D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5Mzk1ODMxNTY2OTc4MjEwMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118973777_1221454841550714_3968688759160536043_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=gjdmJ3GaJWYAX8UMlC-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6794887b99d4604ec7f954ffe0955033&amp;oe=61660A7F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MzgwNTY4MDEwNjgxMDgzMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118779011_1732858173537026_6718321096928429866_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=Hy6LSXiEbUYAX9f-mwt&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d65a8e844e482d60612fcd628d4cbe39&amp;oe=6161C714&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118780657_3806315502716366_2468471494819097493_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=1wkZ61P1N40AX_UG69Z&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f194b14266e91f8ec2cbbb94e54061eb&amp;oe=6167564E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MjUwNzAxMDQ5MzM1ODM4Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118798120_343483247007944_2755595247700066243_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=6MVS4Kk914oAX8bn0jq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ba28e734413a04868eef31f1de4651f6&amp;oe=6166983E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MjM0MzM3MTkwMzcyMTMwMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118801038_792536641287352_5960959741807461900_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=Lyk-z13YR9gAX-qk_9a&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=519c0c3df479aebe93a63c7f36c8cafd&amp;oe=6166D3A9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MTgwNzgxMzA4NzQ3MDIwMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118764775_607608816588080_5372127189877172645_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=10T1yMkoE5EAX9TVXZT&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4212e5c7e097f153c294da8504518110&amp;oe=6165CE30&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MTgwNDI4MzU0NzIxNTYyNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118782463_2642642052717309_7389984144739886951_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=U-_kmPmPSkgAX8nPPVq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=579ebb6c5676a37ca3e4de5c71c00164&amp;oe=6166386E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MTYyOTM1MTkzNjY0Njg1Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118767230_849640465569256_6951522829266804797_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=465W_fgP4m0AX-NpvzF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1005de53916b3b90c58585354b359af7&amp;oe=6166126E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MTU3MDAyNjQyNTc2NjU2Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118716185_1982863905176926_7304554205797040945_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=XAFbe08xcMEAX-I0VOp&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f0481d3155182a2246b6797884d839ec&amp;oe=616602C7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM5MDgxMDQwMTU2NDk4NjE2Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118862579_260014391644911_5086688233255981552_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=VByQcYR8cv8AX8gMkkC&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=32d0136e4d35517730b150d6eef686c8&amp;oe=61621A29&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118697334_2391703864463580_7747296539722692170_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=cBwsSMmxe4sAX8Wpti1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=cac4e683778c0f6fbc2ac33fa3618db2&amp;oe=61668AD4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4OTQzMjc5NDI0NDE2NTk4Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118648058_186483766401253_3792120805250861364_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=k9fOO9XTSUYAX_oVb-O&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e538267aed9f70fc9a0e42127effd489&amp;oe=6161B868&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118647988_623160165297975_6601479378030364542_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=OfIMaTpdX-0AX9Ptsg4&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f5a50529d8c6a71eacebd1f45cb948f8&amp;oe=6166437D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4ODc3MjU0MjE1MDQwMDg3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118715746_346426733409391_2529761870699640452_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=us8Tmo7mFSYAX8YLQcx&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=dba461d7702ebd95dffadfe44047f983&amp;oe=616209D7&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118607423_637113993894314_665819156534422724_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=5FQmpxfSbJsAX_m7NKf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=86314f5a9e459995a4a3f379105242d7&amp;oe=6166C23C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4ODIyMTE1Nzg1NDg5NTc1Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118686800_2768174910133975_6697516248639528249_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=AN775QVBtEAAX-lhjkj&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=cdc17d7ddac5d8fe7448fec8ba34e438&amp;oe=6161F35B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/118683008_316133179712631_2533085683294643300_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=JeQJ5ucaSbkAX-uammV&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d9a75915474503e8747d3763e1c2998d&amp;oe=6166F63B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118748116_966107373907969_4987207635413028997_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=XMhsF-eeTu8AX8iTMc5&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b19c34d8b025f4bb13216694c5b52b55&amp;oe=61665E78&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NzQyODk5NzY4NTM2NjYzOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118538217_336907517672824_8919052669359737705_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=LW5rASRIP0sAX-IhTmb&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9f4e52d6a4bb28bb90d99ce56dd91da9&amp;oe=6166A747&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NzIwOTg4NzI2MjY1NDUxNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118362224_179539716955387_9024203495912459936_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=ItaJITHFft4AX-BEuw6&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5f31d6aeda1e8d9840aafba3af880fdf&amp;oe=6166E2E6&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NjU4OTI4MzAwMTg0NDAyNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118397039_316800752935623_1387826831861369001_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=7R1MsDYYu8kAX9Z8MPa&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=23328f691f6a2fbb1b5b8de5976d1502&amp;oe=61661509&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NjQ5NzY0NDE1MzYyOTg5Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118560915_123803179147596_1285427773093993642_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=IQaqeVDWMPkAX9sDP4b&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=c69ada5f71f1c6c11610a14cd5541eb6&amp;oe=61620201&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118471096_1377076969148881_8909362358831874848_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=KpBIBoGBvZgAX-mC5rf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=21f8ebe13708f7e5b51809f8f199c432&amp;oe=61674053&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NTk3MjE1OTAyMzgyNTUxMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118307658_639188523381420_992479251917930833_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=F1ORsU2ltm8AX-uasbr&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e33e0d62057afb61fc1cda0104ecc81c&amp;oe=61617963&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118461785_682745962319971_8068002329576158413_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=WO1OLEXoAjQAX9ctAVi&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1409d6e49127a54bb73756fd5db56094&amp;oe=61670BAA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NTMxOTE5MjMxODgzODUwNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118343235_816138862258105_4682895711822001494_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=X_Gf1b1_qMcAX_wwe_W&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3bc442939ba8d7a42daaf05c55db340e&amp;oe=61617F46&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118238125_310296410186721_3205503580773184758_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=75cX4q-SDeUAX8xCsGO&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=932fad23b0a198c0641d1be508aff97f&amp;oe=61663E70&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NTE4MTEzMjI2NDQyODQ1NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118389795_955094574955371_4057540233209771957_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=VNDUzwjK-vkAX8dFgWd&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3a09450e0b01f4af68bea801d623128d&amp;oe=6161CC3C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118304879_349477916076080_5523999770888717866_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=AeuUHCF_4bUAX-2bKnk&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a8ec4f811983c935c97a5626f590b6f2&amp;oe=61668700&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NDY5NDU2MTczNjEwMzA4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118144231_2515749662048969_5085094616684209322_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=0Sywn-EHO-0AX-MqApf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d6979e39764b9534173791438b4304f4&amp;oe=616629E2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NDUzMzYzNzYwNzc1NjA3MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118193729_117751469865266_7625186196840662340_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=T2dENv0dDsQAX_yQyC7&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=0ca917dea93e14252b2e5af0ddadd746&amp;oe=6161FCD0&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118271851_330734024780350_4147654355095912901_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=vpVZbYIVpcAAX8ej7PF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=901ff473db9a3ccaeb739eb916d3e220&amp;oe=61669ED5&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4NDQxMDcwNTE1ODEyNjI2Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118173050_689118208366968_7543691608412351476_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=Mds7hAzLsisAX-4EnMd&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7a3fbec4337f54c5b5cb12f4c3da11c9&amp;oe=6166E8EA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MzcwODk4MDExMzYyODUzMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118121781_771534910270993_9058202953119156251_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=dZpWMi9yehsAX9a47pK&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=987f66f80647a667c85a45ac5021c37d&amp;oe=6165ACEA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MzEzNjc3Nzk3ODYxNDE4Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117753406_2638549756398252_7520804529006763601_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=Fo_oGDOp98cAX8ppGqP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ddf83a6919288060aa5ab07981276ecf&amp;oe=6165B19A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MjkwNDk1NTIxNDYyNjk0Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117604408_1463506810509848_3480269030824755239_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=DVt-H8ri3OkAX88uWWr&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=653d53865e430aea8b48700ce3ca19e8&amp;oe=6165A71C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MjE1MzUwMDk2Njk4NzA5NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117995074_762689941223229_8858548517611604163_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=rYMHfprCrtQAX-uIPzr&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b36258ae9129e50b1206fdd918a6794d&amp;oe=6166AE16&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MTY4NTU5NzQxMzY5MTcxNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118207832_1733715933442803_5012079482636874829_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=fBWqB-cjwtkAX8jckpl&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7c686c4dc4a4e295f572e7fca1c1ad7d&amp;oe=61670F1C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MTM3NTY1MjUyNjA1NDA1Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118205854_306979617223661_1732489720320868931_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=i39vIwYzQz8AX9gTN46&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9f3f3af1348c540748b26b5f324e7096&amp;oe=6166D163&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MDc4OTk4NTE4MjE1OTY4OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118286826_757324798375873_220005107264083876_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=PeVSxCrWX4IAX_3XhUX&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4218adeef4314427d5a4aa980858e5f8&amp;oe=616604F9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MDYyOTY0ODc1OTcxNDE5OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117933888_3380160568670725_5816734215442694282_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=-StJi5XgCocAX8U5WNJ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=10e8b75a246a9e046e00e3abb143e4b9&amp;oe=61670F78&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM4MDEyNzQwMTY1MTEzMDA3Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/117898788_298680831387175_6692891099007232307_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=ileJHECypfIAX_x38WD&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=a8813c047917391b9e3d6e1b7cb07d3a&amp;oe=6165AE4A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/118061607_755337451866784_3464808455217547429_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=3AwitC8eRP4AX__d5pt&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e55e8b9daca2da76f9c29cc3bc4d0357&amp;oe=6166EF3D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3OTkxNTAxNDkzMTEzNzk3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117888578_321317479313233_7798637988774377284_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=gQRIUEqkT9IAX_V1SkO&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=583895280b766e448707bb95c0fa6514&amp;oe=61620AAE&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117938215_318219626195352_1829148232793328634_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=jLVVYHpiBL0AX_oKAwF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=77e98f977964e98c4a26defd3b6d56d9&amp;oe=6165E915&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3OTIxMzI3NTIwNjc0NTgxNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/117795889_909788046179003_5009918298968939910_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=51w_7hCSemoAX87Db22&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d5c7713d0bcf5e94862c983eac69c743&amp;oe=6166CACE&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117810000_2372831883026540_4594358012948836415_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=44TfmY1l5VMAX9ALDg1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f7f744bb6a0de7123dcaac6976060421&amp;oe=61658B08&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3ODUzOTE4Njc3Mzg1MDkxNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117647689_309417396779916_3657032823955759320_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=V7UtjXYiC7QAX8WK_L6&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6d9c9ab63124f8fcad0c3d2137c0493e&amp;oe=61672C2C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3ODA2MzQ4Njg0MjYzODkwMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117811591_361207378202833_2504010328114320535_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=_tPwgGhRSu4AX8dqVRP&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e4b3999f944aadc8acb47e4f12895839&amp;oe=6167116F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NzgwMzI4OTQ5NDYxNDI3Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/117701754_195479791932392_3054895213485148500_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=Cqw0x_50B1wAX-McMI-&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=8acd196c679b94fbae15a2ca370cd454&amp;oe=61656B78&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117734563_2670222269898748_7862625470589267291_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=UjaLvz4VN2QAX_UPwuV&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a453d5faaf96b5aefb7f4310b2f0efc2&amp;oe=61672BAD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NzA0MDM1NzQzMzQxMDY4Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117729388_150613306680186_4180734572833790912_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=Sb0LrnzPZSsAX-DTcqX&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3a85370d769123110802e2562832864b&amp;oe=6166BCE4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NzA0MDI0Nzk2MjAzODczNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117669599_941912169608013_5795343066855745502_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=urZVxU4dKPkAX89EBo9&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=23d023116f14d4938f9cd30984db6b99&amp;oe=61659E06&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NTcyMzgwMzAzOTIwNDg1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117420066_310361140206763_5671431667527426375_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=J_BfKrgiB9QAX-q-51D&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=14e89bf9f88f03d8a1c896d3b23f0ab3&amp;oe=6165F21B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NTY2NDA1ODU3NTk1NDE3Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117356593_804348183723282_4507658950858304416_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=Vj8d_2DbJHsAX8SvvTZ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=15281d4334852e9a22b001618eeb8664&amp;oe=6165F859&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NTE3OTk3ODMzMTgxNzU0Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/117316089_187756609395146_8512839550041213052_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=bQAGSlBbqaoAX8du55n&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=1404ad67a59364f826fe39f6c7c25f28&amp;oe=61665A9A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117524955_1155326611519804_5852459844746126926_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=wsrkIlP3b5gAX89CYvb&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=309a8f18d4a046bf6bdfa2ef4e9d36d4&amp;oe=61672992&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NDk1MTg2Njk5ODQyNDM1OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117229747_324460345599859_3564325348792437353_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=SDrLYYJqEHUAX-D-_YJ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=bfaca816168d8c09b20c22810727a0ff&amp;oe=61659A58&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3NDQwNTY3NTAxNzM1NzQ0OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117756666_2638595653027441_392688204828633994_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=ffLK6tE6VIcAX8ysVQz&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=8448ef5dbf36e3f0d9a67a2547cdae0c&amp;oe=61618E9B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117531313_924461284718767_5221403607808478158_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=PuruEvwNJYEAX9vYkPo&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9c1b1314242d40bd5ffd6dec79ce98d6&amp;oe=61621D40&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/117400584_951420081987783_7167777425697017364_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=CAsm3aOycXwAX-3LWyt&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f2e3bbc2b54147d14803e6449a172fde&amp;oe=6167598E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117377694_964891563932349_5797495877943478034_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=vqLu4FwW9kwAX-alukm&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=cd7e3dd15e96e3caf42da3163e8b774b&amp;oe=6165881C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3MjY5NjU1MDk5MDQyMDAwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117109819_603957133638702_5728903930731081388_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=wk-tfDWubTUAX9Ei_3X&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=dcb257cfdbff8828e8eba5006fe396f0&amp;oe=61669C2F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3MjEzMTkzNjU2OTQ1Mjc0MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117287037_1185901608443845_6749918639903365289_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=aGbzP09VG2UAX_e04c3&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=be1a711e23f3159193e87ddf0d3867b7&amp;oe=61620C07&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117258177_322476265544539_5420268914010314532_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=Wka7j6JX0z4AX9bDKMl&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9193993648543523831183fcab2e44d9&amp;oe=6166EF1E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM3MjAxMDE4NTkwNjgxMjQ1OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116794894_342451803815023_7957463268534508139_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=4Zu2-TFLnxkAX9h27Rz&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=51928363d94ecc449b0632318fd86084&amp;oe=6166FB4F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2OTg3NTM1MDk1NDQzMDY2Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116875419_186537252864273_1387715472320672918_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=FcKAC9rTY7AAX_qJJOG&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1c67150bc22841a2e66fe90635c4c680&amp;oe=6165871D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2OTM5NjIzMDYyNTUxMTA4OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/117198412_297231214936196_4095115207351025098_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=Jmgvf35AOooAX-D1Y6K&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=342877b5ee48664537245b9defb2587f&amp;oe=61618C7E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116904653_1447566705434693_3453153904088592582_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=XBZlOI6yAaIAX9gfeY6&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ba2f8d369cccee2c5fb808f26d84a67e&amp;oe=616741CF&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2OTE1NjE1ODg5ODY3NjI1OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116699200_2576506239327332_4150599174777329133_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=rt9EytcN2n4AX-O5u6f&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=38c7cd80f99e55f55507ba919563611b&amp;oe=6165A024&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2ODU5MDQyOTQyMTk2NTAxOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116587862_576507143022100_2835449324311976454_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=tMGUzBAQW3kAX9-vYis&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5c82b13880bea6ca5f3af920c6932c73&amp;oe=61661101&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2Nzg3ODY4Mzc4MjU2NTYyOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116429311_1559707834188784_6900156839832210152_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=LdWMclNfPusAX970yoY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=35f04b89ef91da73b99d1d5948c52093&amp;oe=6165EDAC&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2Njg5NjY0NDA4MjE2MzQwMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116963984_337780604050298_8937949591006863064_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=qudMcIAAdZsAX_yJFhm&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=860e90579d8db0bc58c3d9e937c40bdd&amp;oe=6161C649&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116639402_314292689928990_3166075462771606584_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=_yj0cEB4n1wAX9mZoAf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1a75f3cd9e1cfb4c5211b2c291adc2c3&amp;oe=6166722A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2NjE3MTg2MDkzNTUzNTY4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116794898_2575643389352155_6493520036846460781_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=t6X9AV2iBRQAX9zoCnB&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5025962e7073cad1be9bb346ca690eb5&amp;oe=6166D639&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2NTY4NjE5MDU4MDI0NTg2NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116290536_100348205103625_8059806044326003205_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=j_bwJaXdp7IAX-53OBS&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7084e90ce93c1f9c444375d6e8cf33e0&amp;oe=6161A1C0&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116212560_208599540590057_9111295200787830468_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=jTNNwtpdYpMAX-BmfaJ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4408bbb92d312e1659b54b00c3083ac2&amp;oe=61656BBB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2NTQ3NzU1MDMzMDA4NzM2Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116130658_302556964337961_257908186216635500_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=xQ9nVc4MFKcAX94sHbK&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=2e8551c77031baac8c53af5005c68307&amp;oe=6161D3E0&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116046296_649955935879595_5726896187186824635_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=cO7Cx7S9Q7gAX-CWC5v&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=78294756ae198084d564b42b8177e0ad&amp;oe=61661050&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2NDI3MDE1MTY4MjQyNTM1MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116278052_1493574420826791_483553523900662272_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=ZpG6SnYYTj4AX--l6rg&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=fb7074f6d68fba30c38984e698bd694a&amp;oe=6165DC3A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2NDE0MzgxODI2NDQ1MDk1NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116215949_916902482163065_6867263560967681525_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=Z2fTLP65BwAAX8Uw__Z&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6adda55e77641974749c97a9a17ade6c&amp;oe=6161ECBB&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/115995706_904188103420744_6435250899513450314_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=FETUaygVnkYAX_y2JSM&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=b883b6c48bcb0767d155aca7f6385625&amp;oe=616193FA&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/115767405_159717542425005_6208654869060054732_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=rZ0wAXerX_kAX-LkSSv&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=78971fe7657114492fce207d2c00ea5c&amp;oe=61674947&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2MjY5OTQ2NDQwMDMwNzkyMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116022981_280912339839935_4253093376594218479_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=vzAuCHDpaAIAX8PPiRf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=64f638d266a98019687623fc58943a7f&amp;oe=616708B1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2MTk3MjcyNDE1Nzg0ODg0OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/116017861_180662620148740_2925526509768456843_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=XBK1NeKu8noAX_FK5zh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=277693581b87f605ecab9eb0de4033d8&amp;oe=6165C0F6&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2MTExMDk4OTMwOTc0NDU2MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/111758901_922672581551945_9112477149157886246_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=eF3DZdIxXwYAX-NGbEQ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=26ddcdb8f63994973df72962b657acf8&amp;oe=616719F3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM2MDQ4NzM1MDgzMTA5NTg1Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/115686688_111707307164566_2283608274726607270_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=A7ABZceXdhsAX9t46Rh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9b984b813aacc9ab8ed2452873a96312&amp;oe=6166DA44&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1OTg4MjQ1NDUyNDE4NzUzMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/115547384_326649945406301_8406720319356777008_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=jE4dX6FsB0UAX98audx&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=28b7cd4c66a401e1512ad06203350e01&amp;oe=6166581A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1OTczMzEzMDg1OTI5NTE4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/115735757_2348104272161404_324928739405530123_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=PaPdKBIAGvIAX-gfwhu&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=53214a8c53d507f5e71868a99c6ffb8f&amp;oe=61659427&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/110199420_3379988082046785_4307656399305038143_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=3ybBLHt1gI8AX-VoSem&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f0ab4342e50449a2717c9c3f96462f27&amp;oe=61664B04&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1OTI0NDg3NTUzNzczMDQ3Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/115805821_3583786001635691_7506307674383445870_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=MZzap6zxnxUAX8u-Hdx&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=220c1cec52ae0ee7051a7c90e5e70e98&amp;oe=6165D173&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1OTEwNTUzNjYzOTk1OTA2Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/110046864_184175439783086_8751530228123885679_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=H4RNcUTrXnUAX8MtMZm&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=0834e4082ca3cd7c795534b127c450fb&amp;oe=6161D7AC&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/109751624_186589729483276_4316274748395057054_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=Xs4ocnkKSt0AX_PxXiY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=14f5e9c9d1bb38beb7ff71d6308c7ef7&amp;oe=616710E8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1NjczMDk2NDQzOTQ3NzQ5NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/109839310_284668012620042_6234005231473267540_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=TheV8cBA-yMAX8NtnBJ&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=11e1c8324931b4b0231ded25eb496208&amp;oe=61675F1D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/109037466_161379442120724_5210008858510429772_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=oNIz_cmTTIkAX8531K3&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=be8812d6953528f1c1e28f1f755c34f7&amp;oe=6162076F&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/107900914_907156163096480_1204997083902924795_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=b7U48cEMU40AX8Oj0Bh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=24d5cd600d7d27a8b82278f51276894f&amp;oe=6166926F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1NTU0NzY2ODk0NTc0ODkxMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/109789993_636538560596952_4012718228866030871_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=PeUlVv3UWzkAX_oCEvP&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=8ce3be2d39d49dd7ff0f5717bf974316&amp;oe=61657B6A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/109971492_177735750412700_8596157655238129325_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=OxPv2zSYlrwAX9kHKbv&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=a985900e70166537b66cbf5990b2347c&amp;oe=6161AEF8&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/109563963_318488339309708_6998900852915629916_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=m_WvH2b0Sm4AX9GOS0w&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=34fac3baeaeabb0666ae0ed33e140c49&amp;oe=6166EAAE&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1Mzk5NjcyOTM2MjUxNzMwNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/107871053_273524730622087_119729161431346560_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=lPD1vGs7gK4AX-DCfr8&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b8127599e0cd6ed9044f18696b42ad29&amp;oe=61658DC9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM1Mzg5Njg2MDk3MDk1NTM2Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/109220471_2471291929827629_6260888939847086985_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=N8rzP3YTaw0AX8FxQbv&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3694564e572b03a88a5c63d894f43848&amp;oe=61667F7B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/108758081_579225739459813_7667954152548399250_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=4vXi50QdYW4AX9JN7V0&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=58f61c48b66f633a412c5230a6e72433&amp;oe=6166AFFF&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/106903971_911970255881609_1977506284210457161_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=Td1hIRnQpBoAX_cdW4s&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=41924a29b078a260d9b3e9e77f728da7&amp;oe=61674091&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106722762_572687343397292_5316625920335547667_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=qPQBrsp-Xm0AX92rSp_&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d448d275474306314a7aeb665bfea93e&amp;oe=61619D82&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106817338_199510551456923_3411177174815914914_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=ajjLNkr8DaQAX8eZOU8&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=ea4b9e847f75cf406ecf546fb0e49b3b&amp;oe=61617B14&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/107451275_148626513472721_6887692077651722753_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=6__vb2RU1bIAX9WiOpV&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c97932dc685b9a7972163d546a4dd43a&amp;oe=616643A1&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM0OTgyMzMyNTUxMjM4NTQyMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/107085010_228599364792197_6836369915175270682_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=aY_mcaI9Lv4AX_5eMXY&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3a95e89e01c2dec51ab3070fb580b575&amp;oe=61666453&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106700792_1248328458875063_960614613796100731_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=4o2om5y_FLEAX_02JJ4&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=9ea459e12f060aef36614b7bd12ca3c8&amp;oe=6161C6BE&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/102811579_160376492258413_3118510434676367023_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=HoDRHvCmt9sAX-CDpzS&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=992042b17b822c7307577f97ce3a9537&amp;oe=61673B1D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106486210_371427170506604_7688135174079339280_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=SDqcrqIN6m4AX9suIkL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=569323a60e6c1b703e92a3ee8898a76b&amp;oe=6165BCF2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM0ODI2NjkyNDkyNzEyNjIzMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/107532003_605164973455340_2365211146738566402_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=j8RVO5JVwHAAX_RSz-0&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b392ebe5a79700536bc0e64d59b2af70&amp;oe=61658F49&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM0NzU5ODE3Nzc0ODk4MTcyNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/106190753_1344285082445862_4280819570451851937_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=Cy-dD9OaRBwAX8sbWCI&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e3a1cc8cfe4471f42ca527a7bd1551b2&amp;oe=6165F3B8&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106364537_172124714307737_7611476521959693542_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=6oHy04-TNSkAX9LXgRo&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=db68245c823a6207e7a665f872d013b3&amp;oe=6162092D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106111822_314869386339872_2382719142363072857_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=UYdrBhUNCxgAX-sDBus&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=24a21c20a50e206525accdf035945ac3&amp;oe=61660E98&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM0NDc3MzkyOTc2MjM0NzY5Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106703189_180536486797116_2791678001750915617_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=FFMCiWyMFB0AX_sd1tZ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=41eefd8dc211d39c2c3b1ab58a2bf32d&amp;oe=61671B45&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM0MzExNzI1MDQ0MDI2ODQ3Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/105951983_3117529864968629_7590892777797981583_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=1hocmEioGhgAX9ZCEFA&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=49e6bfa1554d712413f422ba56388ddd&amp;oe=6161BE41&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106550301_783810952023488_6614126892798944565_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=DFwfeOSJZokAX8hHpm7&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0a7bb75a4ee563370d892ad5e384aca1&amp;oe=61673ED7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM0MTUzNTg5Njc1NjU4NDkzNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106375228_1778816328908689_2057602240802457673_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=7Mxnn9J2yn8AX_kpB4W&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=83fce1409aeb0966db60c0941475aaf3&amp;oe=6165A224&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjM0MDg1OTA3ODA2OTYxNzkxNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/71730461_368193944153026_1518952971761655984_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=B3o7RRQlq3EAX9noU3F&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7835ec990f1da56deb73a2bbd58a23c5&amp;oe=6161C582&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104455459_349893702663373_4648460561268699180_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=RUj5crwDCWgAX9TPYGy&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c62e78411e7ddecc4be5997bd0308feb&amp;oe=616718ED&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzODc2MjE4NzEzMTQ3NjAxOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/106265246_123092336102675_2220729898367502110_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=bUJjhTFo0LoAX8q2IRp&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d7d317a421cababd949abd3c9e59c442&amp;oe=6167165C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzNzg5Njc4ODg0NDI0ODI3NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104734740_504162506967518_4846858235853997621_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=dOZT8iq-htgAX8DqkWl&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=087ba2e2166700325291eccb884573ff&amp;oe=616694B7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzNzQ5MzUwNDY3NzYzODMzNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104435861_264447438196781_3104337971166147871_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=5ZUS2j0rxZYAX9LgQL8&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4080f7377b87a90108ded314129bd258&amp;oe=61661B8A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzNjY1MjIyMzc5NzU2MTI5NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104786896_154399209489220_2073711847344385843_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=ufFF6gnnD8AAX_9lzyi&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ad059b537af1f4d92d7af520fac0b596&amp;oe=61656C27&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzNjYyMzE2Njc1ODU4NDI4Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104434654_571271163576655_5108512382372418435_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=TAXvnwqdkfAAX8QeJNp&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=437518e84095991823a0f22579c9cea6&amp;oe=6166A45C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzNTc1NDUyMjEyMTkyMzE0OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104484002_2722016484787211_6677578522270567315_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=ZlWdxdn8xG8AX_NNqu1&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d65d0cd1e3de63262bea45d6cc42c822&amp;oe=616599EB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzNTQwMTgzMDQ4MDQ2OTEwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/104338167_580280246255622_1493820081905416420_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=bABXslhlJokAX87pb4k&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=fa782827a696fa16b7130797053349bf&amp;oe=616610B3&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104360211_676797929838368_9048845987155415967_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=tAmRuVrnSMoAX_keEuW&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d4cda010b6f7660d01f54b56cd7f9611&amp;oe=6161E4C0&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104615595_633237617541479_7430332603768597019_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=IgY9CgUgr3QAX8ZWyUY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=4e9ecf23cb2ab44ebb23bc95ed715e1d&amp;oe=61656B8A&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzNDQ3NDc0MTk4NDIwNzk4NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/104082355_100774684999307_7013168157470791733_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=XJ4LHz_MHVsAX_zuNri&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=7756bd115d9f22a385efe9521455c7eb&amp;oe=616628CA&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/104163749_592914781647708_2210831123931387853_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=J5RbzGofdIoAX8YMlRY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=89536671b7bd5962440aa98787276db5&amp;oe=6166AB29&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzMjQwNjE4Nzk0Nzg0MzY2OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/103964030_908850572923280_6009228333075377167_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=axn70ZZVYCAAX8jRH8v&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3dbfc87d13223036de594a8ce720fbc1&amp;oe=6161CD1C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/80304951_3161234773933002_7082365066485716001_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=_tKgLxCRmSIAX9Sqa7U&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=99e5b3a6067975438de16211909f49b6&amp;oe=616674D3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMzMDczNzQ3NTY4ODMxOTk1MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/103520318_118541939610763_2265786014315402133_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=WdQxoQ5bM8wAX_v4Iqa&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=062a3481cf79d5de50dbcbb270427087&amp;oe=6165B24D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMyOTMxMTg3MDIzNzA3MTE0OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/103097749_249170693047361_182157505303602569_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=32A6ZOliZTUAX9Ws_kW&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=75ab6c6623d8ab1eb1a5018e1b30168a&amp;oe=61664596&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/102560475_2691171954540428_3490992125632271538_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=xCMq5TfKZGgAX8D2PMu&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=38fa175b5c5f25050777292a2b031a08&amp;oe=61619B62&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/101813647_2331234493837230_4301168020248536807_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=wQTXqGsgUFsAX8ad92C&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=14bdfab35df5bd5cd01bee150af0db4d&amp;oe=61672E70&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMyNjQ2MzkzNjM2OTg1MTIyNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/101658715_116539053177383_5053467435458741068_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=qP3GeNJORvIAX-Pp0pb&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=184c30fcd274cfff30aa644bbec4a8b7&amp;oe=61670EE4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMyMzYzOTkxOTg1MDIxNTMzMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/101488361_1839257626215379_1314926849955763101_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=Rmq-cwQJneIAX-41V5q&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b3df3494f190d9883fa891806c8e2af1&amp;oe=6166E245&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMyMjg4NjUwOTI3MDA4NjIwOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/100949726_2602122103387312_3170316649092630065_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=cpLIl1P21-8AX9kDqck&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=afafdd287253a0496af76cdb893058ab&amp;oe=616207A5&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/101406825_192305215273457_994747257324520585_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=cH2Qo1Yf85kAX_CybJY&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e60c2b38d4034c3653e4110bf1c01133&amp;oe=6165CCAF&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMxOTE3NzAwMzA0MjMyMzMxNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/100927815_1013306455753144_6475368759982262911_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=7uXTK4bR8NMAX_SXqOk&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6c4781f75a95a3f81f76596431cd609a&amp;oe=616191C1&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/100945606_369480807343313_7374036934631591459_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=0qiNrbXhX5sAX_7MVvJ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0fc9e1c2108099180e7c071d25ab2d9f&amp;oe=616620C4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMxODQzODgzMjU0MTA0MzM0NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/100968936_276804563471855_203232638538747285_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=tl342UgBIvAAX_07xy2&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d4a518add9ff19c5d6f279cd46854922&amp;oe=6161F1FC&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/100086560_1401684950037686_7868614665496523219_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=z3-1-goR-hoAX_QLJhp&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=a882e70d4c5ba87e2ce8dbc3813f6536&amp;oe=61618F15&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/99425945_1121850621494795_8387329886774169401_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=U4sopSJnJNYAX9esClZ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7409079db06823c311f994c95d83e435&amp;oe=616727EA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMxNDMzNjQyOTg1OTI5MTQ1Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/98268581_273813894002414_6097865487487025182_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=4m5Ysd79bAkAX_qAbFs&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=062034bb2b7f7aff176d18308de8d6c2&amp;oe=6161A930&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/98173442_248156366264452_226243676739072945_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=-zfyF5aRRH8AX9PQx9H&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=ef3407f1a2f13dcb7c734cea39640154&amp;oe=616186AB&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97538885_140881314197842_4665063448176979860_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=prZnTNR_KKoAX_mHjeq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=101957edcdf074002ae3342f218cfbf7&amp;oe=61661A06&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMxMjYzOTk4NzQ3ODMwNDI2NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97258184_3213952751972852_7361475518583469437_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=8E8bCo2D_mUAX9SlfYv&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=5b76ba05d06e347e348a95d483aea92e&amp;oe=61618BE9&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97173765_1784864978321853_5624270915123394220_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=eEL6fUujpYsAX9uj0nh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e60859a00acdd0e377542dca77302ccf&amp;oe=6166C139&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMxMTEzMTczMTg5MTIzODQ3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97138235_2650787621810627_7586394900391869382_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=s2pb2DgvFMAAX8DehSH&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=506f7be197476989effee2ac514742cc&amp;oe=61669899&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMxMDM0MTAyMjM0NzAyMTA3NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97943774_864630404040098_3142137662945268907_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=81xQzWgykSoAX_S4Hsn&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9384ffb2b216d8cb61a9c1f727989cdb&amp;oe=6166CAED&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwOTIyNTY2Njc2MTAyMTM4NA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97062572_107813457488372_100094867976369684_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=zgzIOJ6lRVUAX9K2BCe&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=51b8757efd9ba04cc04cb192d7093263&amp;oe=616185FF&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97088004_542749146632496_3945864450603776007_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=8xThTPYVKlkAX9HCfOq&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=559f54b93cec58544407fd579bc22d07&amp;oe=6165846C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwODk2OTAwMjI4MzYyNjY3OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97139051_133777588283712_5064465161028373883_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=OFzwuvpmcJ8AX9FjP6K&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=083edf451b9e32f3bfd4a78d272ec8b2&amp;oe=61662E00&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwODUwODA2NDE5NTc1MDc2OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/98412848_545597359678080_4473698259902714927_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=dUSTj64PSX4AX-lD7UA&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=ff77b66d7453c261a7e333e960fdac21&amp;oe=6161AE05&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97544768_1296051027263322_8997417316715142727_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=braGz6kkDTUAX9FEekF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2b0bdf7373fb9913eb91d7d9e24208b2&amp;oe=6165788B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwNzc5ODA2MzI5NDQ1MzQ3Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97146059_194266575364403_4402111287398573972_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=FihOLr6UtxkAX-icI9I&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=08645e7f0f16c5dd498a25f2bf29fa18&amp;oe=6161ABE9&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97158674_172547550759496_2713440285901757658_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=LvHSM4Sm47cAX8tgCmV&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3e37df551694bc005a588cfda7d3c7ff&amp;oe=6161BCB1&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96572978_235400394225712_3381606452800488269_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=NlP8aGVYat0AX-smlsb&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=51d8f267e26f45093aefa3b05cb3fda3&amp;oe=6166E27F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwNzA0ODg4MTMxMTAxMDI4OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/97340967_1080702488974273_6676389791228302453_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=qGfcXAIGoxcAX9XggjU&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9190dde675085d8554539f3539a34a9d&amp;oe=6166C3E7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwNjk4NTg3NDMyNTUwMTkwNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96413356_110126643873245_4633388901907781924_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=5MJ58kTen-0AX_6CRLg&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b2bd1018a9002fd6e1bc75c68de1db5b&amp;oe=61662200&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwNjkwMjUzMDcxOTk3MTU3MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96721389_273158337052184_3629246833835625759_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=pijrTfctjZIAX8qRxQR&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d8895183a967b0763f65be4ca92e88be&amp;oe=6161C547&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96037349_586715988892082_736961616352647815_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=KDpg-IPY4j4AX__k4h9&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=64ebb29af6af98ee22628f8773ab3bfe&amp;oe=6161B411&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96674100_2759752807480476_8162961709185399518_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=xtVflziD8U0AX-_3q39&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ec650b8da42532770abe04e0aac2e5e1&amp;oe=6166E4B3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwNTM5NzE4NTAwNjU4Njc3Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96001333_1124032601310687_6425045354883937551_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=Cvryp8LHAVYAX__0z4z&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=53ec90b72bc59c33b8f31b983d11c0e5&amp;oe=6161EE22&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95823875_146850883561191_6256371613604494287_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=w9GfYeXocmgAX-GVPja&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c4679eb6cb7d2c7607eace9d8493fc96&amp;oe=616708F8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwNDE1MzU3NTg1MDI5Njg0Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96742255_840113059829596_8273990330030466901_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=mWNIJj1Q9jQAX_wKM_m&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=fd038ec6726f3954f2b1891f8341274f&amp;oe=61657445&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwNDA0OTY1NDQwMjMwOTMxMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96106454_223639678933544_6741671737653360585_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=HtbNy3tuK70AX9AWo7R&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d5aed0f265ebe3342b8566812f717a0f&amp;oe=6161E0B5&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95822273_1154937568199981_2707344429867722606_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=dmkrM4XKZwEAX-Y7NKx&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c932973c5465750ebd7031bdca62d195&amp;oe=6165EC65&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwMzQyMzEwNTQ4NzQ0MjcyNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95674478_632649673983130_6803589748775592081_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=pDNy0Hdz4rQAX9pSyiN&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=532a299fcb80b992df552f2c534224cd&amp;oe=616178CF&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96414673_161267925356522_4913654498060774185_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=pNLYlOtoRYgAX9l4Le_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=1957d8ba41031256d27a18927c08d12b&amp;oe=6166F3EE&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwMjczNTAwMDgyNTg2OTg4MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95829675_351155102509987_1865027484231508465_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=82_y9nR_eDEAX9rUvmF&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=bd2a64f5aed410e13f1249cf4c0d4b52&amp;oe=61619A45&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/96584563_173579477435397_9196619297445755658_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=cNwWHPJfSSYAX-PUDPr&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=4281418c9e3d492547f31b64fb8470c6&amp;oe=6161ADDB&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95928802_648579639030547_1292104843667981595_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=icyvQQxHNzMAX-FkcOK&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e6449b66bbc8321961fee491905ce137&amp;oe=6166AEA2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjMwMjAwNTc1MjU3NDAyNjIzNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95510521_1404777306391120_2034437777520590140_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=x0EuGX5wPf8AX9VVq8K&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6c71a34a85bd7168a8bc834e85e88dd6&amp;oe=61617DD0&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95392888_1738064182998227_8327280777538706130_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=1yhGy27NP40AX87C7yT&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=974d509216f8af7b02c3a7ad755e6a7a&amp;oe=6161953F&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95441308_256483545544541_4993091782573294999_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=mxqcgPgcVrEAX8WaxlP&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=aa3fb131208acc7b884315b7cd9b4de7&amp;oe=61619429&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95176112_221676009134645_4223196867430531886_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=oUWriT4pj2gAX8BaM5U&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f7736a9751b05bec0be60933b5842c43&amp;oe=61618810&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95311903_274351356932532_8407193794267508782_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=J9_8lfsWiaYAX9HQZ7s&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=cb1ab61d5ce82a36b8f0e55443e93f3d&amp;oe=616578A2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5OTA4NzYxNTA5MjUwMDgwMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95047344_526576838029409_7876144925308229964_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=v6ImXNqI40UAX_6-I1w&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=155784ceeb9080998a2d4166e36b26c9&amp;oe=61619AED&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95385490_2481733748594944_3148683372850129202_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=gx6c8ZnTlJwAX9vkDNU&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=40f8fbd9c7a6cf7eba4aca565672c025&amp;oe=616600EE&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5ODI1NDczNDk1MDQ4MDE0NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95032567_650553805521608_1307018460185195575_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=zxTQKhZd4IYAX-rCgmc&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=17d31aa3775e2aec6318cc72f1b89331&amp;oe=6166EAF8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5NzY1MTAzNTY4OTU1MTA5MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94891521_2533122110286559_324945241492728772_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=YbtF8qxd9MIAX_qvG5U&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6d7e8dddff9cde8af2928e0fa8ebdf9f&amp;oe=6161B607&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95302086_679966802547645_181962588004986002_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=422yVvNcmwEAX9DdiNz&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=d05cdc23c93b4a3781e8f121b47b6b8a&amp;oe=6161CA61&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94893784_109663013906866_7844614772340062782_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=tJNWjSdE0AgAX-bdwFj&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=676abb540639db36dcb1443c10607640&amp;oe=6166A979&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5NzM1ODA0MDAyNTIyNjI3NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94610395_138577441055185_3219291024172300692_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=7szrf59HgIUAX-8jqMW&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=91bf849cb696e92e1e40b72633ad470b&amp;oe=61619531&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/95102237_108618777356734_739099832795407356_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=Eg3LJtBaxkMAX9naNPw&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=bc614359aaa98016d87ab61f0509a6cf&amp;oe=6165DA92&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92829230_2653273461574512_2268599369592325458_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=ljJyaVrzE9YAX_VcLL_&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=bf41e1ae09e7b1e9d1561ffe930edcd6&amp;oe=6161A317&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/94461894_131995325079389_1232381382757535395_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=UhKxEMZiqrsAX_pilL6&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=0b1e43040bc84a7b2810fc0fd890ff6f&amp;oe=61675F4E&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94558451_544114066515020_7985523668556194089_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=JMnY2gzexxgAX81CSQp&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=489a6250558afc31495378843524fb91&amp;oe=6166E939&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5NTk5MDc1MTkzMzc0NjU4MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94752797_855256058281666_3645079895612282670_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=XvkwGyCYO84AX-Zk23q&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=60e72b6d5147dfaf99c17e630a692bd5&amp;oe=61668149&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5NDc1MDY1NjgzMjM5NTQ4Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94487672_601323580468789_7007790783782750005_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=nOuJv940wKgAX_Q6e36&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=51e17dd798f921c4bb4ab483a57e8c5e&amp;oe=6166633E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5NDU3OTc0NzI5OTQ2MTE3Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/94260285_705639900241850_6259897145116588163_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=r_OGnk8F8k0AX_Ex7-I&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=afd4af8eeb70e1614235fffe27962148&amp;oe=616699C3&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/95041428_519173878755837_3314031161950423975_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=A01wp9H7yqwAX-K1DQN&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6e9da0ccbebac79cff0679ef281d9173&amp;oe=6166127D&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5NDAwNDE3MzM1NTA2NTM2NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94169871_233188501251992_4808275303359753375_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=fsn45KZmCmoAX-9oPX-&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=671a235ae316f28fe6a663307c3ca0a5&amp;oe=61664BBD&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5MzkyNTAxMDE0NTEwNjQ4OA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94193334_1232532833616939_6557814724872320793_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=JKFYKgC-Ed8AX-C3FSt&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=76f7bfdccc503cc41b8950bd34442946&amp;oe=6165F22B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5MzI4MDQ1NTc3MTAzMTk1Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94708448_259781188749135_237426987570741880_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=eNG2XFlEHBcAX-UJBPl&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=048a264ed535b3182b6576be781e9690&amp;oe=6161FA64&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/94236246_3454286997931557_5304996966288265585_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=SuMMlbN_wLgAX_UrNdc&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=71736184f5b2bfcb65c9f1688b0fc059&amp;oe=616674B1&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94065426_933222623773051_8386769870114505380_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=fCIQ-GahSeoAX826Fvu&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=11b79cc58635409bdc911e3ff0d99111&amp;oe=61621ED7&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93219069_164603611688886_827511944098803315_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=Yvp1qO6HgIAAX_TQfuc&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3b05583a79e4fd746f32ca01aeddbf47&amp;oe=6165A9C3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5MjU3NDc0NDczNjk4MjU0MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/93840260_662964024517158_4439769492806586264_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=agFM7ghhjccAX-QA8wG&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e613539fbd352a5dc73a9ac4d7871cd3&amp;oe=6161B667&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/93809871_1154160444931702_4691909183175331703_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=dkZXu4VO9iUAX-3H7xQ&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=c668171665280d6a6e8e241c0b735d12&amp;oe=6165A6AE&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93795355_128897845421090_2207460085195895870_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=Cptlq151_dsAX_fWOo9&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=34f3490dd1d55d9c8e59dac1e6f0088b&amp;oe=6161B325&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94122525_1277836899082592_3867527447458757486_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=pLrE-MeX5xEAX9j2O5H&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=abc83b40b2fbf22c934d97a3c7fe26fa&amp;oe=61668DC9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5MTg3NTYxMzU4NDY0MTQ3Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93703428_1836553116482043_8940000231006845896_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=6xQzxa1s6mUAX--csBL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6c9d85d4abdd65fde5a76e870b599b4f&amp;oe=616680FE&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI5MTYzNDY4MjAxNjg0NzI4Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93705351_595545141085983_793249543302145328_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=mHhkBAxDzkEAX8kJntM&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=bac31dc6142376b54c2703d0f85a0595&amp;oe=6161E79B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93494296_2630489607198867_6866642934530854405_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=SakEQ4dM-esAX8ShOiD&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=f301042fc03d2a7a06b8bb2e70c4e848&amp;oe=6161B4C6&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93412077_642300769945407_3655854265654026392_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=re00QIVRkjoAX8HRL-r&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f337447488fb0ce324ae23d66f33354c&amp;oe=6167303E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4ODk4ODgwNTAyODczMjM5OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93350609_132227771704564_3943535884885244654_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=IIraz3m-yZkAX_b2WaE&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e7b685facb9003a9392d39878b383f5e&amp;oe=6161A104&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/94129231_1113974058957060_2417285163427705999_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=PcFn4PWXalUAX_oAjVf&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3aa4a4c95c300be891aa5f717f106a20&amp;oe=6167023D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92947781_606856936576454_3302029544815285887_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=axQFb2qeyD4AX96N7K6&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0416903b1ee1649a134cabb4e06f8ef5&amp;oe=6166A640&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4ODE4ODA1MTc1MzgwNTg1Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/94030176_1847275882069063_4080669359771741401_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=KrLaekoLhd0AX9x10XW&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=2b5f8216f4db7a098db89d52aee594e1&amp;oe=61660365&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4NzU2ODk1MDQ3MDUxODE5OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93430744_789982878192651_1777613725248006131_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=XVZpE0ZaYBoAX_sFcoB&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9f2ee3fa37e1394606099bcd351686d0&amp;oe=6166D3E3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4Njc1MDIwOTkzMTM4MDEwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93160523_182030526128979_1088156118098444039_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=S7MTN-xJW6EAX9MYoCn&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e1c0ba21737b1f4690f7121cf483b882&amp;oe=6161833B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93236429_615587308996946_8185866315399765592_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=VuWSETSc3OMAX8x_1Sg&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=756c6c939041aef733b2c958f53244a5&amp;oe=616571CA&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4NjY1MTMxNjY1Nzk5NjczMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92725913_675149736583819_5862687715615298486_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=he5A9_ZeSrQAX81J6i6&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=702690c1b6085f9fc49a5cdf9e5948d4&amp;oe=6161DDD1&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92540861_834836950373055_5666122680918744083_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=q85znsIOiK8AX-cbWBW&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=eab425997a6d559e6d366d8a24f30529&amp;oe=61664717&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4NTg5NDQ3NTUzMTUwMzUwOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/92827347_2727263060881945_7903604130899345188_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=-QIIWKZdANIAX_YCJ9I&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6a0a83206f2cd071c90f0c80cbbfe2d9&amp;oe=61659048&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92743168_297056687942791_8437295437798579451_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=ep6qf_CmE3kAX9H6JVR&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=c63e139426acffcab04f07881d484f2e&amp;oe=6162080C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/p1080x1080/92569667_731975347340241_6045493783982978478_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=iUeajcDjankAX_ccuyd&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=574c20b0e275ca7c82770ea9ec244d81&amp;oe=6166B547&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92689136_2505981599663089_6113980371315366629_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=UWvzE__lOPEAX-bMv8z&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=afa28da143d01e648f5ff0bf055a268f&amp;oe=6161B45B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92683151_2605158949708891_4404380436659335697_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=n85c2epYeiwAX8_1daF&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=18656207c5a3cf4c6f87a40cd78cb705&amp;oe=616620B3&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4MzEzNTI1OTU5OTMyMDQzNw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/93247184_212439020065378_4733868343154130425_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=yVhMYlrzMq4AX-5uR6j&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6274685c9b263c0bd1aac32fbd77c953&amp;oe=61617B03&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92024224_926655567752218_7467128674491430236_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=thJzd-jD180AX8B5Oyh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7afbcdcf20f4cca8c69b1dd9433e9611&amp;oe=61671555&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4Mjg5NTE1MTMxNDkwNTQ3MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92385240_236917911019510_8203031513925568908_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=Vx32VXq_nf4AX-DNNPf&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=dc591d56db7f111ddb1f806c079622b4&amp;oe=6161B5F8&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92843824_691684318258219_7759160729534951277_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=_U_n0WnBxLAAX_F2oR8&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=008649b8b40c89d6f16f523ddee50f64&amp;oe=6161A488&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92406828_1503256249838146_1055061264380106716_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=JYFKbVw66ogAX8kPshs&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=82da99f80a24cba5180e9f5df66669d1&amp;oe=61663A59&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4MjE2MDcxNjc0NzU1NjY3OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92098508_261584941636630_944527388870188344_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=3JpDW0z0ll8AX_LfwPA&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c816e26e9bb3f5fc00746ddc85f2b7c8&amp;oe=61661233&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4MTc4MTY4ODgzNjMxOTY5Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92300923_664046264419339_1228991850875621212_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=qlGbtmCEMRYAX_JvjQu&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=80bdbd59f403758f38c81d2b22a595ef&amp;oe=61620E7F&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92384185_298307011154459_7578737933247524831_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=N54-GPcb73wAX_pJo34&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d282b1058ba4ec636efdb41993442c55&amp;oe=61670AD4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4MTQ5NDEyNjcxNjU0MDk1Mw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92376781_571828153435802_7652981501710815656_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=Arox1ioWn0MAX-6JNKL&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=01728af4dfd9eb3f43b75e4843ce295b&amp;oe=61671FCB&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI4MTAxNzk3NDUyMDYyMzA5MQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/92393011_142394323959509_3167145574779229396_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=o240x5PkSmEAX_94MNC&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=6dd3b4c396ea49df40a9fd2642f823b5&amp;oe=6161D32B&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91534872_2558823394391438_6124643699240397114_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=ORl__EJOFhgAX90dIrS&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=bff65308c4ed76d8a92e51b15c0b3191&amp;oe=61659AC9&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI3OTkzNDQ2ODkyNzQ2ODcxMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91851025_905790936534355_111384332026318135_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=aE4tx0BGYocAX8XbKNr&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=357f43ac3ebb7c78ff09c22719569482&amp;oe=6161C976&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91662776_528991961354167_7867332506343387615_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=luUnp2Ak9oEAX_cvwxa&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=58df1b46162384aea532e15a00f7877c&amp;oe=61619D3C&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91332164_222183165518626_682556380452472082_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=siDMlamxtuwAX-QF1vR&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=757efa079bfdd5824d4305c767d12379&amp;oe=6161FE63&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91792461_638811156679978_1553854281731543257_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=mMn3L8eLWvIAX_RLwKR&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3a158944be39b6c995fde4a6cd09cf44&amp;oe=61617A0D&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91288502_1600394986792684_5724653197297003311_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=104&amp;_nc_ohc=gMUdG4UtDrAAX8HiNHx&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=5f5f4843d8bf55cf6fb022231646f386&amp;oe=616178B7&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91564206_141293800758414_7972305356348460101_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=AcXy9n_HQCsAX-hEmJy&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b9377a7235e37f6a423e9c5e108259c8&amp;oe=61665F87&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI3NzMwMzQ3ODYxNDU4Njk0MA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91953809_696531894485282_4000826975756325000_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=sN-Z89pddbgAX-PACVG&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=3a7cafb3455fa3003d37df14e198e289&amp;oe=61620241&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91607503_512645736291959_2152068775139611445_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=mn1ArMVP97kAX8EHV5X&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=55c0a731a611a33a1d1d92997f0e8b60&amp;oe=6166161B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI3NjYwMzc4ODQ3NzM2NTEwOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/91309257_1825888494219891_4318413271910644205_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=t5n3baNjo6cAX9y97e_&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e00ea7ac69e0f74e08c48042c5ad9026&amp;oe=61667B01&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI3MjcwMDA2OTg1OTg1NDczOA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/90332741_2552662988386446_8800986307922408528_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=106&amp;_nc_ohc=970I2_OHoSQAX_0ljHM&amp;tn=yqd88YnCcPL5hd0N&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=348355060b7aaaa0238f8988286abf22&amp;oe=61620B25&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/90352637_149113749673157_2423743792256571978_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=pNvOnGipFWAAX--wIUf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=094c4aae1797e6b3480e57b937302af9&amp;oe=61675303&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI2NjQ2NTQ2NjAzMzA3MzE2Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/89457346_501377637195206_5322682999068861961_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=-KxI3gV2wusAX-sL1wu&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e8c351791d83412a7d4c2a4df1a8f1fc&amp;oe=616646B8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI2NDc1ODkxMTgxNDI3MTA0Nw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/89596930_2583035101952750_748541344004302723_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=wfxobbW3KUAAX9LgcS7&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=0e01a2856573066c50d94109c007fa73&amp;oe=6165E3E4&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI2MDY1Njc3MDg0MTQ4NTM4Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/88261040_3490579867682384_1573857253617734396_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=UqLVblgpSRoAX-IN-Oa&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=bffa5d3ddc53ebc04547c1fd43d42f58&amp;oe=6166BA94&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI1ODE5MzU4MzY1MTA4MjcyNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/88467578_131904298344681_8160133205403576979_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=T0HG5zV_hN8AX_Yj6hD&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f0660bb1fbfaa719d5f6dae1eba73ab9&amp;oe=61662BBF&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI1NzUyMjQ0NTc0NDc5OTQ0Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/87432730_3007968665900374_8028091931932231224_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=k40q7WieW8oAX84qjMA&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=6913c869091273fd39e3682d5ec7b091&amp;oe=6166C53F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI1NDAzNDU1NTQ1ODkzODkxMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/84039660_132068764999391_1266238540021019917_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=111&amp;_nc_ohc=fN0pEcnlKPsAX9AXI_g&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=7414b6a00939f07ba10f7dfc4b6c1f85&amp;oe=6166F9F8&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI1MjY1MDU0NjExOTAzNjkyNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/84089354_134247321238118_8894305525319390458_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=YfeiTEY7RdoAX9gwawJ&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=bb2e3ad681ef17d3c4b2ea788ba59d9d&amp;oe=61675B2B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI1MTkzODU1MjA2OTA3NDU3Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/84148883_465512687670624_1321113778816518819_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=KSY-B4tqoI0AX8tdd_B&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=ccefd7c27aaba132e91015d9e571a0f0&amp;oe=616611C7&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI0Mzc2NDAxNTQ5ODQ3OTAxMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/85075149_1122459104757091_5897236210663429014_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=f27natmsCGUAX9yjV51&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e9661f20d94f12859786cfca7ed46a8e&amp;oe=61658775&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjI0MzE2MTY4MTUwMDI4NDkyMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/81164414_110788557023314_8612241601150804834_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=NNz5Lb9U4vYAX9bHkCX&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=3f8dfc2f231d5ab1bfe508c67bdd7972&amp;oe=61658A8B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIyODY5NzIxMjUzNTUyMzIwMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/80491452_528662637750554_4023933161028931227_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=w3OEhM-u5FIAX9GcXs6&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=642f849d5e17b9a5b3cae45b3b58277d&amp;oe=61663F47&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIyMzcyNTQyNzcxNzE1OTE4OQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/82646789_544540116149180_362905380233831839_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=xl_1WVPduSoAX9pDOHC&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=363640dd96f5357476c2cbc3bff8d189&amp;oe=61658DA0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIyMjE4OTc5NjI2ODY5MzgwMQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/81934485_1062612897416618_1706140216729633224_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=UGubYr_TnAEAX9Pa2Oh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b99b09f2b16d0cecf96273fd6224ab10&amp;oe=6166979C&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIyMDY0MTAzMTkxNzIyNDMyMw%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/83090933_214371329590526_6166465376183715743_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=G98-_G0WMGEAX9hY9Mh&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a742b5da817c385eda52ffa98b7fb324&amp;oe=6166567F&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIxOTEwMDA3NTYzMDY5MTM3Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/80685717_446632386222847_3477369075585597471_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=-f825kzddogAX9yZhVg&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=768a6cab0e457326624c33c2fc9f9b66&amp;oe=616623A2&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIxNzgzNTY5NjA5NjQ1NDc2Ng%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/81358872_762015810977469_7181794304859794333_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=WSNGjqLewEoAX8WBT0I&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=c20fa305e8677dcc37ef618f9e004eed&amp;oe=61661E55&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIxNTAwNTYzNjI2NDA1NDQxNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/81971908_827829611010557_2960914445817991879_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=d4lI7OIVvI4AX-AUZJo&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=e402a41821746c62d3814931070ccb21&amp;oe=6161B96A&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/79938985_185420262604087_7797539503417753980_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=omphSs6Tt14AX9OYDhs&amp;edm=APU89FABAAAA&amp;ccb=7-4&amp;oh=97ecb7200f1d6e2f1dbc5aeb1aac2bbd&amp;oe=6166DC92&amp;_nc_sid=86f79a</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/74647516_2408129686070772_8304617626894606570_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=W6BsR6y11AIAX8p-ogT&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=e058393c9fde13d5723bdc54e4ffd1c0&amp;oe=6166231B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjIwMTg5Nzc2MDM1MTkyNTA0NQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/77405459_2896120580440305_390032622006839114_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=Uo7kJd8t1ooAX8WbJbb&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=a34511fa44c8325678280f2778dee6ce&amp;oe=6167102B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE5NjgzNjA2MjcxNjkwMDAxNg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/75388579_2233629426939588_511341714520861449_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=100&amp;_nc_ohc=uim_h6ZE2gEAX_g83OK&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=5517d427d7bfe58f729b8ff181bc227b&amp;oe=6165DA82&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE5NTkzMjk2NjY3MjY0NTczNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/71084178_185653425910641_6161406673030187886_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=vpcqd_c-YPgAX8AhK0H&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=51a5ee52b2e6ec7f7c54928efb9e55ae&amp;oe=6166F607&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE5MjQxOTk3ODcyMDE0MTkyOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/75252768_1668347559956841_9025171519284227746_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=109&amp;_nc_ohc=zxnGvcOx0tEAX99Ajbf&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=d78481ed3281b4ca25ea61243f6b9431&amp;oe=61661D82&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE5MTkyNDc5MzkxMzQzNjMzOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/72858448_489491144988289_3787523782408753824_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=XEoWC5PIP-wAX-cw-tm&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=f1d8ee403800fb4093346e4415b52aed&amp;oe=616739CF&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE5MTU3NDgxODc2MzUxODYxNQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/75288559_536408093869850_727434497185362142_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=102&amp;_nc_ohc=iq5yUll6aagAX8xlKgO&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=82ab8ec440547b437f799f7d3713d84b&amp;oe=61661C83&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE5MDMzMjY0NTE2NjUwMjMzMg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/69848135_110602426908365_4239126670870887992_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=Y-srRBM_X-gAX_QjZ0b&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=afd999c16518add19238dd7a2a2b9322&amp;oe=61675182&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE4MjM4MDgzMDQ3MzY5MjUwNA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/73455968_805593443203063_8963918030991224673_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=H19_ZQSlik0AX_6ctAN&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=b9aad14c9b765357a6040e956b3ff2ad&amp;oe=6166CBC0&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE3ODAwMzY1MjQ5NTc1ODM3Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/73455955_1001686216876112_4277182105850509236_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=108&amp;_nc_ohc=gyXV8I_FiXYAX9TCvCw&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=203d287bc4b7bf40b086cbb49fafc0fd&amp;oe=6166C79B&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE3NzI2NDg3MDUyMzg4OTQ2Mg%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/72485735_172527833935006_797780845037255605_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=110&amp;_nc_ohc=SWq8VolDII4AX8JzM7f&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=9d58dc351332c7bd1770a9ada3bd0830&amp;oe=6165D29E&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE3NjQxNjgzNzcyMDQ0OTkwOQ%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/71534594_536353950259407_8634811918979046174_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=103&amp;_nc_ohc=LmRqnT6mfKsAX8oFjbS&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=73d87319a94044b8398b4949d6bea557&amp;oe=6165CA34&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE2OTgxNzk2NTkzODE4MDYxMA%3D%3D.2-ccb7-4</t>
+  </si>
+  <si>
+    <t>https://instagram.fftw1-1.fna.fbcdn.net/v/t51.2885-15/e35/72392273_411564949762003_5061993379316883089_n.jpg?_nc_ht=instagram.fftw1-1.fna.fbcdn.net&amp;_nc_cat=107&amp;_nc_ohc=QhbqvkiawU8AX_Br5m5&amp;edm=ALQROFkBAAAA&amp;ccb=7-4&amp;oh=18d9763b3176894bd1500f79541b9a85&amp;oe=61661B94&amp;_nc_sid=30a2ef&amp;ig_cache_key=MjE2NzcwMzI3NjU4MDA1NTM4OA%3D%3D.2-ccb7-4</t>
   </si>
 </sst>
 </file>
@@ -792,7 +3999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -819,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -827,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -835,7 +4042,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -843,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -851,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -859,7 +4066,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -867,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -875,7 +4082,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -883,7 +4090,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -891,7 +4098,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -899,7 +4106,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -907,7 +4114,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -915,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -923,7 +4130,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -931,7 +4138,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -939,7 +4146,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -947,7 +4154,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -955,7 +4162,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -963,7 +4170,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -971,7 +4178,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -979,7 +4186,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -987,7 +4194,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -995,7 +4202,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1003,7 +4210,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1011,7 +4218,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1019,7 +4226,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1027,7 +4234,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1035,7 +4242,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1043,7 +4250,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1051,7 +4258,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1059,7 +4266,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1067,7 +4274,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1075,7 +4282,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1083,7 +4290,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1091,7 +4298,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1099,7 +4306,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>105</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1107,7 +4314,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1115,7 +4322,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1123,7 +4330,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1131,7 +4338,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1139,7 +4346,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1147,7 +4354,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1155,7 +4362,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1163,7 +4370,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1171,7 +4378,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1179,7 +4386,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1187,7 +4394,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>648</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1195,7 +4402,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1203,7 +4410,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1211,7 +4418,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1219,7 +4426,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1227,7 +4434,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1235,7 +4442,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1243,7 +4450,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1251,7 +4458,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1259,7 +4466,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1267,7 +4474,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1275,7 +4482,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1283,7 +4490,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1291,7 +4498,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1299,7 +4506,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1307,7 +4514,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1315,7 +4522,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1323,7 +4530,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1331,7 +4538,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1339,7 +4546,4303 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>217</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>258</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>262</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>263</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>264</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>265</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>266</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>258</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>267</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>268</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>269</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>271</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>272</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>275</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>276</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>277</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>278</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>279</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>280</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>281</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>282</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>283</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>284</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>285</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>287</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>289</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>290</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>291</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>292</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>293</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>294</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>295</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>296</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>297</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>298</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>299</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>300</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>301</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>302</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>303</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>304</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>305</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>306</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>307</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>308</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>309</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>310</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>311</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>312</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>313</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>314</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>315</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>316</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>317</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>318</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>319</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>320</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>321</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>322</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>323</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>324</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>325</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>326</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>327</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>328</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>329</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>330</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>331</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>332</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>333</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>334</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>335</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>336</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>337</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>338</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>339</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>340</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>341</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>342</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>343</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>344</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>345</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>346</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>347</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>348</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>349</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>350</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>351</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>352</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>353</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>354</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>355</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>356</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>357</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>358</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>359</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>360</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>361</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>362</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>363</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>364</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>365</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>366</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>367</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>368</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>369</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>370</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>371</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>372</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>373</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>374</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>375</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>376</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>377</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>378</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>379</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>380</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>381</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>382</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>383</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>384</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>385</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>386</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>387</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>388</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>389</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>390</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>391</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>392</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>393</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>394</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>395</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>396</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>397</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>398</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>399</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>400</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>401</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>402</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>403</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>404</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>405</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>406</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>407</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>408</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>409</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>410</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>411</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>412</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>413</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>414</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>415</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>416</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>417</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>418</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>419</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>420</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>421</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>422</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>423</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>424</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>425</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>426</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>427</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>428</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>429</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>430</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>431</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>432</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>433</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>434</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>435</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>436</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>437</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>438</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>439</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>440</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>441</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>442</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>443</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>444</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>445</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>446</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>447</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>448</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>449</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>450</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>451</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>452</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>453</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>454</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>455</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>456</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>457</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>458</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>459</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>460</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>461</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>462</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>463</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>464</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>465</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>466</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>467</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>468</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>469</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>470</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>471</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>472</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>473</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>474</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>475</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>476</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>477</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>478</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>479</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>480</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>481</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>482</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>483</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>484</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>485</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>486</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>487</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>488</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>489</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>490</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>491</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>492</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>493</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>494</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>495</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>496</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>497</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>498</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>499</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>500</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>501</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>502</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>503</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>504</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>505</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>506</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>507</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>508</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>509</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>510</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>511</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>512</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>513</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>514</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>515</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>516</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>517</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>518</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>519</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>520</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>521</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>522</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>523</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>524</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>525</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>526</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>527</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>528</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>529</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>530</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>531</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>532</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>533</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>534</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>535</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>155</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>536</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>537</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>538</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>539</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>540</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>541</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>542</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>543</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>544</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>545</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>546</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>547</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>548</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>549</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>550</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>551</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>552</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>553</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>554</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>555</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>556</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>557</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>558</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>559</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>560</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>561</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>562</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>563</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>564</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>565</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>566</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>567</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>568</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>569</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>570</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>571</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>572</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>573</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>574</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>575</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>576</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>577</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>578</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>579</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>580</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>581</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>582</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>583</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>584</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>585</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>586</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>587</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>588</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>589</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>590</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>591</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>592</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>593</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>594</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>595</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>596</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>597</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>598</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>599</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>600</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -1411,6 +8914,543 @@
     <hyperlink ref="B66" r:id="rId65"/>
     <hyperlink ref="B67" r:id="rId66"/>
     <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B89" r:id="rId88"/>
+    <hyperlink ref="B90" r:id="rId89"/>
+    <hyperlink ref="B91" r:id="rId90"/>
+    <hyperlink ref="B92" r:id="rId91"/>
+    <hyperlink ref="B93" r:id="rId92"/>
+    <hyperlink ref="B94" r:id="rId93"/>
+    <hyperlink ref="B95" r:id="rId94"/>
+    <hyperlink ref="B96" r:id="rId95"/>
+    <hyperlink ref="B97" r:id="rId96"/>
+    <hyperlink ref="B98" r:id="rId97"/>
+    <hyperlink ref="B99" r:id="rId98"/>
+    <hyperlink ref="B100" r:id="rId99"/>
+    <hyperlink ref="B101" r:id="rId100"/>
+    <hyperlink ref="B102" r:id="rId101"/>
+    <hyperlink ref="B103" r:id="rId102"/>
+    <hyperlink ref="B104" r:id="rId103"/>
+    <hyperlink ref="B105" r:id="rId104"/>
+    <hyperlink ref="B106" r:id="rId105"/>
+    <hyperlink ref="B107" r:id="rId106"/>
+    <hyperlink ref="B108" r:id="rId107"/>
+    <hyperlink ref="B109" r:id="rId108"/>
+    <hyperlink ref="B110" r:id="rId109"/>
+    <hyperlink ref="B111" r:id="rId110"/>
+    <hyperlink ref="B112" r:id="rId111"/>
+    <hyperlink ref="B113" r:id="rId112"/>
+    <hyperlink ref="B114" r:id="rId113"/>
+    <hyperlink ref="B115" r:id="rId114"/>
+    <hyperlink ref="B116" r:id="rId115"/>
+    <hyperlink ref="B117" r:id="rId116"/>
+    <hyperlink ref="B118" r:id="rId117"/>
+    <hyperlink ref="B119" r:id="rId118"/>
+    <hyperlink ref="B120" r:id="rId119"/>
+    <hyperlink ref="B121" r:id="rId120"/>
+    <hyperlink ref="B122" r:id="rId121"/>
+    <hyperlink ref="B123" r:id="rId122"/>
+    <hyperlink ref="B124" r:id="rId123"/>
+    <hyperlink ref="B125" r:id="rId124"/>
+    <hyperlink ref="B126" r:id="rId125"/>
+    <hyperlink ref="B127" r:id="rId126"/>
+    <hyperlink ref="B128" r:id="rId127"/>
+    <hyperlink ref="B129" r:id="rId128"/>
+    <hyperlink ref="B130" r:id="rId129"/>
+    <hyperlink ref="B131" r:id="rId130"/>
+    <hyperlink ref="B132" r:id="rId131"/>
+    <hyperlink ref="B133" r:id="rId132"/>
+    <hyperlink ref="B134" r:id="rId133"/>
+    <hyperlink ref="B135" r:id="rId134"/>
+    <hyperlink ref="B136" r:id="rId135"/>
+    <hyperlink ref="B137" r:id="rId136"/>
+    <hyperlink ref="B138" r:id="rId137"/>
+    <hyperlink ref="B139" r:id="rId138"/>
+    <hyperlink ref="B140" r:id="rId139"/>
+    <hyperlink ref="B141" r:id="rId140"/>
+    <hyperlink ref="B142" r:id="rId141"/>
+    <hyperlink ref="B143" r:id="rId142"/>
+    <hyperlink ref="B144" r:id="rId143"/>
+    <hyperlink ref="B145" r:id="rId144"/>
+    <hyperlink ref="B146" r:id="rId145"/>
+    <hyperlink ref="B147" r:id="rId146"/>
+    <hyperlink ref="B148" r:id="rId147"/>
+    <hyperlink ref="B149" r:id="rId148"/>
+    <hyperlink ref="B150" r:id="rId149"/>
+    <hyperlink ref="B151" r:id="rId150"/>
+    <hyperlink ref="B152" r:id="rId151"/>
+    <hyperlink ref="B153" r:id="rId152"/>
+    <hyperlink ref="B154" r:id="rId153"/>
+    <hyperlink ref="B155" r:id="rId154"/>
+    <hyperlink ref="B156" r:id="rId155"/>
+    <hyperlink ref="B157" r:id="rId156"/>
+    <hyperlink ref="B158" r:id="rId157"/>
+    <hyperlink ref="B159" r:id="rId158"/>
+    <hyperlink ref="B160" r:id="rId159"/>
+    <hyperlink ref="B161" r:id="rId160"/>
+    <hyperlink ref="B162" r:id="rId161"/>
+    <hyperlink ref="B163" r:id="rId162"/>
+    <hyperlink ref="B164" r:id="rId163"/>
+    <hyperlink ref="B165" r:id="rId164"/>
+    <hyperlink ref="B166" r:id="rId165"/>
+    <hyperlink ref="B167" r:id="rId166"/>
+    <hyperlink ref="B168" r:id="rId167"/>
+    <hyperlink ref="B169" r:id="rId168"/>
+    <hyperlink ref="B170" r:id="rId169"/>
+    <hyperlink ref="B171" r:id="rId170"/>
+    <hyperlink ref="B172" r:id="rId171"/>
+    <hyperlink ref="B173" r:id="rId172"/>
+    <hyperlink ref="B174" r:id="rId173"/>
+    <hyperlink ref="B175" r:id="rId174"/>
+    <hyperlink ref="B176" r:id="rId175"/>
+    <hyperlink ref="B177" r:id="rId176"/>
+    <hyperlink ref="B178" r:id="rId177"/>
+    <hyperlink ref="B179" r:id="rId178"/>
+    <hyperlink ref="B180" r:id="rId179"/>
+    <hyperlink ref="B181" r:id="rId180"/>
+    <hyperlink ref="B182" r:id="rId181"/>
+    <hyperlink ref="B183" r:id="rId182"/>
+    <hyperlink ref="B184" r:id="rId183"/>
+    <hyperlink ref="B185" r:id="rId184"/>
+    <hyperlink ref="B186" r:id="rId185"/>
+    <hyperlink ref="B187" r:id="rId186"/>
+    <hyperlink ref="B188" r:id="rId187"/>
+    <hyperlink ref="B189" r:id="rId188"/>
+    <hyperlink ref="B190" r:id="rId189"/>
+    <hyperlink ref="B191" r:id="rId190"/>
+    <hyperlink ref="B192" r:id="rId191"/>
+    <hyperlink ref="B193" r:id="rId192"/>
+    <hyperlink ref="B194" r:id="rId193"/>
+    <hyperlink ref="B195" r:id="rId194"/>
+    <hyperlink ref="B196" r:id="rId195"/>
+    <hyperlink ref="B197" r:id="rId196"/>
+    <hyperlink ref="B198" r:id="rId197"/>
+    <hyperlink ref="B199" r:id="rId198"/>
+    <hyperlink ref="B200" r:id="rId199"/>
+    <hyperlink ref="B201" r:id="rId200"/>
+    <hyperlink ref="B202" r:id="rId201"/>
+    <hyperlink ref="B203" r:id="rId202"/>
+    <hyperlink ref="B204" r:id="rId203"/>
+    <hyperlink ref="B205" r:id="rId204"/>
+    <hyperlink ref="B206" r:id="rId205"/>
+    <hyperlink ref="B207" r:id="rId206"/>
+    <hyperlink ref="B208" r:id="rId207"/>
+    <hyperlink ref="B209" r:id="rId208"/>
+    <hyperlink ref="B210" r:id="rId209"/>
+    <hyperlink ref="B211" r:id="rId210"/>
+    <hyperlink ref="B212" r:id="rId211"/>
+    <hyperlink ref="B213" r:id="rId212"/>
+    <hyperlink ref="B214" r:id="rId213"/>
+    <hyperlink ref="B215" r:id="rId214"/>
+    <hyperlink ref="B216" r:id="rId215"/>
+    <hyperlink ref="B217" r:id="rId216"/>
+    <hyperlink ref="B218" r:id="rId217"/>
+    <hyperlink ref="B219" r:id="rId218"/>
+    <hyperlink ref="B220" r:id="rId219"/>
+    <hyperlink ref="B221" r:id="rId220"/>
+    <hyperlink ref="B222" r:id="rId221"/>
+    <hyperlink ref="B223" r:id="rId222"/>
+    <hyperlink ref="B224" r:id="rId223"/>
+    <hyperlink ref="B225" r:id="rId224"/>
+    <hyperlink ref="B226" r:id="rId225"/>
+    <hyperlink ref="B227" r:id="rId226"/>
+    <hyperlink ref="B228" r:id="rId227"/>
+    <hyperlink ref="B229" r:id="rId228"/>
+    <hyperlink ref="B230" r:id="rId229"/>
+    <hyperlink ref="B231" r:id="rId230"/>
+    <hyperlink ref="B232" r:id="rId231"/>
+    <hyperlink ref="B233" r:id="rId232"/>
+    <hyperlink ref="B234" r:id="rId233"/>
+    <hyperlink ref="B235" r:id="rId234"/>
+    <hyperlink ref="B236" r:id="rId235"/>
+    <hyperlink ref="B237" r:id="rId236"/>
+    <hyperlink ref="B238" r:id="rId237"/>
+    <hyperlink ref="B239" r:id="rId238"/>
+    <hyperlink ref="B240" r:id="rId239"/>
+    <hyperlink ref="B241" r:id="rId240"/>
+    <hyperlink ref="B242" r:id="rId241"/>
+    <hyperlink ref="B243" r:id="rId242"/>
+    <hyperlink ref="B244" r:id="rId243"/>
+    <hyperlink ref="B245" r:id="rId244"/>
+    <hyperlink ref="B246" r:id="rId245"/>
+    <hyperlink ref="B247" r:id="rId246"/>
+    <hyperlink ref="B248" r:id="rId247"/>
+    <hyperlink ref="B249" r:id="rId248"/>
+    <hyperlink ref="B250" r:id="rId249"/>
+    <hyperlink ref="B251" r:id="rId250"/>
+    <hyperlink ref="B252" r:id="rId251"/>
+    <hyperlink ref="B253" r:id="rId252"/>
+    <hyperlink ref="B254" r:id="rId253"/>
+    <hyperlink ref="B255" r:id="rId254"/>
+    <hyperlink ref="B256" r:id="rId255"/>
+    <hyperlink ref="B257" r:id="rId256"/>
+    <hyperlink ref="B258" r:id="rId257"/>
+    <hyperlink ref="B259" r:id="rId258"/>
+    <hyperlink ref="B260" r:id="rId259"/>
+    <hyperlink ref="B261" r:id="rId260"/>
+    <hyperlink ref="B262" r:id="rId261"/>
+    <hyperlink ref="B263" r:id="rId262"/>
+    <hyperlink ref="B264" r:id="rId263"/>
+    <hyperlink ref="B265" r:id="rId264"/>
+    <hyperlink ref="B266" r:id="rId265"/>
+    <hyperlink ref="B267" r:id="rId266"/>
+    <hyperlink ref="B268" r:id="rId267"/>
+    <hyperlink ref="B269" r:id="rId268"/>
+    <hyperlink ref="B270" r:id="rId269"/>
+    <hyperlink ref="B271" r:id="rId270"/>
+    <hyperlink ref="B272" r:id="rId271"/>
+    <hyperlink ref="B273" r:id="rId272"/>
+    <hyperlink ref="B274" r:id="rId273"/>
+    <hyperlink ref="B275" r:id="rId274"/>
+    <hyperlink ref="B276" r:id="rId275"/>
+    <hyperlink ref="B277" r:id="rId276"/>
+    <hyperlink ref="B278" r:id="rId277"/>
+    <hyperlink ref="B279" r:id="rId278"/>
+    <hyperlink ref="B280" r:id="rId279"/>
+    <hyperlink ref="B281" r:id="rId280"/>
+    <hyperlink ref="B282" r:id="rId281"/>
+    <hyperlink ref="B283" r:id="rId282"/>
+    <hyperlink ref="B284" r:id="rId283"/>
+    <hyperlink ref="B285" r:id="rId284"/>
+    <hyperlink ref="B286" r:id="rId285"/>
+    <hyperlink ref="B287" r:id="rId286"/>
+    <hyperlink ref="B288" r:id="rId287"/>
+    <hyperlink ref="B289" r:id="rId288"/>
+    <hyperlink ref="B290" r:id="rId289"/>
+    <hyperlink ref="B291" r:id="rId290"/>
+    <hyperlink ref="B292" r:id="rId291"/>
+    <hyperlink ref="B293" r:id="rId292"/>
+    <hyperlink ref="B294" r:id="rId293"/>
+    <hyperlink ref="B295" r:id="rId294"/>
+    <hyperlink ref="B296" r:id="rId295"/>
+    <hyperlink ref="B297" r:id="rId296"/>
+    <hyperlink ref="B298" r:id="rId297"/>
+    <hyperlink ref="B299" r:id="rId298"/>
+    <hyperlink ref="B300" r:id="rId299"/>
+    <hyperlink ref="B301" r:id="rId300"/>
+    <hyperlink ref="B302" r:id="rId301"/>
+    <hyperlink ref="B303" r:id="rId302"/>
+    <hyperlink ref="B304" r:id="rId303"/>
+    <hyperlink ref="B305" r:id="rId304"/>
+    <hyperlink ref="B306" r:id="rId305"/>
+    <hyperlink ref="B307" r:id="rId306"/>
+    <hyperlink ref="B308" r:id="rId307"/>
+    <hyperlink ref="B309" r:id="rId308"/>
+    <hyperlink ref="B310" r:id="rId309"/>
+    <hyperlink ref="B311" r:id="rId310"/>
+    <hyperlink ref="B312" r:id="rId311"/>
+    <hyperlink ref="B313" r:id="rId312"/>
+    <hyperlink ref="B314" r:id="rId313"/>
+    <hyperlink ref="B315" r:id="rId314"/>
+    <hyperlink ref="B316" r:id="rId315"/>
+    <hyperlink ref="B317" r:id="rId316"/>
+    <hyperlink ref="B318" r:id="rId317"/>
+    <hyperlink ref="B319" r:id="rId318"/>
+    <hyperlink ref="B320" r:id="rId319"/>
+    <hyperlink ref="B321" r:id="rId320"/>
+    <hyperlink ref="B322" r:id="rId321"/>
+    <hyperlink ref="B323" r:id="rId322"/>
+    <hyperlink ref="B324" r:id="rId323"/>
+    <hyperlink ref="B325" r:id="rId324"/>
+    <hyperlink ref="B326" r:id="rId325"/>
+    <hyperlink ref="B327" r:id="rId326"/>
+    <hyperlink ref="B328" r:id="rId327"/>
+    <hyperlink ref="B329" r:id="rId328"/>
+    <hyperlink ref="B330" r:id="rId329"/>
+    <hyperlink ref="B331" r:id="rId330"/>
+    <hyperlink ref="B332" r:id="rId331"/>
+    <hyperlink ref="B333" r:id="rId332"/>
+    <hyperlink ref="B334" r:id="rId333"/>
+    <hyperlink ref="B335" r:id="rId334"/>
+    <hyperlink ref="B336" r:id="rId335"/>
+    <hyperlink ref="B337" r:id="rId336"/>
+    <hyperlink ref="B338" r:id="rId337"/>
+    <hyperlink ref="B339" r:id="rId338"/>
+    <hyperlink ref="B340" r:id="rId339"/>
+    <hyperlink ref="B341" r:id="rId340"/>
+    <hyperlink ref="B342" r:id="rId341"/>
+    <hyperlink ref="B343" r:id="rId342"/>
+    <hyperlink ref="B344" r:id="rId343"/>
+    <hyperlink ref="B345" r:id="rId344"/>
+    <hyperlink ref="B346" r:id="rId345"/>
+    <hyperlink ref="B347" r:id="rId346"/>
+    <hyperlink ref="B348" r:id="rId347"/>
+    <hyperlink ref="B349" r:id="rId348"/>
+    <hyperlink ref="B350" r:id="rId349"/>
+    <hyperlink ref="B351" r:id="rId350"/>
+    <hyperlink ref="B352" r:id="rId351"/>
+    <hyperlink ref="B353" r:id="rId352"/>
+    <hyperlink ref="B354" r:id="rId353"/>
+    <hyperlink ref="B355" r:id="rId354"/>
+    <hyperlink ref="B356" r:id="rId355"/>
+    <hyperlink ref="B357" r:id="rId356"/>
+    <hyperlink ref="B358" r:id="rId357"/>
+    <hyperlink ref="B359" r:id="rId358"/>
+    <hyperlink ref="B360" r:id="rId359"/>
+    <hyperlink ref="B361" r:id="rId360"/>
+    <hyperlink ref="B362" r:id="rId361"/>
+    <hyperlink ref="B363" r:id="rId362"/>
+    <hyperlink ref="B364" r:id="rId363"/>
+    <hyperlink ref="B365" r:id="rId364"/>
+    <hyperlink ref="B366" r:id="rId365"/>
+    <hyperlink ref="B367" r:id="rId366"/>
+    <hyperlink ref="B368" r:id="rId367"/>
+    <hyperlink ref="B369" r:id="rId368"/>
+    <hyperlink ref="B370" r:id="rId369"/>
+    <hyperlink ref="B371" r:id="rId370"/>
+    <hyperlink ref="B372" r:id="rId371"/>
+    <hyperlink ref="B373" r:id="rId372"/>
+    <hyperlink ref="B374" r:id="rId373"/>
+    <hyperlink ref="B375" r:id="rId374"/>
+    <hyperlink ref="B376" r:id="rId375"/>
+    <hyperlink ref="B377" r:id="rId376"/>
+    <hyperlink ref="B378" r:id="rId377"/>
+    <hyperlink ref="B379" r:id="rId378"/>
+    <hyperlink ref="B380" r:id="rId379"/>
+    <hyperlink ref="B381" r:id="rId380"/>
+    <hyperlink ref="B382" r:id="rId381"/>
+    <hyperlink ref="B383" r:id="rId382"/>
+    <hyperlink ref="B384" r:id="rId383"/>
+    <hyperlink ref="B385" r:id="rId384"/>
+    <hyperlink ref="B386" r:id="rId385"/>
+    <hyperlink ref="B387" r:id="rId386"/>
+    <hyperlink ref="B388" r:id="rId387"/>
+    <hyperlink ref="B389" r:id="rId388"/>
+    <hyperlink ref="B390" r:id="rId389"/>
+    <hyperlink ref="B391" r:id="rId390"/>
+    <hyperlink ref="B392" r:id="rId391"/>
+    <hyperlink ref="B393" r:id="rId392"/>
+    <hyperlink ref="B394" r:id="rId393"/>
+    <hyperlink ref="B395" r:id="rId394"/>
+    <hyperlink ref="B396" r:id="rId395"/>
+    <hyperlink ref="B397" r:id="rId396"/>
+    <hyperlink ref="B398" r:id="rId397"/>
+    <hyperlink ref="B399" r:id="rId398"/>
+    <hyperlink ref="B400" r:id="rId399"/>
+    <hyperlink ref="B401" r:id="rId400"/>
+    <hyperlink ref="B402" r:id="rId401"/>
+    <hyperlink ref="B403" r:id="rId402"/>
+    <hyperlink ref="B404" r:id="rId403"/>
+    <hyperlink ref="B405" r:id="rId404"/>
+    <hyperlink ref="B406" r:id="rId405"/>
+    <hyperlink ref="B407" r:id="rId406"/>
+    <hyperlink ref="B408" r:id="rId407"/>
+    <hyperlink ref="B409" r:id="rId408"/>
+    <hyperlink ref="B410" r:id="rId409"/>
+    <hyperlink ref="B411" r:id="rId410"/>
+    <hyperlink ref="B412" r:id="rId411"/>
+    <hyperlink ref="B413" r:id="rId412"/>
+    <hyperlink ref="B414" r:id="rId413"/>
+    <hyperlink ref="B415" r:id="rId414"/>
+    <hyperlink ref="B416" r:id="rId415"/>
+    <hyperlink ref="B417" r:id="rId416"/>
+    <hyperlink ref="B418" r:id="rId417"/>
+    <hyperlink ref="B419" r:id="rId418"/>
+    <hyperlink ref="B420" r:id="rId419"/>
+    <hyperlink ref="B421" r:id="rId420"/>
+    <hyperlink ref="B422" r:id="rId421"/>
+    <hyperlink ref="B423" r:id="rId422"/>
+    <hyperlink ref="B424" r:id="rId423"/>
+    <hyperlink ref="B425" r:id="rId424"/>
+    <hyperlink ref="B426" r:id="rId425"/>
+    <hyperlink ref="B427" r:id="rId426"/>
+    <hyperlink ref="B428" r:id="rId427"/>
+    <hyperlink ref="B429" r:id="rId428"/>
+    <hyperlink ref="B430" r:id="rId429"/>
+    <hyperlink ref="B431" r:id="rId430"/>
+    <hyperlink ref="B432" r:id="rId431"/>
+    <hyperlink ref="B433" r:id="rId432"/>
+    <hyperlink ref="B434" r:id="rId433"/>
+    <hyperlink ref="B435" r:id="rId434"/>
+    <hyperlink ref="B436" r:id="rId435"/>
+    <hyperlink ref="B437" r:id="rId436"/>
+    <hyperlink ref="B438" r:id="rId437"/>
+    <hyperlink ref="B439" r:id="rId438"/>
+    <hyperlink ref="B440" r:id="rId439"/>
+    <hyperlink ref="B441" r:id="rId440"/>
+    <hyperlink ref="B442" r:id="rId441"/>
+    <hyperlink ref="B443" r:id="rId442"/>
+    <hyperlink ref="B444" r:id="rId443"/>
+    <hyperlink ref="B445" r:id="rId444"/>
+    <hyperlink ref="B446" r:id="rId445"/>
+    <hyperlink ref="B447" r:id="rId446"/>
+    <hyperlink ref="B448" r:id="rId447"/>
+    <hyperlink ref="B449" r:id="rId448"/>
+    <hyperlink ref="B450" r:id="rId449"/>
+    <hyperlink ref="B451" r:id="rId450"/>
+    <hyperlink ref="B452" r:id="rId451"/>
+    <hyperlink ref="B453" r:id="rId452"/>
+    <hyperlink ref="B454" r:id="rId453"/>
+    <hyperlink ref="B455" r:id="rId454"/>
+    <hyperlink ref="B456" r:id="rId455"/>
+    <hyperlink ref="B457" r:id="rId456"/>
+    <hyperlink ref="B458" r:id="rId457"/>
+    <hyperlink ref="B459" r:id="rId458"/>
+    <hyperlink ref="B460" r:id="rId459"/>
+    <hyperlink ref="B461" r:id="rId460"/>
+    <hyperlink ref="B462" r:id="rId461"/>
+    <hyperlink ref="B463" r:id="rId462"/>
+    <hyperlink ref="B464" r:id="rId463"/>
+    <hyperlink ref="B465" r:id="rId464"/>
+    <hyperlink ref="B466" r:id="rId465"/>
+    <hyperlink ref="B467" r:id="rId466"/>
+    <hyperlink ref="B468" r:id="rId467"/>
+    <hyperlink ref="B469" r:id="rId468"/>
+    <hyperlink ref="B470" r:id="rId469"/>
+    <hyperlink ref="B471" r:id="rId470"/>
+    <hyperlink ref="B472" r:id="rId471"/>
+    <hyperlink ref="B473" r:id="rId472"/>
+    <hyperlink ref="B474" r:id="rId473"/>
+    <hyperlink ref="B475" r:id="rId474"/>
+    <hyperlink ref="B476" r:id="rId475"/>
+    <hyperlink ref="B477" r:id="rId476"/>
+    <hyperlink ref="B478" r:id="rId477"/>
+    <hyperlink ref="B479" r:id="rId478"/>
+    <hyperlink ref="B480" r:id="rId479"/>
+    <hyperlink ref="B481" r:id="rId480"/>
+    <hyperlink ref="B482" r:id="rId481"/>
+    <hyperlink ref="B483" r:id="rId482"/>
+    <hyperlink ref="B484" r:id="rId483"/>
+    <hyperlink ref="B485" r:id="rId484"/>
+    <hyperlink ref="B486" r:id="rId485"/>
+    <hyperlink ref="B487" r:id="rId486"/>
+    <hyperlink ref="B488" r:id="rId487"/>
+    <hyperlink ref="B489" r:id="rId488"/>
+    <hyperlink ref="B490" r:id="rId489"/>
+    <hyperlink ref="B491" r:id="rId490"/>
+    <hyperlink ref="B492" r:id="rId491"/>
+    <hyperlink ref="B493" r:id="rId492"/>
+    <hyperlink ref="B494" r:id="rId493"/>
+    <hyperlink ref="B495" r:id="rId494"/>
+    <hyperlink ref="B496" r:id="rId495"/>
+    <hyperlink ref="B497" r:id="rId496"/>
+    <hyperlink ref="B498" r:id="rId497"/>
+    <hyperlink ref="B499" r:id="rId498"/>
+    <hyperlink ref="B500" r:id="rId499"/>
+    <hyperlink ref="B501" r:id="rId500"/>
+    <hyperlink ref="B502" r:id="rId501"/>
+    <hyperlink ref="B503" r:id="rId502"/>
+    <hyperlink ref="B504" r:id="rId503"/>
+    <hyperlink ref="B505" r:id="rId504"/>
+    <hyperlink ref="B506" r:id="rId505"/>
+    <hyperlink ref="B507" r:id="rId506"/>
+    <hyperlink ref="B508" r:id="rId507"/>
+    <hyperlink ref="B509" r:id="rId508"/>
+    <hyperlink ref="B510" r:id="rId509"/>
+    <hyperlink ref="B511" r:id="rId510"/>
+    <hyperlink ref="B512" r:id="rId511"/>
+    <hyperlink ref="B513" r:id="rId512"/>
+    <hyperlink ref="B514" r:id="rId513"/>
+    <hyperlink ref="B515" r:id="rId514"/>
+    <hyperlink ref="B516" r:id="rId515"/>
+    <hyperlink ref="B517" r:id="rId516"/>
+    <hyperlink ref="B518" r:id="rId517"/>
+    <hyperlink ref="B519" r:id="rId518"/>
+    <hyperlink ref="B520" r:id="rId519"/>
+    <hyperlink ref="B521" r:id="rId520"/>
+    <hyperlink ref="B522" r:id="rId521"/>
+    <hyperlink ref="B523" r:id="rId522"/>
+    <hyperlink ref="B524" r:id="rId523"/>
+    <hyperlink ref="B525" r:id="rId524"/>
+    <hyperlink ref="B526" r:id="rId525"/>
+    <hyperlink ref="B527" r:id="rId526"/>
+    <hyperlink ref="B528" r:id="rId527"/>
+    <hyperlink ref="B529" r:id="rId528"/>
+    <hyperlink ref="B530" r:id="rId529"/>
+    <hyperlink ref="B531" r:id="rId530"/>
+    <hyperlink ref="B532" r:id="rId531"/>
+    <hyperlink ref="B533" r:id="rId532"/>
+    <hyperlink ref="B534" r:id="rId533"/>
+    <hyperlink ref="B535" r:id="rId534"/>
+    <hyperlink ref="B536" r:id="rId535"/>
+    <hyperlink ref="B537" r:id="rId536"/>
+    <hyperlink ref="B538" r:id="rId537"/>
+    <hyperlink ref="B539" r:id="rId538"/>
+    <hyperlink ref="B540" r:id="rId539"/>
+    <hyperlink ref="B541" r:id="rId540"/>
+    <hyperlink ref="B542" r:id="rId541"/>
+    <hyperlink ref="B543" r:id="rId542"/>
+    <hyperlink ref="B544" r:id="rId543"/>
+    <hyperlink ref="B545" r:id="rId544"/>
+    <hyperlink ref="B546" r:id="rId545"/>
+    <hyperlink ref="B547" r:id="rId546"/>
+    <hyperlink ref="B548" r:id="rId547"/>
+    <hyperlink ref="B549" r:id="rId548"/>
+    <hyperlink ref="B550" r:id="rId549"/>
+    <hyperlink ref="B551" r:id="rId550"/>
+    <hyperlink ref="B552" r:id="rId551"/>
+    <hyperlink ref="B553" r:id="rId552"/>
+    <hyperlink ref="B554" r:id="rId553"/>
+    <hyperlink ref="B555" r:id="rId554"/>
+    <hyperlink ref="B556" r:id="rId555"/>
+    <hyperlink ref="B557" r:id="rId556"/>
+    <hyperlink ref="B558" r:id="rId557"/>
+    <hyperlink ref="B559" r:id="rId558"/>
+    <hyperlink ref="B560" r:id="rId559"/>
+    <hyperlink ref="B561" r:id="rId560"/>
+    <hyperlink ref="B562" r:id="rId561"/>
+    <hyperlink ref="B563" r:id="rId562"/>
+    <hyperlink ref="B564" r:id="rId563"/>
+    <hyperlink ref="B565" r:id="rId564"/>
+    <hyperlink ref="B566" r:id="rId565"/>
+    <hyperlink ref="B567" r:id="rId566"/>
+    <hyperlink ref="B568" r:id="rId567"/>
+    <hyperlink ref="B569" r:id="rId568"/>
+    <hyperlink ref="B570" r:id="rId569"/>
+    <hyperlink ref="B571" r:id="rId570"/>
+    <hyperlink ref="B572" r:id="rId571"/>
+    <hyperlink ref="B573" r:id="rId572"/>
+    <hyperlink ref="B574" r:id="rId573"/>
+    <hyperlink ref="B575" r:id="rId574"/>
+    <hyperlink ref="B576" r:id="rId575"/>
+    <hyperlink ref="B577" r:id="rId576"/>
+    <hyperlink ref="B578" r:id="rId577"/>
+    <hyperlink ref="B579" r:id="rId578"/>
+    <hyperlink ref="B580" r:id="rId579"/>
+    <hyperlink ref="B581" r:id="rId580"/>
+    <hyperlink ref="B582" r:id="rId581"/>
+    <hyperlink ref="B583" r:id="rId582"/>
+    <hyperlink ref="B584" r:id="rId583"/>
+    <hyperlink ref="B585" r:id="rId584"/>
+    <hyperlink ref="B586" r:id="rId585"/>
+    <hyperlink ref="B587" r:id="rId586"/>
+    <hyperlink ref="B588" r:id="rId587"/>
+    <hyperlink ref="B589" r:id="rId588"/>
+    <hyperlink ref="B590" r:id="rId589"/>
+    <hyperlink ref="B591" r:id="rId590"/>
+    <hyperlink ref="B592" r:id="rId591"/>
+    <hyperlink ref="B593" r:id="rId592"/>
+    <hyperlink ref="B594" r:id="rId593"/>
+    <hyperlink ref="B595" r:id="rId594"/>
+    <hyperlink ref="B596" r:id="rId595"/>
+    <hyperlink ref="B597" r:id="rId596"/>
+    <hyperlink ref="B598" r:id="rId597"/>
+    <hyperlink ref="B599" r:id="rId598"/>
+    <hyperlink ref="B600" r:id="rId599"/>
+    <hyperlink ref="B601" r:id="rId600"/>
+    <hyperlink ref="B602" r:id="rId601"/>
+    <hyperlink ref="B603" r:id="rId602"/>
+    <hyperlink ref="B604" r:id="rId603"/>
+    <hyperlink ref="B605" r:id="rId604"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
